--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R594"/>
+  <dimension ref="A1:R598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38153,24 +38153,24 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K525" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L525" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M525" t="n">
-        <v>11556</v>
+        <v>9500</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>462</v>
+        <v>380</v>
       </c>
       <c r="Q525" t="n">
         <v>25</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38220,25 +38220,25 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="K526" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L526" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M526" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="Q526" t="n">
         <v>25</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K527" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L527" t="n">
         <v>9000</v>
       </c>
       <c r="M527" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q527" t="n">
         <v>25</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="K528" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L528" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M528" t="n">
-        <v>7750</v>
+        <v>6498</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q528" t="n">
         <v>25</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,24 +38441,24 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K529" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L529" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M529" t="n">
-        <v>10000</v>
+        <v>11556</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="Q529" t="n">
         <v>25</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K530" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L530" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M530" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="Q530" t="n">
         <v>25</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38580,25 +38580,25 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K531" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L531" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M531" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="Q531" t="n">
         <v>25</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38652,25 +38652,25 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K532" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L532" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M532" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="Q532" t="n">
         <v>25</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38729,24 +38729,24 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K533" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L533" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M533" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="Q533" t="n">
         <v>25</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38796,38 +38796,38 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K534" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L534" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M534" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="Q534" t="n">
         <v>25</v>
@@ -38868,38 +38868,38 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K535" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L535" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M535" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q535" t="n">
         <v>25</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38945,24 +38945,24 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K536" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L536" t="n">
         <v>10000</v>
       </c>
-      <c r="L536" t="n">
-        <v>11000</v>
-      </c>
       <c r="M536" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q536" t="n">
         <v>25</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K537" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L537" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M537" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="Q537" t="n">
         <v>25</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39084,7 +39084,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K538" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L538" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M538" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39111,11 +39111,11 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q538" t="n">
         <v>25</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39156,7 +39156,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="K539" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L539" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M539" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q539" t="n">
         <v>25</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>1450</v>
+        <v>340</v>
       </c>
       <c r="K540" t="n">
         <v>10000</v>
       </c>
       <c r="L540" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M540" t="n">
-        <v>10734</v>
+        <v>10500</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q540" t="n">
         <v>25</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>856</v>
+        <v>250</v>
       </c>
       <c r="K541" t="n">
         <v>8000</v>
       </c>
       <c r="L541" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M541" t="n">
-        <v>8687</v>
+        <v>8500</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Q541" t="n">
         <v>25</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39372,25 +39372,25 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K542" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L542" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M542" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39399,11 +39399,11 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q542" t="n">
         <v>25</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39444,25 +39444,25 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K543" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L543" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M543" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39471,11 +39471,11 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q543" t="n">
         <v>25</v>
@@ -39516,25 +39516,25 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>340</v>
+        <v>1450</v>
       </c>
       <c r="K544" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L544" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M544" t="n">
-        <v>9500</v>
+        <v>10734</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="Q544" t="n">
         <v>25</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>210</v>
+        <v>856</v>
       </c>
       <c r="K545" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L545" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M545" t="n">
-        <v>7500</v>
+        <v>8687</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="Q545" t="n">
         <v>25</v>
@@ -39660,25 +39660,25 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>1450</v>
+        <v>340</v>
       </c>
       <c r="K546" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L546" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M546" t="n">
-        <v>9672</v>
+        <v>11500</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39687,11 +39687,11 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>387</v>
+        <v>460</v>
       </c>
       <c r="Q546" t="n">
         <v>25</v>
@@ -39732,25 +39732,25 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>832</v>
+        <v>160</v>
       </c>
       <c r="K547" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L547" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M547" t="n">
-        <v>7627</v>
+        <v>9500</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="Q547" t="n">
         <v>25</v>
@@ -39804,7 +39804,7 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -39816,13 +39816,13 @@
         <v>340</v>
       </c>
       <c r="K548" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L548" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M548" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39831,11 +39831,11 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q548" t="n">
         <v>25</v>
@@ -39876,7 +39876,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -39885,17 +39885,17 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K549" t="n">
         <v>7000</v>
       </c>
       <c r="L549" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M549" t="n">
         <v>7500</v>
       </c>
-      <c r="M549" t="n">
-        <v>7250</v>
-      </c>
       <c r="N549" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q549" t="n">
         <v>25</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39948,25 +39948,25 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>340</v>
+        <v>1450</v>
       </c>
       <c r="K550" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L550" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M550" t="n">
-        <v>8000</v>
+        <v>9672</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="Q550" t="n">
         <v>25</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40020,25 +40020,25 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>250</v>
+        <v>832</v>
       </c>
       <c r="K551" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L551" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M551" t="n">
-        <v>6750</v>
+        <v>7627</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="Q551" t="n">
         <v>25</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40092,25 +40092,25 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K552" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L552" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M552" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40119,11 +40119,11 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q552" t="n">
         <v>25</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40164,25 +40164,25 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K553" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L553" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M553" t="n">
-        <v>10000</v>
+        <v>7250</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40191,11 +40191,11 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="Q553" t="n">
         <v>25</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40236,25 +40236,25 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K554" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L554" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M554" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="Q554" t="n">
         <v>25</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40313,24 +40313,24 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K555" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L555" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M555" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q555" t="n">
         <v>25</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40385,24 +40385,24 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K556" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L556" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M556" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q556" t="n">
         <v>25</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K557" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L557" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M557" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q557" t="n">
         <v>25</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40524,25 +40524,25 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K558" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L558" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M558" t="n">
-        <v>7250</v>
+        <v>11000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="Q558" t="n">
         <v>25</v>
@@ -40596,38 +40596,38 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K559" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L559" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M559" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q559" t="n">
         <v>25</v>
@@ -40668,25 +40668,25 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K560" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L560" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M560" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q560" t="n">
         <v>25</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40745,24 +40745,24 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K561" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L561" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M561" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q561" t="n">
         <v>25</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40812,29 +40812,29 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K562" t="n">
         <v>7000</v>
       </c>
       <c r="L562" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M562" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O562" t="inlineStr">
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q562" t="n">
         <v>25</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K563" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L563" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M563" t="n">
-        <v>7000</v>
+        <v>6250</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="Q563" t="n">
         <v>25</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40956,38 +40956,38 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K564" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L564" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M564" t="n">
-        <v>8750</v>
+        <v>5000</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q564" t="n">
         <v>25</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41033,24 +41033,24 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K565" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L565" t="n">
         <v>8000</v>
       </c>
       <c r="M565" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q565" t="n">
         <v>25</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41100,25 +41100,25 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K566" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L566" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M566" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="Q566" t="n">
         <v>25</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41177,24 +41177,24 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K567" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L567" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M567" t="n">
-        <v>8250</v>
+        <v>7000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="Q567" t="n">
         <v>25</v>
@@ -41244,38 +41244,38 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K568" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L568" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M568" t="n">
-        <v>7250</v>
+        <v>8750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="Q568" t="n">
         <v>25</v>
@@ -41316,25 +41316,25 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K569" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L569" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M569" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q569" t="n">
         <v>25</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41393,33 +41393,33 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>280</v>
+        <v>97</v>
       </c>
       <c r="K570" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L570" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M570" t="n">
-        <v>11357</v>
+        <v>6500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>454</v>
+        <v>260</v>
       </c>
       <c r="Q570" t="n">
         <v>25</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41460,38 +41460,38 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K571" t="n">
         <v>8000</v>
       </c>
       <c r="L571" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M571" t="n">
-        <v>8000</v>
+        <v>8250</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Q571" t="n">
         <v>25</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41532,38 +41532,38 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K572" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L572" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M572" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q572" t="n">
         <v>25</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="K573" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L573" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M573" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="Q573" t="n">
         <v>25</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41676,38 +41676,38 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K574" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L574" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M574" t="n">
-        <v>6750</v>
+        <v>11357</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>270</v>
+        <v>454</v>
       </c>
       <c r="Q574" t="n">
         <v>25</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,38 +41748,38 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K575" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L575" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M575" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="Q575" t="n">
         <v>25</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41825,24 +41825,24 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K576" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L576" t="n">
         <v>8000</v>
       </c>
       <c r="M576" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="Q576" t="n">
         <v>25</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K577" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L577" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M577" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q577" t="n">
         <v>25</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41964,25 +41964,25 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K578" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L578" t="n">
         <v>7000</v>
       </c>
       <c r="M578" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q578" t="n">
         <v>25</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42041,24 +42041,24 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K579" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L579" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M579" t="n">
-        <v>11375</v>
+        <v>9500</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>455</v>
+        <v>380</v>
       </c>
       <c r="Q579" t="n">
         <v>25</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42108,38 +42108,38 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J580" t="n">
+        <v>250</v>
+      </c>
+      <c r="K580" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L580" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M580" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N580" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P580" t="n">
         <v>300</v>
-      </c>
-      <c r="K580" t="n">
-        <v>11000</v>
-      </c>
-      <c r="L580" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M580" t="n">
-        <v>11000</v>
-      </c>
-      <c r="N580" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O580" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P580" t="n">
-        <v>440</v>
       </c>
       <c r="Q580" t="n">
         <v>25</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42180,38 +42180,38 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J581" t="n">
+        <v>430</v>
+      </c>
+      <c r="K581" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L581" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M581" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N581" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P581" t="n">
         <v>340</v>
-      </c>
-      <c r="K581" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L581" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M581" t="n">
-        <v>10000</v>
-      </c>
-      <c r="N581" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O581" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P581" t="n">
-        <v>400</v>
       </c>
       <c r="Q581" t="n">
         <v>25</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,25 +42252,25 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K582" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L582" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M582" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q582" t="n">
         <v>25</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42329,24 +42329,24 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K583" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L583" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M583" t="n">
-        <v>9750</v>
+        <v>11375</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="Q583" t="n">
         <v>25</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -42405,16 +42405,16 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K584" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L584" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M584" t="n">
-        <v>8750</v>
+        <v>11000</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="Q584" t="n">
         <v>25</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,33 +42473,33 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K585" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L585" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M585" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="Q585" t="n">
         <v>25</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42540,38 +42540,38 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K586" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L586" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M586" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q586" t="n">
         <v>25</v>
@@ -42612,38 +42612,38 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K587" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L587" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M587" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q587" t="n">
         <v>25</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K588" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L588" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M588" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="Q588" t="n">
         <v>25</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42761,24 +42761,24 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K589" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L589" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M589" t="n">
-        <v>9750</v>
+        <v>7000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="Q589" t="n">
         <v>25</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42828,38 +42828,38 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J590" t="n">
         <v>250</v>
       </c>
       <c r="K590" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L590" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M590" t="n">
-        <v>8250</v>
+        <v>8750</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q590" t="n">
         <v>25</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42900,25 +42900,25 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J591" t="n">
         <v>160</v>
       </c>
       <c r="K591" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L591" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M591" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q591" t="n">
         <v>25</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42977,24 +42977,24 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K592" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L592" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M592" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q592" t="n">
         <v>25</v>
@@ -43044,38 +43044,38 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K593" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L593" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M593" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q593" t="n">
         <v>25</v>
@@ -43116,43 +43116,331 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J594" t="n">
+        <v>250</v>
+      </c>
+      <c r="K594" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L594" t="n">
+        <v>8500</v>
+      </c>
+      <c r="M594" t="n">
+        <v>8250</v>
+      </c>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P594" t="n">
+        <v>330</v>
+      </c>
+      <c r="Q594" t="n">
+        <v>25</v>
+      </c>
+      <c r="R594" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>9</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D595" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E595" t="n">
+        <v>13</v>
+      </c>
+      <c r="F595" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J595" t="n">
+        <v>160</v>
+      </c>
+      <c r="K595" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L595" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M595" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N595" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P595" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>25</v>
+      </c>
+      <c r="R595" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>9</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D596" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E596" t="n">
+        <v>13</v>
+      </c>
+      <c r="F596" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
           <t>Pukará</t>
         </is>
       </c>
-      <c r="I594" t="inlineStr">
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>1a (guarda lavada)</t>
+        </is>
+      </c>
+      <c r="J596" t="n">
+        <v>340</v>
+      </c>
+      <c r="K596" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L596" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M596" t="n">
+        <v>8750</v>
+      </c>
+      <c r="N596" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P596" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q596" t="n">
+        <v>25</v>
+      </c>
+      <c r="R596" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>9</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D597" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E597" t="n">
+        <v>13</v>
+      </c>
+      <c r="F597" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Pukará</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J597" t="n">
+        <v>160</v>
+      </c>
+      <c r="K597" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L597" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M597" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N597" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P597" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q597" t="n">
+        <v>25</v>
+      </c>
+      <c r="R597" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>9</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D598" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E598" t="n">
+        <v>13</v>
+      </c>
+      <c r="F598" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>Pukará</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
         <is>
           <t>2a (guarda)</t>
         </is>
       </c>
-      <c r="J594" t="n">
+      <c r="J598" t="n">
         <v>97</v>
       </c>
-      <c r="K594" t="n">
+      <c r="K598" t="n">
         <v>7000</v>
       </c>
-      <c r="L594" t="n">
+      <c r="L598" t="n">
         <v>7000</v>
       </c>
-      <c r="M594" t="n">
+      <c r="M598" t="n">
         <v>7000</v>
       </c>
-      <c r="N594" t="inlineStr">
+      <c r="N598" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O594" t="inlineStr">
+      <c r="O598" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P594" t="n">
+      <c r="P598" t="n">
         <v>280</v>
       </c>
-      <c r="Q594" t="n">
-        <v>25</v>
-      </c>
-      <c r="R594" t="inlineStr">
+      <c r="Q598" t="n">
+        <v>25</v>
+      </c>
+      <c r="R598" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R618"/>
+  <dimension ref="A1:R622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41316,25 +41316,25 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J569" t="n">
         <v>340</v>
       </c>
       <c r="K569" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L569" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M569" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q569" t="n">
         <v>25</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41388,25 +41388,25 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K570" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L570" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M570" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q570" t="n">
         <v>25</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41465,33 +41465,33 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K571" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L571" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M571" t="n">
-        <v>6250</v>
+        <v>9500</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="Q571" t="n">
         <v>25</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41532,25 +41532,25 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="K572" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L572" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M572" t="n">
-        <v>12606</v>
+        <v>7496</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>504</v>
+        <v>300</v>
       </c>
       <c r="Q572" t="n">
         <v>25</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41604,38 +41604,38 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K573" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L573" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M573" t="n">
-        <v>13556</v>
+        <v>7750</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>542</v>
+        <v>310</v>
       </c>
       <c r="Q573" t="n">
         <v>25</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41676,25 +41676,25 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K574" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L574" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M574" t="n">
-        <v>11444</v>
+        <v>6250</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q574" t="n">
         <v>25</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,25 +41748,25 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="K575" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L575" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M575" t="n">
-        <v>12000</v>
+        <v>6250</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="Q575" t="n">
         <v>25</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="K576" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L576" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M576" t="n">
-        <v>11000</v>
+        <v>12606</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="Q576" t="n">
         <v>25</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41892,38 +41892,38 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="K577" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L577" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M577" t="n">
-        <v>8250</v>
+        <v>13556</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>330</v>
+        <v>542</v>
       </c>
       <c r="Q577" t="n">
         <v>25</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41964,25 +41964,25 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K578" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L578" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M578" t="n">
-        <v>7250</v>
+        <v>11444</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>290</v>
+        <v>458</v>
       </c>
       <c r="Q578" t="n">
         <v>25</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42036,7 +42036,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -42045,29 +42045,29 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="K579" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L579" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M579" t="n">
-        <v>8750</v>
+        <v>12000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="Q579" t="n">
         <v>25</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42108,7 +42108,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K580" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L580" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M580" t="n">
-        <v>7750</v>
+        <v>11000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="Q580" t="n">
         <v>25</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42180,38 +42180,38 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K581" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L581" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M581" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q581" t="n">
         <v>25</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,29 +42252,29 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J582" t="n">
         <v>340</v>
       </c>
       <c r="K582" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L582" t="n">
         <v>7500</v>
       </c>
-      <c r="L582" t="n">
-        <v>8000</v>
-      </c>
       <c r="M582" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q582" t="n">
         <v>25</v>
@@ -42324,38 +42324,38 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K583" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L583" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M583" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q583" t="n">
         <v>25</v>
@@ -42396,25 +42396,25 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K584" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L584" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M584" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q584" t="n">
         <v>25</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,24 +42473,24 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K585" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L585" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M585" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q585" t="n">
         <v>25</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42540,38 +42540,38 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K586" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L586" t="n">
         <v>8000</v>
       </c>
       <c r="M586" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q586" t="n">
         <v>25</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42612,38 +42612,38 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K587" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L587" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M587" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q587" t="n">
         <v>25</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K588" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L588" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M588" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q588" t="n">
         <v>25</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42756,38 +42756,38 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K589" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L589" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M589" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q589" t="n">
         <v>25</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42828,38 +42828,38 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K590" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L590" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M590" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="Q590" t="n">
         <v>25</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42905,7 +42905,7 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J591" t="n">
@@ -42922,7 +42922,7 @@
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42972,38 +42972,38 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K592" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L592" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M592" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="Q592" t="n">
         <v>25</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43044,38 +43044,38 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K593" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L593" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M593" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="Q593" t="n">
         <v>25</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43116,38 +43116,38 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J594" t="n">
         <v>340</v>
       </c>
       <c r="K594" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L594" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M594" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="Q594" t="n">
         <v>25</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43193,24 +43193,24 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J595" t="n">
         <v>430</v>
       </c>
       <c r="K595" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L595" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M595" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q595" t="n">
         <v>25</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43260,38 +43260,38 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K596" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L596" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M596" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q596" t="n">
         <v>25</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43337,33 +43337,33 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K597" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L597" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M597" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q597" t="n">
         <v>25</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43409,33 +43409,33 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J598" t="n">
         <v>340</v>
       </c>
       <c r="K598" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L598" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M598" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q598" t="n">
         <v>25</v>
@@ -43476,38 +43476,38 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K599" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L599" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M599" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q599" t="n">
         <v>25</v>
@@ -43548,25 +43548,25 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K600" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L600" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M600" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q600" t="n">
         <v>25</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43625,24 +43625,24 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K601" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L601" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M601" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="Q601" t="n">
         <v>25</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43692,29 +43692,29 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K602" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L602" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M602" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q602" t="n">
         <v>25</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43764,38 +43764,38 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K603" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L603" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M603" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q603" t="n">
         <v>25</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43836,25 +43836,25 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K604" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L604" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M604" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="Q604" t="n">
         <v>25</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43908,25 +43908,25 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J605" t="n">
         <v>340</v>
       </c>
       <c r="K605" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L605" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M605" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Q605" t="n">
         <v>25</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43980,25 +43980,25 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K606" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L606" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M606" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44007,11 +44007,11 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q606" t="n">
         <v>25</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K607" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L607" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M607" t="n">
-        <v>11500</v>
+        <v>8250</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="Q607" t="n">
         <v>25</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K608" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L608" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M608" t="n">
-        <v>10000</v>
+        <v>7250</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="Q608" t="n">
         <v>25</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44196,38 +44196,38 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K609" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L609" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M609" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="Q609" t="n">
         <v>25</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,38 +44268,38 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K610" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L610" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M610" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q610" t="n">
         <v>25</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44345,24 +44345,24 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K611" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L611" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M611" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q611" t="n">
         <v>25</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K612" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L612" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M612" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="Q612" t="n">
         <v>25</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44484,38 +44484,38 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K613" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L613" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M613" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q613" t="n">
         <v>25</v>
@@ -44556,38 +44556,38 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J614" t="n">
         <v>340</v>
       </c>
       <c r="K614" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L614" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M614" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q614" t="n">
         <v>25</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K615" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L615" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M615" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q615" t="n">
         <v>25</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44705,24 +44705,24 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K616" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L616" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M616" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q616" t="n">
         <v>25</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,29 +44772,29 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K617" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L617" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M617" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q617" t="n">
         <v>25</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44849,11 +44849,11 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K618" t="n">
         <v>6500</v>
@@ -44871,7 +44871,7 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P618" t="n">
@@ -44881,6 +44881,294 @@
         <v>25</v>
       </c>
       <c r="R618" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>9</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D619" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E619" t="n">
+        <v>13</v>
+      </c>
+      <c r="F619" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J619" t="n">
+        <v>97</v>
+      </c>
+      <c r="K619" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L619" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M619" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N619" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O619" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P619" t="n">
+        <v>240</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>25</v>
+      </c>
+      <c r="R619" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>9</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D620" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E620" t="n">
+        <v>13</v>
+      </c>
+      <c r="F620" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>1a (cosecha lavada)</t>
+        </is>
+      </c>
+      <c r="J620" t="n">
+        <v>340</v>
+      </c>
+      <c r="K620" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L620" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M620" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N620" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O620" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P620" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q620" t="n">
+        <v>25</v>
+      </c>
+      <c r="R620" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>9</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D621" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E621" t="n">
+        <v>13</v>
+      </c>
+      <c r="F621" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>Pukará</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J621" t="n">
+        <v>160</v>
+      </c>
+      <c r="K621" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L621" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M621" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N621" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O621" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P621" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q621" t="n">
+        <v>25</v>
+      </c>
+      <c r="R621" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>9</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D622" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E622" t="n">
+        <v>13</v>
+      </c>
+      <c r="F622" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J622" t="n">
+        <v>80</v>
+      </c>
+      <c r="K622" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L622" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M622" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N622" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O622" t="inlineStr">
+        <is>
+          <t>Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="P622" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q622" t="n">
+        <v>25</v>
+      </c>
+      <c r="R622" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R626"/>
+  <dimension ref="A1:R630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35201,24 +35201,24 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K484" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L484" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M484" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="Q484" t="n">
         <v>25</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K485" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L485" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M485" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35295,11 +35295,11 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="Q485" t="n">
         <v>25</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35340,25 +35340,25 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K486" t="n">
-        <v>8500</v>
+        <v>1000</v>
       </c>
       <c r="L486" t="n">
         <v>9000</v>
       </c>
       <c r="M486" t="n">
-        <v>8750</v>
+        <v>5000</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35367,11 +35367,11 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q486" t="n">
         <v>25</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,25 +35412,25 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K487" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L487" t="n">
         <v>8000</v>
       </c>
       <c r="M487" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q487" t="n">
         <v>25</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35484,25 +35484,25 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J488" t="n">
         <v>250</v>
       </c>
       <c r="K488" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L488" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M488" t="n">
-        <v>7750</v>
+        <v>13000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35511,11 +35511,11 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Q488" t="n">
         <v>25</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,33 +35561,33 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K489" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L489" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M489" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="Q489" t="n">
         <v>25</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35628,38 +35628,38 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K490" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L490" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M490" t="n">
-        <v>8000</v>
+        <v>8750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="Q490" t="n">
         <v>25</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,38 +35700,38 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K491" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L491" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M491" t="n">
-        <v>10000</v>
+        <v>7750</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="Q491" t="n">
         <v>25</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J492" t="n">
         <v>250</v>
       </c>
       <c r="K492" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L492" t="n">
         <v>8000</v>
       </c>
       <c r="M492" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q492" t="n">
         <v>25</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35853,7 +35853,7 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K493" t="n">
         <v>10000</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35943,7 +35943,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P494" t="n">
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35988,38 +35988,38 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K495" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L495" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M495" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q495" t="n">
         <v>25</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K496" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L496" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M496" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36087,11 +36087,11 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="Q496" t="n">
         <v>25</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36137,33 +36137,33 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K497" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L497" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M497" t="n">
-        <v>11444</v>
+        <v>10000</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="Q497" t="n">
         <v>25</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36204,25 +36204,25 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K498" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L498" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M498" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36231,11 +36231,11 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="Q498" t="n">
         <v>25</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K499" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L499" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M499" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36303,11 +36303,11 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="Q499" t="n">
         <v>25</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36353,24 +36353,24 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K500" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L500" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M500" t="n">
-        <v>8250</v>
+        <v>11000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="Q500" t="n">
         <v>25</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K501" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L501" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M501" t="n">
-        <v>7250</v>
+        <v>11444</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36447,11 +36447,11 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>290</v>
+        <v>458</v>
       </c>
       <c r="Q501" t="n">
         <v>25</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36492,38 +36492,38 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K502" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L502" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M502" t="n">
-        <v>7750</v>
+        <v>12000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="Q502" t="n">
         <v>25</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36564,25 +36564,25 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="K503" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L503" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M503" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36591,11 +36591,11 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q503" t="n">
         <v>25</v>
@@ -36636,38 +36636,38 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K504" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L504" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M504" t="n">
-        <v>5000</v>
+        <v>8250</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Q504" t="n">
         <v>25</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36713,24 +36713,24 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K505" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L505" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M505" t="n">
-        <v>11500</v>
+        <v>7250</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="Q505" t="n">
         <v>25</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36780,38 +36780,38 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K506" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L506" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M506" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="Q506" t="n">
         <v>25</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36852,38 +36852,38 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K507" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L507" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M507" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q507" t="n">
         <v>25</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36924,25 +36924,25 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K508" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L508" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M508" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36951,11 +36951,11 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="Q508" t="n">
         <v>25</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -36996,38 +36996,38 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K509" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L509" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M509" t="n">
-        <v>8444</v>
+        <v>11500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>338</v>
+        <v>460</v>
       </c>
       <c r="Q509" t="n">
         <v>25</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37073,24 +37073,24 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K510" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L510" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M510" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="Q510" t="n">
         <v>25</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37140,38 +37140,38 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J511" t="n">
         <v>250</v>
       </c>
       <c r="K511" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L511" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M511" t="n">
-        <v>7250</v>
+        <v>10500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="Q511" t="n">
         <v>25</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,38 +37212,38 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J512" t="n">
+        <v>106</v>
+      </c>
+      <c r="K512" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L512" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M512" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P512" t="n">
         <v>340</v>
-      </c>
-      <c r="K512" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L512" t="n">
-        <v>7500</v>
-      </c>
-      <c r="M512" t="n">
-        <v>7250</v>
-      </c>
-      <c r="N512" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O512" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P512" t="n">
-        <v>290</v>
       </c>
       <c r="Q512" t="n">
         <v>25</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K513" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L513" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M513" t="n">
-        <v>6250</v>
+        <v>8444</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="Q513" t="n">
         <v>25</v>
@@ -37356,38 +37356,38 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K514" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L514" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M514" t="n">
-        <v>5000</v>
+        <v>8250</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Q514" t="n">
         <v>25</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37433,24 +37433,24 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K515" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L515" t="n">
         <v>7500</v>
       </c>
-      <c r="L515" t="n">
-        <v>8000</v>
-      </c>
       <c r="M515" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q515" t="n">
         <v>25</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37500,38 +37500,38 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K516" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L516" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M516" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q516" t="n">
         <v>25</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37572,25 +37572,25 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J517" t="n">
         <v>250</v>
       </c>
       <c r="K517" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L517" t="n">
         <v>6500</v>
       </c>
-      <c r="L517" t="n">
-        <v>7000</v>
-      </c>
       <c r="M517" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q517" t="n">
         <v>25</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37644,38 +37644,38 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K518" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L518" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M518" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q518" t="n">
         <v>25</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37716,38 +37716,38 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K519" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L519" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M519" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q519" t="n">
         <v>25</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37800,13 +37800,13 @@
         <v>160</v>
       </c>
       <c r="K520" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L520" t="n">
         <v>7000</v>
       </c>
       <c r="M520" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37815,11 +37815,11 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q520" t="n">
         <v>25</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37860,38 +37860,38 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K521" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L521" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M521" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="Q521" t="n">
         <v>25</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37937,7 +37937,7 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J522" t="n">
@@ -37947,14 +37947,14 @@
         <v>8000</v>
       </c>
       <c r="L522" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M522" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q522" t="n">
         <v>25</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38004,25 +38004,25 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J523" t="n">
         <v>160</v>
       </c>
       <c r="K523" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L523" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M523" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q523" t="n">
         <v>25</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38081,24 +38081,24 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K524" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L524" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M524" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q524" t="n">
         <v>25</v>
@@ -38148,38 +38148,38 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K525" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L525" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M525" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q525" t="n">
         <v>25</v>
@@ -38220,25 +38220,25 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K526" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L526" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M526" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="Q526" t="n">
         <v>25</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38297,24 +38297,24 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K527" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L527" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M527" t="n">
-        <v>8250</v>
+        <v>7500</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="Q527" t="n">
         <v>25</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38364,38 +38364,38 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K528" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L528" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M528" t="n">
-        <v>7250</v>
+        <v>8750</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="Q528" t="n">
         <v>25</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,24 +38441,24 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J529" t="n">
         <v>250</v>
       </c>
       <c r="K529" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L529" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M529" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q529" t="n">
         <v>25</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K530" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L530" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M530" t="n">
-        <v>5750</v>
+        <v>7000</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="Q530" t="n">
         <v>25</v>
@@ -38580,38 +38580,38 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K531" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L531" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M531" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="Q531" t="n">
         <v>25</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38657,24 +38657,24 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K532" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L532" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M532" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q532" t="n">
         <v>25</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38724,38 +38724,38 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K533" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L533" t="n">
         <v>7000</v>
       </c>
       <c r="M533" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q533" t="n">
         <v>25</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38796,38 +38796,38 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K534" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L534" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M534" t="n">
-        <v>9000</v>
+        <v>5750</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="Q534" t="n">
         <v>25</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38868,25 +38868,25 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K535" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L535" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M535" t="n">
-        <v>8000</v>
+        <v>5750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="Q535" t="n">
         <v>25</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K536" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L536" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M536" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q536" t="n">
         <v>25</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39012,12 +39012,12 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J537" t="n">
@@ -39039,7 +39039,7 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P537" t="n">
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39084,38 +39084,38 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J538" t="n">
         <v>250</v>
       </c>
       <c r="K538" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L538" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M538" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="Q538" t="n">
         <v>25</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39156,38 +39156,38 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K539" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L539" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M539" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q539" t="n">
         <v>25</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39228,38 +39228,38 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K540" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L540" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M540" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Q540" t="n">
         <v>25</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39300,38 +39300,38 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K541" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L541" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M541" t="n">
-        <v>8250</v>
+        <v>7000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="Q541" t="n">
         <v>25</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39372,7 +39372,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -39387,10 +39387,10 @@
         <v>7000</v>
       </c>
       <c r="L542" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M542" t="n">
-        <v>7250</v>
+        <v>7000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39399,11 +39399,11 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="Q542" t="n">
         <v>25</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39456,13 +39456,13 @@
         <v>340</v>
       </c>
       <c r="K543" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L543" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M543" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39471,11 +39471,11 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q543" t="n">
         <v>25</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39525,16 +39525,16 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K544" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L544" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M544" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q544" t="n">
         <v>25</v>
@@ -39588,38 +39588,38 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K545" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L545" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M545" t="n">
-        <v>5500</v>
+        <v>8250</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="Q545" t="n">
         <v>25</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39665,24 +39665,24 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K546" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L546" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M546" t="n">
-        <v>9000</v>
+        <v>7250</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Q546" t="n">
         <v>25</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39732,29 +39732,29 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K547" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L547" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M547" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q547" t="n">
         <v>25</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39804,25 +39804,25 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K548" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L548" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M548" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q548" t="n">
         <v>25</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39876,38 +39876,38 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K549" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L549" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M549" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="Q549" t="n">
         <v>25</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39948,38 +39948,38 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K550" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L550" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M550" t="n">
-        <v>6250</v>
+        <v>9000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="Q550" t="n">
         <v>25</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40020,25 +40020,25 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K551" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L551" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M551" t="n">
-        <v>6250</v>
+        <v>7000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="Q551" t="n">
         <v>25</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40101,16 +40101,16 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K552" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L552" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M552" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40119,11 +40119,11 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="Q552" t="n">
         <v>25</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40164,38 +40164,38 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K553" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L553" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M553" t="n">
-        <v>12000</v>
+        <v>7250</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="Q553" t="n">
         <v>25</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40236,7 +40236,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -40245,29 +40245,29 @@
         </is>
       </c>
       <c r="J554" t="n">
+        <v>160</v>
+      </c>
+      <c r="K554" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L554" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M554" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N554" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O554" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P554" t="n">
         <v>250</v>
-      </c>
-      <c r="K554" t="n">
-        <v>6500</v>
-      </c>
-      <c r="L554" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M554" t="n">
-        <v>6750</v>
-      </c>
-      <c r="N554" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O554" t="inlineStr">
-        <is>
-          <t>Región de Los Lagos</t>
-        </is>
-      </c>
-      <c r="P554" t="n">
-        <v>270</v>
       </c>
       <c r="Q554" t="n">
         <v>25</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40308,38 +40308,38 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="K555" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L555" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M555" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="Q555" t="n">
         <v>25</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40380,25 +40380,25 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K556" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L556" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M556" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="Q556" t="n">
         <v>25</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40457,33 +40457,33 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K557" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L557" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M557" t="n">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="Q557" t="n">
         <v>25</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40524,25 +40524,25 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K558" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L558" t="n">
         <v>7000</v>
       </c>
-      <c r="L558" t="n">
-        <v>7500</v>
-      </c>
       <c r="M558" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q558" t="n">
         <v>25</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40596,38 +40596,38 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K559" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L559" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M559" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q559" t="n">
         <v>25</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40673,33 +40673,33 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J560" t="n">
+        <v>210</v>
+      </c>
+      <c r="K560" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L560" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M560" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P560" t="n">
         <v>270</v>
-      </c>
-      <c r="K560" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L560" t="n">
-        <v>7500</v>
-      </c>
-      <c r="M560" t="n">
-        <v>7241</v>
-      </c>
-      <c r="N560" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O560" t="inlineStr">
-        <is>
-          <t>Región de Los Lagos</t>
-        </is>
-      </c>
-      <c r="P560" t="n">
-        <v>290</v>
       </c>
       <c r="Q560" t="n">
         <v>25</v>
@@ -40740,38 +40740,38 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="K561" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L561" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M561" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q561" t="n">
         <v>25</v>
@@ -40812,25 +40812,25 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="K562" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L562" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M562" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q562" t="n">
         <v>25</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40889,24 +40889,24 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K563" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L563" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M563" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="Q563" t="n">
         <v>25</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40956,38 +40956,38 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="K564" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L564" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M564" t="n">
-        <v>6750</v>
+        <v>7241</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q564" t="n">
         <v>25</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41028,38 +41028,38 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J565" t="n">
+        <v>130</v>
+      </c>
+      <c r="K565" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L565" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M565" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O565" t="inlineStr">
+        <is>
+          <t>Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="P565" t="n">
         <v>250</v>
-      </c>
-      <c r="K565" t="n">
-        <v>6500</v>
-      </c>
-      <c r="L565" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M565" t="n">
-        <v>6750</v>
-      </c>
-      <c r="N565" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O565" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P565" t="n">
-        <v>270</v>
       </c>
       <c r="Q565" t="n">
         <v>25</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41100,29 +41100,29 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="K566" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L566" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M566" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="Q566" t="n">
         <v>25</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41172,25 +41172,25 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K567" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L567" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M567" t="n">
-        <v>9000</v>
+        <v>7750</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="Q567" t="n">
         <v>25</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41244,25 +41244,25 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K568" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L568" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M568" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="Q568" t="n">
         <v>25</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41316,25 +41316,25 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K569" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L569" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M569" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q569" t="n">
         <v>25</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="K570" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L570" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M570" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="Q570" t="n">
         <v>25</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41460,38 +41460,38 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="K571" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L571" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M571" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="Q571" t="n">
         <v>25</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41532,7 +41532,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -41541,20 +41541,20 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K572" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L572" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M572" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q572" t="n">
         <v>25</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41604,38 +41604,38 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K573" t="n">
         <v>10000</v>
       </c>
       <c r="L573" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M573" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Q573" t="n">
         <v>25</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,24 +41681,24 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="K574" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L574" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M574" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q574" t="n">
         <v>25</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,38 +41748,38 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K575" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L575" t="n">
         <v>10000</v>
       </c>
       <c r="M575" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="Q575" t="n">
         <v>25</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41820,38 +41820,38 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K576" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L576" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M576" t="n">
-        <v>7496</v>
+        <v>11000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="Q576" t="n">
         <v>25</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41892,25 +41892,25 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J577" t="n">
         <v>340</v>
       </c>
       <c r="K577" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L577" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M577" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q577" t="n">
         <v>25</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41964,25 +41964,25 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K578" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L578" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M578" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q578" t="n">
         <v>25</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42041,33 +42041,33 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K579" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L579" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M579" t="n">
-        <v>6250</v>
+        <v>9500</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="Q579" t="n">
         <v>25</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42108,25 +42108,25 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="K580" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L580" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M580" t="n">
-        <v>12606</v>
+        <v>7496</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>504</v>
+        <v>300</v>
       </c>
       <c r="Q580" t="n">
         <v>25</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42180,38 +42180,38 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K581" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L581" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M581" t="n">
-        <v>13556</v>
+        <v>7750</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>542</v>
+        <v>310</v>
       </c>
       <c r="Q581" t="n">
         <v>25</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,25 +42252,25 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K582" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L582" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M582" t="n">
-        <v>11444</v>
+        <v>6250</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q582" t="n">
         <v>25</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42324,25 +42324,25 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="K583" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L583" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M583" t="n">
-        <v>12000</v>
+        <v>6250</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="Q583" t="n">
         <v>25</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -42405,16 +42405,16 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="K584" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L584" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M584" t="n">
-        <v>11000</v>
+        <v>12606</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="Q584" t="n">
         <v>25</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42468,38 +42468,38 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="K585" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L585" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M585" t="n">
-        <v>8250</v>
+        <v>13556</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>330</v>
+        <v>542</v>
       </c>
       <c r="Q585" t="n">
         <v>25</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42540,25 +42540,25 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K586" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L586" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M586" t="n">
-        <v>7250</v>
+        <v>11444</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>290</v>
+        <v>458</v>
       </c>
       <c r="Q586" t="n">
         <v>25</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42612,7 +42612,7 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -42621,29 +42621,29 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="K587" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L587" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M587" t="n">
-        <v>8750</v>
+        <v>12000</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="Q587" t="n">
         <v>25</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42684,7 +42684,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -42693,16 +42693,16 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K588" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L588" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M588" t="n">
-        <v>7750</v>
+        <v>11000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="Q588" t="n">
         <v>25</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42756,38 +42756,38 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K589" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L589" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M589" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q589" t="n">
         <v>25</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42828,29 +42828,29 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J590" t="n">
         <v>340</v>
       </c>
       <c r="K590" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L590" t="n">
         <v>7500</v>
       </c>
-      <c r="L590" t="n">
-        <v>8000</v>
-      </c>
       <c r="M590" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q590" t="n">
         <v>25</v>
@@ -42900,38 +42900,38 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K591" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L591" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M591" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q591" t="n">
         <v>25</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K592" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L592" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M592" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q592" t="n">
         <v>25</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43049,24 +43049,24 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K593" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L593" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M593" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q593" t="n">
         <v>25</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43116,38 +43116,38 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K594" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L594" t="n">
         <v>8000</v>
       </c>
       <c r="M594" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q594" t="n">
         <v>25</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43188,38 +43188,38 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K595" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L595" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M595" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q595" t="n">
         <v>25</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43260,25 +43260,25 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K596" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L596" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M596" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q596" t="n">
         <v>25</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43332,38 +43332,38 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K597" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L597" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M597" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q597" t="n">
         <v>25</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43404,38 +43404,38 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K598" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L598" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M598" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="Q598" t="n">
         <v>25</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43481,7 +43481,7 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J599" t="n">
@@ -43498,7 +43498,7 @@
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43548,38 +43548,38 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K600" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L600" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M600" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="Q600" t="n">
         <v>25</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43620,38 +43620,38 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K601" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L601" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M601" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="Q601" t="n">
         <v>25</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43692,38 +43692,38 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J602" t="n">
         <v>340</v>
       </c>
       <c r="K602" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L602" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M602" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="Q602" t="n">
         <v>25</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43769,24 +43769,24 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J603" t="n">
         <v>430</v>
       </c>
       <c r="K603" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L603" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M603" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q603" t="n">
         <v>25</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43836,38 +43836,38 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K604" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L604" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M604" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q604" t="n">
         <v>25</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43913,33 +43913,33 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K605" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L605" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M605" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q605" t="n">
         <v>25</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43985,33 +43985,33 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J606" t="n">
         <v>340</v>
       </c>
       <c r="K606" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L606" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M606" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q606" t="n">
         <v>25</v>
@@ -44052,38 +44052,38 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K607" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L607" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M607" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q607" t="n">
         <v>25</v>
@@ -44124,25 +44124,25 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K608" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L608" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M608" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q608" t="n">
         <v>25</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44201,24 +44201,24 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K609" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L609" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M609" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="Q609" t="n">
         <v>25</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,29 +44268,29 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K610" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L610" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M610" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q610" t="n">
         <v>25</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44340,38 +44340,38 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K611" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L611" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M611" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q611" t="n">
         <v>25</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44412,25 +44412,25 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K612" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L612" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M612" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="Q612" t="n">
         <v>25</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44484,25 +44484,25 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J613" t="n">
         <v>340</v>
       </c>
       <c r="K613" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L613" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M613" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Q613" t="n">
         <v>25</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44556,25 +44556,25 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K614" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L614" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M614" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q614" t="n">
         <v>25</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K615" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L615" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M615" t="n">
-        <v>11500</v>
+        <v>8250</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="Q615" t="n">
         <v>25</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K616" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L616" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M616" t="n">
-        <v>10000</v>
+        <v>7250</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="Q616" t="n">
         <v>25</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,38 +44772,38 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K617" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L617" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M617" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="Q617" t="n">
         <v>25</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44844,38 +44844,38 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K618" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L618" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M618" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q618" t="n">
         <v>25</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44921,24 +44921,24 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K619" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L619" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M619" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q619" t="n">
         <v>25</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K620" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L620" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M620" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="Q620" t="n">
         <v>25</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45060,38 +45060,38 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K621" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L621" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M621" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q621" t="n">
         <v>25</v>
@@ -45132,38 +45132,38 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J622" t="n">
         <v>340</v>
       </c>
       <c r="K622" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L622" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M622" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q622" t="n">
         <v>25</v>
@@ -45204,25 +45204,25 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K623" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L623" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M623" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q623" t="n">
         <v>25</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45281,24 +45281,24 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K624" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L624" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M624" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q624" t="n">
         <v>25</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45348,29 +45348,29 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K625" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L625" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M625" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q625" t="n">
         <v>25</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45425,11 +45425,11 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K626" t="n">
         <v>6500</v>
@@ -45447,7 +45447,7 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P626" t="n">
@@ -45457,6 +45457,294 @@
         <v>25</v>
       </c>
       <c r="R626" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>9</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D627" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E627" t="n">
+        <v>13</v>
+      </c>
+      <c r="F627" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J627" t="n">
+        <v>97</v>
+      </c>
+      <c r="K627" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L627" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M627" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N627" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O627" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P627" t="n">
+        <v>240</v>
+      </c>
+      <c r="Q627" t="n">
+        <v>25</v>
+      </c>
+      <c r="R627" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>9</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D628" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E628" t="n">
+        <v>13</v>
+      </c>
+      <c r="F628" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>1a (cosecha lavada)</t>
+        </is>
+      </c>
+      <c r="J628" t="n">
+        <v>340</v>
+      </c>
+      <c r="K628" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L628" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M628" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N628" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O628" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P628" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q628" t="n">
+        <v>25</v>
+      </c>
+      <c r="R628" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>9</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D629" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E629" t="n">
+        <v>13</v>
+      </c>
+      <c r="F629" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>Pukará</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J629" t="n">
+        <v>160</v>
+      </c>
+      <c r="K629" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L629" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M629" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N629" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O629" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P629" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q629" t="n">
+        <v>25</v>
+      </c>
+      <c r="R629" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>9</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D630" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E630" t="n">
+        <v>13</v>
+      </c>
+      <c r="F630" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J630" t="n">
+        <v>80</v>
+      </c>
+      <c r="K630" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L630" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M630" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N630" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O630" t="inlineStr">
+        <is>
+          <t>Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="P630" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q630" t="n">
+        <v>25</v>
+      </c>
+      <c r="R630" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R630"/>
+  <dimension ref="A1:R632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,29 +31605,29 @@
         </is>
       </c>
       <c r="J434" t="n">
+        <v>250</v>
+      </c>
+      <c r="K434" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L434" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M434" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="P434" t="n">
         <v>340</v>
-      </c>
-      <c r="K434" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L434" t="n">
-        <v>7500</v>
-      </c>
-      <c r="M434" t="n">
-        <v>7250</v>
-      </c>
-      <c r="N434" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O434" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P434" t="n">
-        <v>290</v>
       </c>
       <c r="Q434" t="n">
         <v>25</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,17 +31677,17 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K435" t="n">
         <v>6000</v>
       </c>
       <c r="L435" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M435" t="n">
         <v>6500</v>
       </c>
-      <c r="M435" t="n">
-        <v>6250</v>
-      </c>
       <c r="N435" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q435" t="n">
         <v>25</v>
@@ -31745,24 +31745,24 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K436" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L436" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M436" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q436" t="n">
         <v>25</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31812,38 +31812,38 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K437" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L437" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M437" t="n">
-        <v>9554</v>
+        <v>6250</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>382</v>
+        <v>250</v>
       </c>
       <c r="Q437" t="n">
         <v>25</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31884,25 +31884,25 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K438" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L438" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M438" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31911,11 +31911,11 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q438" t="n">
         <v>25</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="K439" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L439" t="n">
         <v>10000</v>
       </c>
       <c r="M439" t="n">
-        <v>10000</v>
+        <v>9554</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="Q439" t="n">
         <v>25</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32028,25 +32028,25 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J440" t="n">
         <v>160</v>
       </c>
       <c r="K440" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L440" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M440" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q440" t="n">
         <v>25</v>
@@ -32100,38 +32100,38 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K441" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L441" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M441" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="Q441" t="n">
         <v>25</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32172,38 +32172,38 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J442" t="n">
+        <v>160</v>
+      </c>
+      <c r="K442" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L442" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M442" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P442" t="n">
         <v>360</v>
-      </c>
-      <c r="K442" t="n">
-        <v>7500</v>
-      </c>
-      <c r="L442" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M442" t="n">
-        <v>7750</v>
-      </c>
-      <c r="N442" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O442" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="P442" t="n">
-        <v>310</v>
       </c>
       <c r="Q442" t="n">
         <v>25</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32244,25 +32244,25 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K443" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L443" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M443" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q443" t="n">
         <v>25</v>
@@ -32316,38 +32316,38 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="K444" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L444" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M444" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q444" t="n">
         <v>25</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="K445" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L445" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M445" t="n">
-        <v>12417</v>
+        <v>6750</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32415,11 +32415,11 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>497</v>
+        <v>270</v>
       </c>
       <c r="Q445" t="n">
         <v>25</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32460,25 +32460,25 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="K446" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L446" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M446" t="n">
-        <v>13333</v>
+        <v>6750</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32487,11 +32487,11 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>533</v>
+        <v>270</v>
       </c>
       <c r="Q446" t="n">
         <v>25</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,38 +32532,38 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="K447" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L447" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M447" t="n">
-        <v>8000</v>
+        <v>12417</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>320</v>
+        <v>497</v>
       </c>
       <c r="Q447" t="n">
         <v>25</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32604,25 +32604,25 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K448" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L448" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M448" t="n">
-        <v>7000</v>
+        <v>13333</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>280</v>
+        <v>533</v>
       </c>
       <c r="Q448" t="n">
         <v>25</v>
@@ -32676,38 +32676,38 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K449" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L449" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M449" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="Q449" t="n">
         <v>25</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,7 +32757,7 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K450" t="n">
         <v>7000</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32820,38 +32820,38 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K451" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L451" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M451" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="Q451" t="n">
         <v>25</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K452" t="n">
         <v>7000</v>
       </c>
       <c r="L452" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M452" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q452" t="n">
         <v>25</v>
@@ -32964,25 +32964,25 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K453" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L453" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M453" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q453" t="n">
         <v>25</v>
@@ -33036,25 +33036,25 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K454" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L454" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M454" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q454" t="n">
         <v>25</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33108,12 +33108,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J455" t="n">
@@ -33123,10 +33123,10 @@
         <v>8000</v>
       </c>
       <c r="L455" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M455" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33135,11 +33135,11 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q455" t="n">
         <v>25</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33180,25 +33180,25 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J456" t="n">
         <v>160</v>
       </c>
       <c r="K456" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L456" t="n">
         <v>7000</v>
       </c>
       <c r="M456" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="Q456" t="n">
         <v>25</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K457" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L457" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M457" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="Q457" t="n">
         <v>25</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33336,13 +33336,13 @@
         <v>160</v>
       </c>
       <c r="K458" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L458" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M458" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="Q458" t="n">
         <v>25</v>
@@ -33396,38 +33396,38 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K459" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L459" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M459" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q459" t="n">
         <v>25</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,24 +33473,24 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K460" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L460" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M460" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="Q460" t="n">
         <v>25</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K461" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L461" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M461" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q461" t="n">
         <v>25</v>
@@ -33612,38 +33612,38 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K462" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L462" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M462" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q462" t="n">
         <v>25</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33684,38 +33684,38 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K463" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L463" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M463" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Q463" t="n">
         <v>25</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33756,25 +33756,25 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K464" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L464" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M464" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q464" t="n">
         <v>25</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,24 +33833,24 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="K465" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L465" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M465" t="n">
-        <v>11000</v>
+        <v>7750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>440</v>
+        <v>310</v>
       </c>
       <c r="Q465" t="n">
         <v>25</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="K466" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L466" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M466" t="n">
-        <v>10490</v>
+        <v>6750</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q466" t="n">
         <v>25</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33977,24 +33977,24 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="K467" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L467" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M467" t="n">
-        <v>7750</v>
+        <v>11000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="Q467" t="n">
         <v>25</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="K468" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L468" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M468" t="n">
-        <v>6750</v>
+        <v>10490</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34071,11 +34071,11 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="Q468" t="n">
         <v>25</v>
@@ -34121,24 +34121,24 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K469" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L469" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M469" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q469" t="n">
         <v>25</v>
@@ -34188,38 +34188,38 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K470" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L470" t="n">
         <v>7000</v>
       </c>
-      <c r="L470" t="n">
-        <v>7500</v>
-      </c>
       <c r="M470" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q470" t="n">
         <v>25</v>
@@ -34260,25 +34260,25 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K471" t="n">
         <v>6000</v>
       </c>
       <c r="L471" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M471" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q471" t="n">
         <v>25</v>
@@ -34337,24 +34337,24 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K472" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L472" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M472" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q472" t="n">
         <v>25</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34404,38 +34404,38 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K473" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L473" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M473" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q473" t="n">
         <v>25</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34476,25 +34476,25 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K474" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L474" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M474" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="Q474" t="n">
         <v>25</v>
@@ -34553,24 +34553,24 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K475" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L475" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M475" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q475" t="n">
         <v>25</v>
@@ -34620,38 +34620,38 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J476" t="n">
         <v>340</v>
       </c>
       <c r="K476" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L476" t="n">
         <v>7500</v>
       </c>
-      <c r="L476" t="n">
-        <v>8000</v>
-      </c>
       <c r="M476" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q476" t="n">
         <v>25</v>
@@ -34692,25 +34692,25 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K477" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L477" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M477" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="Q477" t="n">
         <v>25</v>
@@ -34769,24 +34769,24 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K478" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L478" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M478" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q478" t="n">
         <v>25</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34836,38 +34836,38 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K479" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L479" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M479" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q479" t="n">
         <v>25</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34908,25 +34908,25 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K480" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L480" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M480" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q480" t="n">
         <v>25</v>
@@ -34980,38 +34980,38 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K481" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L481" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M481" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q481" t="n">
         <v>25</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35052,38 +35052,38 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K482" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L482" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M482" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P482" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q482" t="n">
         <v>25</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35124,25 +35124,25 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J483" t="n">
         <v>250</v>
       </c>
       <c r="K483" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L483" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M483" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q483" t="n">
         <v>25</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35211,10 +35211,10 @@
         <v>10000</v>
       </c>
       <c r="L484" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M484" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Q484" t="n">
         <v>25</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K485" t="n">
         <v>8000</v>
       </c>
       <c r="L485" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M485" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35295,11 +35295,11 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q485" t="n">
         <v>25</v>
@@ -35340,25 +35340,25 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K486" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="L486" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M486" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35367,11 +35367,11 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="Q486" t="n">
         <v>25</v>
@@ -35412,38 +35412,38 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J487" t="n">
+        <v>210</v>
+      </c>
+      <c r="K487" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L487" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M487" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P487" t="n">
         <v>340</v>
-      </c>
-      <c r="K487" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L487" t="n">
-        <v>8000</v>
-      </c>
-      <c r="M487" t="n">
-        <v>7500</v>
-      </c>
-      <c r="N487" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O487" t="inlineStr">
-        <is>
-          <t>Región de Los Lagos</t>
-        </is>
-      </c>
-      <c r="P487" t="n">
-        <v>300</v>
       </c>
       <c r="Q487" t="n">
         <v>25</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35484,38 +35484,38 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K488" t="n">
-        <v>13000</v>
+        <v>1000</v>
       </c>
       <c r="L488" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M488" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="Q488" t="n">
         <v>25</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35556,25 +35556,25 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K489" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L489" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M489" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35583,11 +35583,11 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="Q489" t="n">
         <v>25</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,24 +35633,24 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K490" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L490" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M490" t="n">
-        <v>8750</v>
+        <v>13000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>350</v>
+        <v>520</v>
       </c>
       <c r="Q490" t="n">
         <v>25</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,25 +35700,25 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K491" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L491" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M491" t="n">
-        <v>7750</v>
+        <v>13000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35727,11 +35727,11 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Q491" t="n">
         <v>25</v>
@@ -35772,38 +35772,38 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K492" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L492" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M492" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q492" t="n">
         <v>25</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35844,38 +35844,38 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K493" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L493" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M493" t="n">
-        <v>10000</v>
+        <v>7750</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="Q493" t="n">
         <v>25</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35916,25 +35916,25 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J494" t="n">
         <v>250</v>
       </c>
       <c r="K494" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L494" t="n">
         <v>8000</v>
       </c>
       <c r="M494" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q494" t="n">
         <v>25</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36141,7 +36141,7 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K497" t="n">
         <v>10000</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36231,7 +36231,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P498" t="n">
@@ -36276,38 +36276,38 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K499" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L499" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M499" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q499" t="n">
         <v>25</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K500" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L500" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M500" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36375,11 +36375,11 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="Q500" t="n">
         <v>25</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="K501" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L501" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M501" t="n">
-        <v>11444</v>
+        <v>8000</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36447,11 +36447,11 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="Q501" t="n">
         <v>25</v>
@@ -36492,25 +36492,25 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K502" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L502" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M502" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36519,11 +36519,11 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="Q502" t="n">
         <v>25</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="K503" t="n">
         <v>11000</v>
       </c>
       <c r="L503" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M503" t="n">
-        <v>11000</v>
+        <v>11444</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="Q503" t="n">
         <v>25</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36636,7 +36636,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -36645,29 +36645,29 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K504" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L504" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M504" t="n">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="Q504" t="n">
         <v>25</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="K505" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L505" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M505" t="n">
-        <v>7250</v>
+        <v>11000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36735,11 +36735,11 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="Q505" t="n">
         <v>25</v>
@@ -36780,25 +36780,25 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J506" t="n">
         <v>340</v>
       </c>
       <c r="K506" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L506" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M506" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="Q506" t="n">
         <v>25</v>
@@ -36852,25 +36852,25 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K507" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L507" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M507" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q507" t="n">
         <v>25</v>
@@ -36929,24 +36929,24 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K508" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L508" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M508" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q508" t="n">
         <v>25</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -36996,38 +36996,38 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K509" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L509" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M509" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q509" t="n">
         <v>25</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37068,25 +37068,25 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J510" t="n">
         <v>160</v>
       </c>
       <c r="K510" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L510" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M510" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37095,11 +37095,11 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="Q510" t="n">
         <v>25</v>
@@ -37140,25 +37140,25 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K511" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L511" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M511" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q511" t="n">
         <v>25</v>
@@ -37212,25 +37212,25 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K512" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L512" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M512" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37239,11 +37239,11 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q512" t="n">
         <v>25</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,38 +37284,38 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K513" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L513" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M513" t="n">
-        <v>8444</v>
+        <v>10500</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="Q513" t="n">
         <v>25</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37356,38 +37356,38 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K514" t="n">
         <v>8000</v>
       </c>
       <c r="L514" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M514" t="n">
         <v>8500</v>
       </c>
-      <c r="M514" t="n">
-        <v>8250</v>
-      </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q514" t="n">
         <v>25</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K515" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L515" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M515" t="n">
-        <v>7250</v>
+        <v>8444</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="Q515" t="n">
         <v>25</v>
@@ -37500,25 +37500,25 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K516" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L516" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M516" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37527,11 +37527,11 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="Q516" t="n">
         <v>25</v>
@@ -37572,25 +37572,25 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J517" t="n">
         <v>250</v>
       </c>
       <c r="K517" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L517" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M517" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37599,11 +37599,11 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="Q517" t="n">
         <v>25</v>
@@ -37649,24 +37649,24 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K518" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L518" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M518" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q518" t="n">
         <v>25</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37716,38 +37716,38 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K519" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L519" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M519" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="Q519" t="n">
         <v>25</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37788,25 +37788,25 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K520" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L520" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M520" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37815,11 +37815,11 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q520" t="n">
         <v>25</v>
@@ -37860,38 +37860,38 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K521" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L521" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M521" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q521" t="n">
         <v>25</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37932,38 +37932,38 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K522" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L522" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M522" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q522" t="n">
         <v>25</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K523" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L523" t="n">
         <v>7000</v>
       </c>
       <c r="M523" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q523" t="n">
         <v>25</v>
@@ -38076,38 +38076,38 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K524" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L524" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M524" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="Q524" t="n">
         <v>25</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38148,38 +38148,38 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K525" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L525" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M525" t="n">
-        <v>9750</v>
+        <v>7000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="Q525" t="n">
         <v>25</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38220,25 +38220,25 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K526" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L526" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M526" t="n">
-        <v>8250</v>
+        <v>7000</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="Q526" t="n">
         <v>25</v>
@@ -38297,24 +38297,24 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K527" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L527" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M527" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="Q527" t="n">
         <v>25</v>
@@ -38364,38 +38364,38 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J528" t="n">
         <v>340</v>
       </c>
       <c r="K528" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L528" t="n">
         <v>8500</v>
       </c>
-      <c r="L528" t="n">
-        <v>9000</v>
-      </c>
       <c r="M528" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q528" t="n">
         <v>25</v>
@@ -38436,25 +38436,25 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K529" t="n">
         <v>7500</v>
       </c>
       <c r="L529" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M529" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q529" t="n">
         <v>25</v>
@@ -38513,24 +38513,24 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K530" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L530" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M530" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="Q530" t="n">
         <v>25</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38580,38 +38580,38 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K531" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L531" t="n">
         <v>8000</v>
       </c>
-      <c r="L531" t="n">
-        <v>8500</v>
-      </c>
       <c r="M531" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="Q531" t="n">
         <v>25</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38652,25 +38652,25 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K532" t="n">
         <v>7000</v>
       </c>
       <c r="L532" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M532" t="n">
-        <v>7250</v>
+        <v>7000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="Q532" t="n">
         <v>25</v>
@@ -38724,25 +38724,25 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K533" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L533" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M533" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="Q533" t="n">
         <v>25</v>
@@ -38796,25 +38796,25 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J534" t="n">
         <v>160</v>
       </c>
       <c r="K534" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L534" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M534" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="Q534" t="n">
         <v>25</v>
@@ -38868,38 +38868,38 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K535" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L535" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M535" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="Q535" t="n">
         <v>25</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38940,38 +38940,38 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K536" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L536" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M536" t="n">
-        <v>8000</v>
+        <v>5750</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="Q536" t="n">
         <v>25</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39012,25 +39012,25 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K537" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L537" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M537" t="n">
-        <v>7000</v>
+        <v>5750</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="Q537" t="n">
         <v>25</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39096,13 +39096,13 @@
         <v>250</v>
       </c>
       <c r="K538" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L538" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M538" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q538" t="n">
         <v>25</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39168,13 +39168,13 @@
         <v>160</v>
       </c>
       <c r="K539" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L539" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M539" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="Q539" t="n">
         <v>25</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39237,7 +39237,7 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K540" t="n">
         <v>9000</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39300,25 +39300,25 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J541" t="n">
         <v>160</v>
       </c>
       <c r="K541" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L541" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M541" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39327,11 +39327,11 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="Q541" t="n">
         <v>25</v>
@@ -39372,38 +39372,38 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K542" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L542" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M542" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="Q542" t="n">
         <v>25</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39449,24 +39449,24 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K543" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L543" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M543" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q543" t="n">
         <v>25</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J544" t="n">
         <v>250</v>
       </c>
       <c r="K544" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L544" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M544" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q544" t="n">
         <v>25</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J545" t="n">
         <v>340</v>
       </c>
       <c r="K545" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L545" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M545" t="n">
-        <v>8250</v>
+        <v>8750</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q545" t="n">
         <v>25</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39660,25 +39660,25 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J546" t="n">
         <v>250</v>
       </c>
       <c r="K546" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L546" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M546" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39687,11 +39687,11 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q546" t="n">
         <v>25</v>
@@ -39732,25 +39732,25 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J547" t="n">
         <v>340</v>
       </c>
       <c r="K547" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L547" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M547" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="Q547" t="n">
         <v>25</v>
@@ -39804,25 +39804,25 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K548" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L548" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M548" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39831,11 +39831,11 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q548" t="n">
         <v>25</v>
@@ -39881,24 +39881,24 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K549" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L549" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M549" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="Q549" t="n">
         <v>25</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39948,38 +39948,38 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K550" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L550" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M550" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q550" t="n">
         <v>25</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40020,25 +40020,25 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K551" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L551" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M551" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="Q551" t="n">
         <v>25</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40092,38 +40092,38 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K552" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L552" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M552" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="Q552" t="n">
         <v>25</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40169,7 +40169,7 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J553" t="n">
@@ -40179,23 +40179,23 @@
         <v>7000</v>
       </c>
       <c r="L553" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M553" t="n">
-        <v>7250</v>
+        <v>7000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="Q553" t="n">
         <v>25</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40236,25 +40236,25 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K554" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L554" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M554" t="n">
-        <v>6250</v>
+        <v>10000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q554" t="n">
         <v>25</v>
@@ -40308,38 +40308,38 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K555" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L555" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M555" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="Q555" t="n">
         <v>25</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40380,38 +40380,38 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J556" t="n">
+        <v>160</v>
+      </c>
+      <c r="K556" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L556" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M556" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N556" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O556" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P556" t="n">
         <v>250</v>
-      </c>
-      <c r="K556" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L556" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M556" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N556" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O556" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="P556" t="n">
-        <v>480</v>
       </c>
       <c r="Q556" t="n">
         <v>25</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40452,25 +40452,25 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K557" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L557" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M557" t="n">
-        <v>12000</v>
+        <v>6250</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="Q557" t="n">
         <v>25</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40524,25 +40524,25 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J558" t="n">
         <v>250</v>
       </c>
       <c r="K558" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L558" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M558" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="Q558" t="n">
         <v>25</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40596,38 +40596,38 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K559" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L559" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M559" t="n">
-        <v>7750</v>
+        <v>12000</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="Q559" t="n">
         <v>25</v>
@@ -40668,7 +40668,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -40677,7 +40677,7 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K560" t="n">
         <v>6500</v>
@@ -40695,7 +40695,7 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P560" t="n">
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40740,25 +40740,25 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K561" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L561" t="n">
         <v>8000</v>
       </c>
-      <c r="L561" t="n">
-        <v>8500</v>
-      </c>
       <c r="M561" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40767,11 +40767,11 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="Q561" t="n">
         <v>25</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40812,25 +40812,25 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J562" t="n">
         <v>210</v>
       </c>
       <c r="K562" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L562" t="n">
         <v>7000</v>
       </c>
-      <c r="L562" t="n">
-        <v>7500</v>
-      </c>
       <c r="M562" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q562" t="n">
         <v>25</v>
@@ -40889,24 +40889,24 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>97</v>
+        <v>330</v>
       </c>
       <c r="K563" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L563" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M563" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q563" t="n">
         <v>25</v>
@@ -40956,16 +40956,16 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="K564" t="n">
         <v>7000</v>
@@ -40974,16 +40974,16 @@
         <v>7500</v>
       </c>
       <c r="M564" t="n">
-        <v>7241</v>
+        <v>7250</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P564" t="n">
@@ -41028,25 +41028,25 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="K565" t="n">
         <v>6000</v>
       </c>
       <c r="L565" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M565" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q565" t="n">
         <v>25</v>
@@ -41105,24 +41105,24 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="K566" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L566" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M566" t="n">
-        <v>5000</v>
+        <v>7241</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q566" t="n">
         <v>25</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41172,38 +41172,38 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="K567" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L567" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M567" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="Q567" t="n">
         <v>25</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41244,25 +41244,25 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="K568" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L568" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M568" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q568" t="n">
         <v>25</v>
@@ -41316,7 +41316,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -41325,29 +41325,29 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K569" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L569" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M569" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q569" t="n">
         <v>25</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41388,38 +41388,38 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K570" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L570" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M570" t="n">
-        <v>13000</v>
+        <v>6750</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>520</v>
+        <v>270</v>
       </c>
       <c r="Q570" t="n">
         <v>25</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41460,38 +41460,38 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K571" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L571" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M571" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q571" t="n">
         <v>25</v>
@@ -41532,7 +41532,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -41541,29 +41541,29 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K572" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L572" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M572" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q572" t="n">
         <v>25</v>
@@ -41604,38 +41604,38 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K573" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L573" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M573" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="Q573" t="n">
         <v>25</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41676,7 +41676,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -41685,29 +41685,29 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K574" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L574" t="n">
         <v>12000</v>
       </c>
       <c r="M574" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="Q574" t="n">
         <v>25</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -41757,7 +41757,7 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K575" t="n">
         <v>10000</v>
@@ -41775,7 +41775,7 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P575" t="n">
@@ -41820,7 +41820,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K576" t="n">
         <v>11000</v>
       </c>
       <c r="L576" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M576" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="Q576" t="n">
         <v>25</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41897,24 +41897,24 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K577" t="n">
         <v>10000</v>
       </c>
       <c r="L577" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M577" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Q577" t="n">
         <v>25</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41964,38 +41964,38 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K578" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L578" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M578" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="Q578" t="n">
         <v>25</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K579" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L579" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M579" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q579" t="n">
         <v>25</v>
@@ -42108,25 +42108,25 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="K580" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L580" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M580" t="n">
-        <v>7496</v>
+        <v>8500</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q580" t="n">
         <v>25</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42180,7 +42180,7 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K581" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L581" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M581" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="Q581" t="n">
         <v>25</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42261,16 +42261,16 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="K582" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L582" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M582" t="n">
-        <v>6250</v>
+        <v>7496</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q582" t="n">
         <v>25</v>
@@ -42324,38 +42324,38 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K583" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L583" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M583" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q583" t="n">
         <v>25</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42396,25 +42396,25 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K584" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L584" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="M584" t="n">
-        <v>12606</v>
+        <v>6250</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>504</v>
+        <v>250</v>
       </c>
       <c r="Q584" t="n">
         <v>25</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="K585" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L585" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M585" t="n">
-        <v>13556</v>
+        <v>6250</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>542</v>
+        <v>250</v>
       </c>
       <c r="Q585" t="n">
         <v>25</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42540,7 +42540,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="K586" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L586" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M586" t="n">
-        <v>11444</v>
+        <v>12606</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="Q586" t="n">
         <v>25</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K587" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L587" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M587" t="n">
-        <v>12000</v>
+        <v>13556</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="Q587" t="n">
         <v>25</v>
@@ -42684,7 +42684,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -42693,16 +42693,16 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K588" t="n">
         <v>11000</v>
       </c>
       <c r="L588" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M588" t="n">
-        <v>11000</v>
+        <v>11444</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="Q588" t="n">
         <v>25</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42756,38 +42756,38 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="K589" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L589" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M589" t="n">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="Q589" t="n">
         <v>25</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42828,25 +42828,25 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K590" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L590" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M590" t="n">
-        <v>7250</v>
+        <v>11000</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="Q590" t="n">
         <v>25</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42900,25 +42900,25 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J591" t="n">
         <v>430</v>
       </c>
       <c r="K591" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L591" t="n">
         <v>8500</v>
       </c>
-      <c r="L591" t="n">
-        <v>9000</v>
-      </c>
       <c r="M591" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q591" t="n">
         <v>25</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J592" t="n">
         <v>340</v>
       </c>
       <c r="K592" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L592" t="n">
         <v>7500</v>
       </c>
-      <c r="L592" t="n">
-        <v>8000</v>
-      </c>
       <c r="M592" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q592" t="n">
         <v>25</v>
@@ -43049,24 +43049,24 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K593" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L593" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M593" t="n">
-        <v>6000</v>
+        <v>8750</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="Q593" t="n">
         <v>25</v>
@@ -43116,12 +43116,12 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J594" t="n">
@@ -43138,12 +43138,12 @@
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P594" t="n">
@@ -43188,25 +43188,25 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K595" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L595" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M595" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="Q595" t="n">
         <v>25</v>
@@ -43265,24 +43265,24 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K596" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L596" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M596" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q596" t="n">
         <v>25</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43332,38 +43332,38 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K597" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L597" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M597" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q597" t="n">
         <v>25</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43404,25 +43404,25 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K598" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L598" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M598" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q598" t="n">
         <v>25</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43557,7 +43557,7 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K600" t="n">
         <v>8000</v>
@@ -43575,7 +43575,7 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P600" t="n">
@@ -43620,38 +43620,38 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K601" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L601" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M601" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q601" t="n">
         <v>25</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43692,38 +43692,38 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K602" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L602" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M602" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="Q602" t="n">
         <v>25</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,16 +43773,16 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K603" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L603" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M603" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43791,11 +43791,11 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="Q603" t="n">
         <v>25</v>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -43851,10 +43851,10 @@
         <v>11000</v>
       </c>
       <c r="L604" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M604" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="Q604" t="n">
         <v>25</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43913,7 +43913,7 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J605" t="n">
@@ -43930,12 +43930,12 @@
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P605" t="n">
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43980,38 +43980,38 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J606" t="n">
         <v>340</v>
       </c>
       <c r="K606" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L606" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M606" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="Q606" t="n">
         <v>25</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J607" t="n">
         <v>430</v>
       </c>
       <c r="K607" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L607" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M607" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q607" t="n">
         <v>25</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44124,25 +44124,25 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K608" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L608" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M608" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q608" t="n">
         <v>25</v>
@@ -44201,24 +44201,24 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K609" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L609" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M609" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q609" t="n">
         <v>25</v>
@@ -44268,38 +44268,38 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K610" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L610" t="n">
         <v>7000</v>
       </c>
-      <c r="L610" t="n">
-        <v>7500</v>
-      </c>
       <c r="M610" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q610" t="n">
         <v>25</v>
@@ -44340,25 +44340,25 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K611" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L611" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M611" t="n">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q611" t="n">
         <v>25</v>
@@ -44417,24 +44417,24 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K612" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L612" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M612" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q612" t="n">
         <v>25</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44484,38 +44484,38 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K613" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L613" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M613" t="n">
-        <v>9000</v>
+        <v>6250</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="Q613" t="n">
         <v>25</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44556,25 +44556,25 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K614" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L614" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M614" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q614" t="n">
         <v>25</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K615" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L615" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M615" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="Q615" t="n">
         <v>25</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44700,25 +44700,25 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J616" t="n">
         <v>250</v>
       </c>
       <c r="K616" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L616" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M616" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q616" t="n">
         <v>25</v>
@@ -44772,25 +44772,25 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K617" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L617" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M617" t="n">
-        <v>7750</v>
+        <v>8250</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="Q617" t="n">
         <v>25</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K618" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L618" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M618" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q618" t="n">
         <v>25</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44916,25 +44916,25 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J619" t="n">
         <v>340</v>
       </c>
       <c r="K619" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L619" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M619" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q619" t="n">
         <v>25</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44988,25 +44988,25 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J620" t="n">
         <v>160</v>
       </c>
       <c r="K620" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L620" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M620" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q620" t="n">
         <v>25</v>
@@ -45060,38 +45060,38 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K621" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L621" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M621" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q621" t="n">
         <v>25</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45137,24 +45137,24 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K622" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L622" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M622" t="n">
-        <v>8750</v>
+        <v>10000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q622" t="n">
         <v>25</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45204,25 +45204,25 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J623" t="n">
         <v>250</v>
       </c>
       <c r="K623" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L623" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M623" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q623" t="n">
         <v>25</v>
@@ -45281,24 +45281,24 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K624" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L624" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M624" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q624" t="n">
         <v>25</v>
@@ -45348,16 +45348,16 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K625" t="n">
         <v>7500</v>
@@ -45370,12 +45370,12 @@
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P625" t="n">
@@ -45420,25 +45420,25 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K626" t="n">
         <v>6500</v>
       </c>
       <c r="L626" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M626" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q626" t="n">
         <v>25</v>
@@ -45497,24 +45497,24 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K627" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L627" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M627" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q627" t="n">
         <v>25</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,38 +45564,38 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J628" t="n">
         <v>340</v>
       </c>
       <c r="K628" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L628" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M628" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q628" t="n">
         <v>25</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45636,25 +45636,25 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K629" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L629" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M629" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="Q629" t="n">
         <v>25</v>
@@ -45708,43 +45708,187 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>1a (cosecha lavada)</t>
+        </is>
+      </c>
+      <c r="J630" t="n">
+        <v>340</v>
+      </c>
+      <c r="K630" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L630" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M630" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N630" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O630" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P630" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q630" t="n">
+        <v>25</v>
+      </c>
+      <c r="R630" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>9</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D631" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E631" t="n">
+        <v>13</v>
+      </c>
+      <c r="F631" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>Pukará</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J631" t="n">
+        <v>160</v>
+      </c>
+      <c r="K631" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L631" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M631" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N631" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O631" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P631" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q631" t="n">
+        <v>25</v>
+      </c>
+      <c r="R631" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>9</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D632" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E632" t="n">
+        <v>13</v>
+      </c>
+      <c r="F632" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
           <t>Rodeo</t>
         </is>
       </c>
-      <c r="I630" t="inlineStr">
+      <c r="I632" t="inlineStr">
         <is>
           <t>1a (cosecha)</t>
         </is>
       </c>
-      <c r="J630" t="n">
+      <c r="J632" t="n">
         <v>80</v>
       </c>
-      <c r="K630" t="n">
+      <c r="K632" t="n">
         <v>6500</v>
       </c>
-      <c r="L630" t="n">
+      <c r="L632" t="n">
         <v>7000</v>
       </c>
-      <c r="M630" t="n">
+      <c r="M632" t="n">
         <v>6750</v>
       </c>
-      <c r="N630" t="inlineStr">
+      <c r="N632" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O630" t="inlineStr">
+      <c r="O632" t="inlineStr">
         <is>
           <t>Región de Los Lagos</t>
         </is>
       </c>
-      <c r="P630" t="n">
+      <c r="P632" t="n">
         <v>270</v>
       </c>
-      <c r="Q630" t="n">
-        <v>25</v>
-      </c>
-      <c r="R630" t="inlineStr">
+      <c r="Q632" t="n">
+        <v>25</v>
+      </c>
+      <c r="R632" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R636"/>
+  <dimension ref="A1:R640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K469" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L469" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M469" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="Q469" t="n">
         <v>25</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="K470" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L470" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M470" t="n">
-        <v>6750</v>
+        <v>10496</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="Q470" t="n">
         <v>25</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34260,38 +34260,38 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="K471" t="n">
         <v>11000</v>
       </c>
       <c r="L471" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M471" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="Q471" t="n">
         <v>25</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34332,25 +34332,25 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>490</v>
+        <v>160</v>
       </c>
       <c r="K472" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L472" t="n">
         <v>10000</v>
       </c>
-      <c r="L472" t="n">
-        <v>11000</v>
-      </c>
       <c r="M472" t="n">
-        <v>10490</v>
+        <v>9500</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34359,11 +34359,11 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q472" t="n">
         <v>25</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34409,7 +34409,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J473" t="n">
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34481,11 +34481,11 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K474" t="n">
         <v>6500</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="K475" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L475" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M475" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="Q475" t="n">
         <v>25</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34620,38 +34620,38 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="K476" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L476" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M476" t="n">
-        <v>7250</v>
+        <v>10490</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="Q476" t="n">
         <v>25</v>
@@ -34692,38 +34692,38 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K477" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L477" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M477" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q477" t="n">
         <v>25</v>
@@ -34764,25 +34764,25 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K478" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L478" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M478" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q478" t="n">
         <v>25</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,24 +34841,24 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K479" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L479" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M479" t="n">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="Q479" t="n">
         <v>25</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34908,12 +34908,12 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J480" t="n">
@@ -34930,12 +34930,12 @@
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P480" t="n">
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34980,25 +34980,25 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K481" t="n">
         <v>6000</v>
       </c>
       <c r="L481" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M481" t="n">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35007,11 +35007,11 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q481" t="n">
         <v>25</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E482" t="n">
         <v>13</v>
@@ -35057,24 +35057,24 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K482" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L482" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M482" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="Q482" t="n">
         <v>25</v>
@@ -35124,38 +35124,38 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K483" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L483" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M483" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="Q483" t="n">
         <v>25</v>
@@ -35196,25 +35196,25 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K484" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L484" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M484" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35223,11 +35223,11 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q484" t="n">
         <v>25</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,24 +35273,24 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K485" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L485" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M485" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="Q485" t="n">
         <v>25</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35340,29 +35340,29 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K486" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L486" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M486" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q486" t="n">
         <v>25</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35412,12 +35412,12 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J487" t="n">
@@ -35439,7 +35439,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P487" t="n">
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35484,38 +35484,38 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K488" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L488" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M488" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q488" t="n">
         <v>25</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35556,38 +35556,38 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K489" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L489" t="n">
         <v>8000</v>
       </c>
       <c r="M489" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q489" t="n">
         <v>25</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35628,38 +35628,38 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K490" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L490" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M490" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q490" t="n">
         <v>25</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K491" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L491" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M491" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35727,11 +35727,11 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q491" t="n">
         <v>25</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35772,25 +35772,25 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K492" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="L492" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M492" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q492" t="n">
         <v>25</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35844,25 +35844,25 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K493" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L493" t="n">
         <v>8000</v>
       </c>
       <c r="M493" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="Q493" t="n">
         <v>25</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35921,24 +35921,24 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K494" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L494" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M494" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="Q494" t="n">
         <v>25</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K495" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L495" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M495" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="Q495" t="n">
         <v>25</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36060,25 +36060,25 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K496" t="n">
-        <v>8500</v>
+        <v>1000</v>
       </c>
       <c r="L496" t="n">
         <v>9000</v>
       </c>
       <c r="M496" t="n">
-        <v>8750</v>
+        <v>5000</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36087,11 +36087,11 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q496" t="n">
         <v>25</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36132,25 +36132,25 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K497" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L497" t="n">
         <v>8000</v>
       </c>
       <c r="M497" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q497" t="n">
         <v>25</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36204,25 +36204,25 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J498" t="n">
         <v>250</v>
       </c>
       <c r="K498" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L498" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M498" t="n">
-        <v>7750</v>
+        <v>13000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36231,11 +36231,11 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Q498" t="n">
         <v>25</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36281,33 +36281,33 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K499" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L499" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M499" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="Q499" t="n">
         <v>25</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36348,38 +36348,38 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K500" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L500" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M500" t="n">
-        <v>8000</v>
+        <v>8750</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="Q500" t="n">
         <v>25</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36420,38 +36420,38 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K501" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L501" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M501" t="n">
-        <v>10000</v>
+        <v>7750</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="Q501" t="n">
         <v>25</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J502" t="n">
         <v>250</v>
       </c>
       <c r="K502" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L502" t="n">
         <v>8000</v>
       </c>
       <c r="M502" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36519,11 +36519,11 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q502" t="n">
         <v>25</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36573,7 +36573,7 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K503" t="n">
         <v>10000</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36663,7 +36663,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P504" t="n">
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36708,38 +36708,38 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K505" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L505" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M505" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q505" t="n">
         <v>25</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K506" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L506" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M506" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="Q506" t="n">
         <v>25</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36857,33 +36857,33 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K507" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L507" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M507" t="n">
-        <v>11444</v>
+        <v>10000</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="Q507" t="n">
         <v>25</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36924,25 +36924,25 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K508" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L508" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M508" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36951,11 +36951,11 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="Q508" t="n">
         <v>25</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K509" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L509" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M509" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37023,11 +37023,11 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="Q509" t="n">
         <v>25</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37073,24 +37073,24 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K510" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L510" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M510" t="n">
-        <v>8250</v>
+        <v>11000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="Q510" t="n">
         <v>25</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K511" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L511" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M511" t="n">
-        <v>7250</v>
+        <v>11444</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>290</v>
+        <v>458</v>
       </c>
       <c r="Q511" t="n">
         <v>25</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37212,38 +37212,38 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K512" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L512" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M512" t="n">
-        <v>7750</v>
+        <v>12000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="Q512" t="n">
         <v>25</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="K513" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L513" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M513" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q513" t="n">
         <v>25</v>
@@ -37356,38 +37356,38 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K514" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L514" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M514" t="n">
-        <v>5000</v>
+        <v>8250</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Q514" t="n">
         <v>25</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37433,24 +37433,24 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K515" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L515" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M515" t="n">
-        <v>11500</v>
+        <v>7250</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="Q515" t="n">
         <v>25</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37500,38 +37500,38 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K516" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L516" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M516" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="Q516" t="n">
         <v>25</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37572,38 +37572,38 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K517" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L517" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M517" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q517" t="n">
         <v>25</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37644,25 +37644,25 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K518" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L518" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M518" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37671,11 +37671,11 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="Q518" t="n">
         <v>25</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37716,38 +37716,38 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K519" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L519" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M519" t="n">
-        <v>8444</v>
+        <v>11500</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>338</v>
+        <v>460</v>
       </c>
       <c r="Q519" t="n">
         <v>25</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37793,24 +37793,24 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K520" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L520" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M520" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="Q520" t="n">
         <v>25</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37860,38 +37860,38 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J521" t="n">
         <v>250</v>
       </c>
       <c r="K521" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L521" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M521" t="n">
-        <v>7250</v>
+        <v>10500</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="Q521" t="n">
         <v>25</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37932,38 +37932,38 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J522" t="n">
+        <v>106</v>
+      </c>
+      <c r="K522" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L522" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M522" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P522" t="n">
         <v>340</v>
-      </c>
-      <c r="K522" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L522" t="n">
-        <v>7500</v>
-      </c>
-      <c r="M522" t="n">
-        <v>7250</v>
-      </c>
-      <c r="N522" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O522" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P522" t="n">
-        <v>290</v>
       </c>
       <c r="Q522" t="n">
         <v>25</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38004,25 +38004,25 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K523" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L523" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M523" t="n">
-        <v>6250</v>
+        <v>8444</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="Q523" t="n">
         <v>25</v>
@@ -38076,38 +38076,38 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K524" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L524" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M524" t="n">
-        <v>5000</v>
+        <v>8250</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Q524" t="n">
         <v>25</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38153,24 +38153,24 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K525" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L525" t="n">
         <v>7500</v>
       </c>
-      <c r="L525" t="n">
-        <v>8000</v>
-      </c>
       <c r="M525" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q525" t="n">
         <v>25</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38220,38 +38220,38 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K526" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L526" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M526" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q526" t="n">
         <v>25</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38292,25 +38292,25 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J527" t="n">
         <v>250</v>
       </c>
       <c r="K527" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L527" t="n">
         <v>6500</v>
       </c>
-      <c r="L527" t="n">
-        <v>7000</v>
-      </c>
       <c r="M527" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q527" t="n">
         <v>25</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38364,38 +38364,38 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K528" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L528" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M528" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q528" t="n">
         <v>25</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38436,38 +38436,38 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K529" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L529" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M529" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q529" t="n">
         <v>25</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38520,13 +38520,13 @@
         <v>160</v>
       </c>
       <c r="K530" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L530" t="n">
         <v>7000</v>
       </c>
       <c r="M530" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q530" t="n">
         <v>25</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38580,38 +38580,38 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K531" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L531" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M531" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="Q531" t="n">
         <v>25</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38657,7 +38657,7 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J532" t="n">
@@ -38667,14 +38667,14 @@
         <v>8000</v>
       </c>
       <c r="L532" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M532" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q532" t="n">
         <v>25</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38724,25 +38724,25 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J533" t="n">
         <v>160</v>
       </c>
       <c r="K533" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L533" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M533" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q533" t="n">
         <v>25</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38801,24 +38801,24 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K534" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L534" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M534" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q534" t="n">
         <v>25</v>
@@ -38868,38 +38868,38 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K535" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L535" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M535" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q535" t="n">
         <v>25</v>
@@ -38940,25 +38940,25 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K536" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L536" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M536" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38967,11 +38967,11 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="Q536" t="n">
         <v>25</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39017,24 +39017,24 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K537" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L537" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M537" t="n">
-        <v>8250</v>
+        <v>7500</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="Q537" t="n">
         <v>25</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39084,38 +39084,38 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K538" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L538" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M538" t="n">
-        <v>7250</v>
+        <v>8750</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="Q538" t="n">
         <v>25</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39161,24 +39161,24 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J539" t="n">
         <v>250</v>
       </c>
       <c r="K539" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L539" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M539" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q539" t="n">
         <v>25</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K540" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L540" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M540" t="n">
-        <v>5750</v>
+        <v>7000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="Q540" t="n">
         <v>25</v>
@@ -39300,38 +39300,38 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K541" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L541" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M541" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="Q541" t="n">
         <v>25</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39377,24 +39377,24 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K542" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L542" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M542" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q542" t="n">
         <v>25</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39444,38 +39444,38 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K543" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L543" t="n">
         <v>7000</v>
       </c>
       <c r="M543" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q543" t="n">
         <v>25</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39516,38 +39516,38 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K544" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L544" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M544" t="n">
-        <v>9000</v>
+        <v>5750</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="Q544" t="n">
         <v>25</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K545" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L545" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M545" t="n">
-        <v>8000</v>
+        <v>5750</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="Q545" t="n">
         <v>25</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K546" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L546" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M546" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q546" t="n">
         <v>25</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39732,12 +39732,12 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J547" t="n">
@@ -39759,7 +39759,7 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P547" t="n">
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39804,38 +39804,38 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J548" t="n">
         <v>250</v>
       </c>
       <c r="K548" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L548" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M548" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="Q548" t="n">
         <v>25</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39876,38 +39876,38 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K549" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L549" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M549" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q549" t="n">
         <v>25</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39948,38 +39948,38 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K550" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L550" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M550" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Q550" t="n">
         <v>25</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40020,38 +40020,38 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K551" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L551" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M551" t="n">
-        <v>8250</v>
+        <v>7000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="Q551" t="n">
         <v>25</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40107,10 +40107,10 @@
         <v>7000</v>
       </c>
       <c r="L552" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M552" t="n">
-        <v>7250</v>
+        <v>7000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40119,11 +40119,11 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="Q552" t="n">
         <v>25</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40176,13 +40176,13 @@
         <v>340</v>
       </c>
       <c r="K553" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L553" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M553" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40191,11 +40191,11 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q553" t="n">
         <v>25</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K554" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L554" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M554" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q554" t="n">
         <v>25</v>
@@ -40308,38 +40308,38 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K555" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L555" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M555" t="n">
-        <v>5500</v>
+        <v>8250</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="Q555" t="n">
         <v>25</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40385,24 +40385,24 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K556" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L556" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M556" t="n">
-        <v>9000</v>
+        <v>7250</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Q556" t="n">
         <v>25</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40452,29 +40452,29 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K557" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L557" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M557" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q557" t="n">
         <v>25</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40524,25 +40524,25 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K558" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L558" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M558" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q558" t="n">
         <v>25</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40596,38 +40596,38 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K559" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L559" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="M559" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="Q559" t="n">
         <v>25</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40668,38 +40668,38 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K560" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L560" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M560" t="n">
-        <v>6250</v>
+        <v>9000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="Q560" t="n">
         <v>25</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40740,25 +40740,25 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K561" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L561" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M561" t="n">
-        <v>6250</v>
+        <v>7000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="Q561" t="n">
         <v>25</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40812,7 +40812,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K562" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L562" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M562" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="Q562" t="n">
         <v>25</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40884,38 +40884,38 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K563" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L563" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M563" t="n">
-        <v>12000</v>
+        <v>7250</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="Q563" t="n">
         <v>25</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40956,7 +40956,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -40965,29 +40965,29 @@
         </is>
       </c>
       <c r="J564" t="n">
+        <v>160</v>
+      </c>
+      <c r="K564" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L564" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M564" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N564" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P564" t="n">
         <v>250</v>
-      </c>
-      <c r="K564" t="n">
-        <v>6500</v>
-      </c>
-      <c r="L564" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M564" t="n">
-        <v>6750</v>
-      </c>
-      <c r="N564" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O564" t="inlineStr">
-        <is>
-          <t>Región de Los Lagos</t>
-        </is>
-      </c>
-      <c r="P564" t="n">
-        <v>270</v>
       </c>
       <c r="Q564" t="n">
         <v>25</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41028,38 +41028,38 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="K565" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L565" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M565" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="Q565" t="n">
         <v>25</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41100,25 +41100,25 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K566" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L566" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M566" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="Q566" t="n">
         <v>25</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41177,33 +41177,33 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K567" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L567" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M567" t="n">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="Q567" t="n">
         <v>25</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41244,25 +41244,25 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K568" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L568" t="n">
         <v>7000</v>
       </c>
-      <c r="L568" t="n">
-        <v>7500</v>
-      </c>
       <c r="M568" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q568" t="n">
         <v>25</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41316,38 +41316,38 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K569" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L569" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M569" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q569" t="n">
         <v>25</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41393,33 +41393,33 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J570" t="n">
+        <v>210</v>
+      </c>
+      <c r="K570" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L570" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M570" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N570" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P570" t="n">
         <v>270</v>
-      </c>
-      <c r="K570" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L570" t="n">
-        <v>7500</v>
-      </c>
-      <c r="M570" t="n">
-        <v>7241</v>
-      </c>
-      <c r="N570" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O570" t="inlineStr">
-        <is>
-          <t>Región de Los Lagos</t>
-        </is>
-      </c>
-      <c r="P570" t="n">
-        <v>290</v>
       </c>
       <c r="Q570" t="n">
         <v>25</v>
@@ -41460,38 +41460,38 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="K571" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L571" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M571" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q571" t="n">
         <v>25</v>
@@ -41532,25 +41532,25 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="K572" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L572" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M572" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q572" t="n">
         <v>25</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,24 +41609,24 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K573" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L573" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M573" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="Q573" t="n">
         <v>25</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41676,38 +41676,38 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="K574" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L574" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M574" t="n">
-        <v>6750</v>
+        <v>7241</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q574" t="n">
         <v>25</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,38 +41748,38 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J575" t="n">
+        <v>130</v>
+      </c>
+      <c r="K575" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L575" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M575" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N575" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="P575" t="n">
         <v>250</v>
-      </c>
-      <c r="K575" t="n">
-        <v>6500</v>
-      </c>
-      <c r="L575" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M575" t="n">
-        <v>6750</v>
-      </c>
-      <c r="N575" t="inlineStr">
-        <is>
-          <t>$/saco 25 kilos</t>
-        </is>
-      </c>
-      <c r="O575" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P575" t="n">
-        <v>270</v>
       </c>
       <c r="Q575" t="n">
         <v>25</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41820,29 +41820,29 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="K576" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L576" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M576" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="Q576" t="n">
         <v>25</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41892,25 +41892,25 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K577" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L577" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M577" t="n">
-        <v>9000</v>
+        <v>7750</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="Q577" t="n">
         <v>25</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41964,25 +41964,25 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K578" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L578" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M578" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="Q578" t="n">
         <v>25</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K579" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L579" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M579" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q579" t="n">
         <v>25</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="K580" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L580" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M580" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="Q580" t="n">
         <v>25</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42180,38 +42180,38 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="K581" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L581" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M581" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="Q581" t="n">
         <v>25</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,7 +42252,7 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
@@ -42261,20 +42261,20 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K582" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L582" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M582" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q582" t="n">
         <v>25</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42324,38 +42324,38 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K583" t="n">
         <v>10000</v>
       </c>
       <c r="L583" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M583" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Q583" t="n">
         <v>25</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42401,24 +42401,24 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="K584" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L584" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M584" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q584" t="n">
         <v>25</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42468,38 +42468,38 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K585" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L585" t="n">
         <v>10000</v>
       </c>
       <c r="M585" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="Q585" t="n">
         <v>25</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42540,38 +42540,38 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K586" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L586" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M586" t="n">
-        <v>7496</v>
+        <v>11000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="Q586" t="n">
         <v>25</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J587" t="n">
         <v>340</v>
       </c>
       <c r="K587" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L587" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M587" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q587" t="n">
         <v>25</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K588" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L588" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M588" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q588" t="n">
         <v>25</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42761,33 +42761,33 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K589" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L589" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M589" t="n">
-        <v>6250</v>
+        <v>9500</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="Q589" t="n">
         <v>25</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42828,25 +42828,25 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="K590" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L590" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M590" t="n">
-        <v>12606</v>
+        <v>7496</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>504</v>
+        <v>300</v>
       </c>
       <c r="Q590" t="n">
         <v>25</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42900,38 +42900,38 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K591" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L591" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M591" t="n">
-        <v>13556</v>
+        <v>7750</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>542</v>
+        <v>310</v>
       </c>
       <c r="Q591" t="n">
         <v>25</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K592" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L592" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M592" t="n">
-        <v>11444</v>
+        <v>6250</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q592" t="n">
         <v>25</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43044,25 +43044,25 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="K593" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L593" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M593" t="n">
-        <v>12000</v>
+        <v>6250</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="Q593" t="n">
         <v>25</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43125,16 +43125,16 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="K594" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L594" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M594" t="n">
-        <v>11000</v>
+        <v>12606</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="Q594" t="n">
         <v>25</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43188,38 +43188,38 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="K595" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L595" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M595" t="n">
-        <v>8250</v>
+        <v>13556</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>330</v>
+        <v>542</v>
       </c>
       <c r="Q595" t="n">
         <v>25</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43260,25 +43260,25 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K596" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L596" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M596" t="n">
-        <v>7250</v>
+        <v>11444</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>290</v>
+        <v>458</v>
       </c>
       <c r="Q596" t="n">
         <v>25</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -43341,29 +43341,29 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="K597" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L597" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M597" t="n">
-        <v>8750</v>
+        <v>12000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="Q597" t="n">
         <v>25</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43404,7 +43404,7 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K598" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L598" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M598" t="n">
-        <v>7750</v>
+        <v>11000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="Q598" t="n">
         <v>25</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43476,38 +43476,38 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K599" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L599" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M599" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q599" t="n">
         <v>25</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43548,29 +43548,29 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J600" t="n">
         <v>340</v>
       </c>
       <c r="K600" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L600" t="n">
         <v>7500</v>
       </c>
-      <c r="L600" t="n">
-        <v>8000</v>
-      </c>
       <c r="M600" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q600" t="n">
         <v>25</v>
@@ -43620,38 +43620,38 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K601" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L601" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M601" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q601" t="n">
         <v>25</v>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K602" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L602" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M602" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q602" t="n">
         <v>25</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43769,24 +43769,24 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K603" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L603" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M603" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q603" t="n">
         <v>25</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43836,38 +43836,38 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K604" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L604" t="n">
         <v>8000</v>
       </c>
       <c r="M604" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q604" t="n">
         <v>25</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43908,38 +43908,38 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K605" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L605" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M605" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q605" t="n">
         <v>25</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43980,25 +43980,25 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K606" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L606" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M606" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q606" t="n">
         <v>25</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44052,38 +44052,38 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K607" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L607" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M607" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q607" t="n">
         <v>25</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44124,38 +44124,38 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K608" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L608" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M608" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="Q608" t="n">
         <v>25</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44201,7 +44201,7 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J609" t="n">
@@ -44218,7 +44218,7 @@
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,38 +44268,38 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K610" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L610" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M610" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="Q610" t="n">
         <v>25</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44340,38 +44340,38 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K611" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L611" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M611" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="Q611" t="n">
         <v>25</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44412,38 +44412,38 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J612" t="n">
         <v>340</v>
       </c>
       <c r="K612" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L612" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M612" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="Q612" t="n">
         <v>25</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44489,24 +44489,24 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J613" t="n">
         <v>430</v>
       </c>
       <c r="K613" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L613" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M613" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q613" t="n">
         <v>25</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44556,38 +44556,38 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K614" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L614" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M614" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q614" t="n">
         <v>25</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44633,33 +44633,33 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K615" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L615" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M615" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q615" t="n">
         <v>25</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44705,33 +44705,33 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J616" t="n">
         <v>340</v>
       </c>
       <c r="K616" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L616" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M616" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q616" t="n">
         <v>25</v>
@@ -44772,38 +44772,38 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K617" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L617" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M617" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q617" t="n">
         <v>25</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K618" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L618" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M618" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q618" t="n">
         <v>25</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44921,24 +44921,24 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K619" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L619" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M619" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="Q619" t="n">
         <v>25</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44988,29 +44988,29 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K620" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L620" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M620" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q620" t="n">
         <v>25</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45060,38 +45060,38 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K621" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L621" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M621" t="n">
-        <v>8250</v>
+        <v>6250</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q621" t="n">
         <v>25</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45132,25 +45132,25 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K622" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L622" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M622" t="n">
-        <v>7250</v>
+        <v>5000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="Q622" t="n">
         <v>25</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45204,25 +45204,25 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J623" t="n">
         <v>340</v>
       </c>
       <c r="K623" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L623" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M623" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Q623" t="n">
         <v>25</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K624" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L624" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M624" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q624" t="n">
         <v>25</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K625" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L625" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="M625" t="n">
-        <v>11500</v>
+        <v>8250</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="Q625" t="n">
         <v>25</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K626" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L626" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M626" t="n">
-        <v>10000</v>
+        <v>7250</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="Q626" t="n">
         <v>25</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45492,38 +45492,38 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K627" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L627" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M627" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="Q627" t="n">
         <v>25</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,38 +45564,38 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K628" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L628" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M628" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q628" t="n">
         <v>25</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45641,24 +45641,24 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K629" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L629" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M629" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q629" t="n">
         <v>25</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K630" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L630" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M630" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="Q630" t="n">
         <v>25</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45780,38 +45780,38 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K631" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L631" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M631" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q631" t="n">
         <v>25</v>
@@ -45852,38 +45852,38 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J632" t="n">
         <v>340</v>
       </c>
       <c r="K632" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L632" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M632" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q632" t="n">
         <v>25</v>
@@ -45924,25 +45924,25 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K633" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L633" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M633" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q633" t="n">
         <v>25</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -46001,24 +46001,24 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K634" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L634" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M634" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q634" t="n">
         <v>25</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46068,29 +46068,29 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K635" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L635" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M635" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q635" t="n">
         <v>25</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46145,11 +46145,11 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K636" t="n">
         <v>6500</v>
@@ -46167,7 +46167,7 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P636" t="n">
@@ -46177,6 +46177,294 @@
         <v>25</v>
       </c>
       <c r="R636" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>9</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D637" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E637" t="n">
+        <v>13</v>
+      </c>
+      <c r="F637" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J637" t="n">
+        <v>97</v>
+      </c>
+      <c r="K637" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L637" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M637" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N637" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O637" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P637" t="n">
+        <v>240</v>
+      </c>
+      <c r="Q637" t="n">
+        <v>25</v>
+      </c>
+      <c r="R637" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>9</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D638" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E638" t="n">
+        <v>13</v>
+      </c>
+      <c r="F638" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>1a (cosecha lavada)</t>
+        </is>
+      </c>
+      <c r="J638" t="n">
+        <v>340</v>
+      </c>
+      <c r="K638" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L638" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M638" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N638" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O638" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P638" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q638" t="n">
+        <v>25</v>
+      </c>
+      <c r="R638" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>9</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D639" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E639" t="n">
+        <v>13</v>
+      </c>
+      <c r="F639" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Pukará</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J639" t="n">
+        <v>160</v>
+      </c>
+      <c r="K639" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L639" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M639" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N639" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P639" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q639" t="n">
+        <v>25</v>
+      </c>
+      <c r="R639" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>9</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D640" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E640" t="n">
+        <v>13</v>
+      </c>
+      <c r="F640" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J640" t="n">
+        <v>80</v>
+      </c>
+      <c r="K640" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L640" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M640" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N640" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="P640" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>25</v>
+      </c>
+      <c r="R640" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R658"/>
+  <dimension ref="A1:R662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39885,7 +39885,7 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="K549" t="n">
         <v>10000</v>
@@ -39894,7 +39894,7 @@
         <v>11000</v>
       </c>
       <c r="M549" t="n">
-        <v>10496</v>
+        <v>10500</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39957,7 +39957,7 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K550" t="n">
         <v>11000</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40029,7 +40029,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K551" t="n">
         <v>9000</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K552" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L552" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M552" t="n">
-        <v>8250</v>
+        <v>12500</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="Q552" t="n">
         <v>25</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="K553" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L553" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M553" t="n">
-        <v>7250</v>
+        <v>10496</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="Q553" t="n">
         <v>25</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40236,38 +40236,38 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K554" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L554" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M554" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="Q554" t="n">
         <v>25</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40308,29 +40308,29 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K555" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L555" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M555" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="Q555" t="n">
         <v>25</v>
@@ -40380,38 +40380,38 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K556" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L556" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M556" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="Q556" t="n">
         <v>25</v>
@@ -40452,25 +40452,25 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K557" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L557" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M557" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q557" t="n">
         <v>25</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40529,24 +40529,24 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K558" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L558" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M558" t="n">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O558" t="inlineStr">
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="Q558" t="n">
         <v>25</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40596,38 +40596,38 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K559" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L559" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M559" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q559" t="n">
         <v>25</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40673,24 +40673,24 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K560" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L560" t="n">
         <v>7000</v>
       </c>
-      <c r="L560" t="n">
-        <v>7500</v>
-      </c>
       <c r="M560" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q560" t="n">
         <v>25</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K561" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L561" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M561" t="n">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q561" t="n">
         <v>25</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K562" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L562" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M562" t="n">
-        <v>11000</v>
+        <v>8250</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="Q562" t="n">
         <v>25</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K563" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L563" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M563" t="n">
-        <v>9000</v>
+        <v>7250</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Q563" t="n">
         <v>25</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40956,25 +40956,25 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J564" t="n">
         <v>340</v>
       </c>
       <c r="K564" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L564" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M564" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="Q564" t="n">
         <v>25</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41028,25 +41028,25 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K565" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L565" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M565" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="Q565" t="n">
         <v>25</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41100,25 +41100,25 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J566" t="n">
         <v>250</v>
       </c>
       <c r="K566" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L566" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M566" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q566" t="n">
         <v>25</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41172,25 +41172,25 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J567" t="n">
         <v>160</v>
       </c>
       <c r="K567" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L567" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M567" t="n">
-        <v>5750</v>
+        <v>9000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="Q567" t="n">
         <v>25</v>
@@ -41244,38 +41244,38 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K568" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L568" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M568" t="n">
-        <v>5750</v>
+        <v>8250</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="Q568" t="n">
         <v>25</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41321,24 +41321,24 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K569" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L569" t="n">
         <v>7500</v>
       </c>
-      <c r="L569" t="n">
-        <v>8000</v>
-      </c>
       <c r="M569" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q569" t="n">
         <v>25</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41388,16 +41388,16 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K570" t="n">
         <v>6500</v>
@@ -41410,7 +41410,7 @@
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41460,25 +41460,25 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K571" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L571" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M571" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="Q571" t="n">
         <v>25</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41532,38 +41532,38 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K572" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L572" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M572" t="n">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="Q572" t="n">
         <v>25</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,24 +41609,24 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K573" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L573" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M573" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q573" t="n">
         <v>25</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41676,38 +41676,38 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K574" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L574" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M574" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q574" t="n">
         <v>25</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,16 +41748,16 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K575" t="n">
         <v>6500</v>
@@ -41775,7 +41775,7 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P575" t="n">
@@ -41820,38 +41820,38 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K576" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L576" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M576" t="n">
-        <v>5000</v>
+        <v>8250</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Q576" t="n">
         <v>25</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41897,24 +41897,24 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K577" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L577" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M577" t="n">
-        <v>8750</v>
+        <v>7250</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="Q577" t="n">
         <v>25</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41964,16 +41964,16 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K578" t="n">
         <v>7500</v>
@@ -41986,7 +41986,7 @@
       </c>
       <c r="N578" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K579" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L579" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M579" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q579" t="n">
         <v>25</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42113,33 +42113,33 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K580" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L580" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M580" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="Q580" t="n">
         <v>25</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42180,38 +42180,38 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K581" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L581" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M581" t="n">
-        <v>6250</v>
+        <v>8750</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q581" t="n">
         <v>25</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,25 +42252,25 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K582" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L582" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M582" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q582" t="n">
         <v>25</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42324,38 +42324,38 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K583" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L583" t="n">
         <v>8000</v>
       </c>
       <c r="M583" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q583" t="n">
         <v>25</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42396,29 +42396,29 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K584" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L584" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M584" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q584" t="n">
         <v>25</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42468,25 +42468,25 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K585" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L585" t="n">
         <v>6500</v>
       </c>
-      <c r="L585" t="n">
-        <v>7000</v>
-      </c>
       <c r="M585" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q585" t="n">
         <v>25</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42540,38 +42540,38 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K586" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L586" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M586" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q586" t="n">
         <v>25</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42612,38 +42612,38 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J587" t="n">
         <v>340</v>
       </c>
       <c r="K587" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L587" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M587" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q587" t="n">
         <v>25</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42684,7 +42684,7 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -42711,7 +42711,7 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P588" t="n">
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42756,38 +42756,38 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K589" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L589" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M589" t="n">
-        <v>11357</v>
+        <v>6750</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>454</v>
+        <v>270</v>
       </c>
       <c r="Q589" t="n">
         <v>25</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42828,16 +42828,16 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K590" t="n">
         <v>8000</v>
@@ -42850,12 +42850,12 @@
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P590" t="n">
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42900,38 +42900,38 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J591" t="n">
         <v>340</v>
       </c>
       <c r="K591" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L591" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M591" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q591" t="n">
         <v>25</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42984,13 +42984,13 @@
         <v>250</v>
       </c>
       <c r="K592" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L592" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M592" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q592" t="n">
         <v>25</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="K593" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L593" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M593" t="n">
-        <v>9750</v>
+        <v>11357</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="Q593" t="n">
         <v>25</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43125,16 +43125,16 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K594" t="n">
         <v>8000</v>
       </c>
       <c r="L594" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M594" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q594" t="n">
         <v>25</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43193,24 +43193,24 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K595" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L595" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M595" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q595" t="n">
         <v>25</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43260,38 +43260,38 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K596" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L596" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M596" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q596" t="n">
         <v>25</v>
@@ -43332,38 +43332,38 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K597" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L597" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M597" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q597" t="n">
         <v>25</v>
@@ -43404,25 +43404,25 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K598" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L598" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M598" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="Q598" t="n">
         <v>25</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43481,24 +43481,24 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K599" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L599" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M599" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q599" t="n">
         <v>25</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43548,38 +43548,38 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K600" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L600" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M600" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q600" t="n">
         <v>25</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43620,25 +43620,25 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K601" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L601" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M601" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q601" t="n">
         <v>25</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43692,29 +43692,29 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K602" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L602" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M602" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q602" t="n">
         <v>25</v>
@@ -43764,38 +43764,38 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J603" t="n">
         <v>340</v>
       </c>
       <c r="K603" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L603" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M603" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q603" t="n">
         <v>25</v>
@@ -43836,25 +43836,25 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K604" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L604" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M604" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q604" t="n">
         <v>25</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43913,24 +43913,24 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K605" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L605" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M605" t="n">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="Q605" t="n">
         <v>25</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43980,38 +43980,38 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K606" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L606" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M606" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q606" t="n">
         <v>25</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44052,38 +44052,38 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J607" t="n">
         <v>340</v>
       </c>
       <c r="K607" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L607" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M607" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q607" t="n">
         <v>25</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44124,25 +44124,25 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K608" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L608" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M608" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="Q608" t="n">
         <v>25</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44196,38 +44196,38 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K609" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L609" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M609" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="Q609" t="n">
         <v>25</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44273,24 +44273,24 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K610" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L610" t="n">
         <v>7500</v>
       </c>
-      <c r="L610" t="n">
-        <v>8000</v>
-      </c>
       <c r="M610" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q610" t="n">
         <v>25</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44345,24 +44345,24 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J611" t="n">
         <v>340</v>
       </c>
       <c r="K611" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L611" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M611" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q611" t="n">
         <v>25</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44412,25 +44412,25 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K612" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L612" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M612" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="Q612" t="n">
         <v>25</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44484,38 +44484,38 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K613" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L613" t="n">
         <v>7000</v>
       </c>
-      <c r="L613" t="n">
-        <v>7500</v>
-      </c>
       <c r="M613" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q613" t="n">
         <v>25</v>
@@ -44556,38 +44556,38 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K614" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L614" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M614" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q614" t="n">
         <v>25</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K615" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L615" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M615" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q615" t="n">
         <v>25</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44705,24 +44705,24 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K616" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L616" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M616" t="n">
-        <v>8750</v>
+        <v>6000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="Q616" t="n">
         <v>25</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,38 +44772,38 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K617" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L617" t="n">
         <v>7500</v>
       </c>
-      <c r="L617" t="n">
-        <v>8000</v>
-      </c>
       <c r="M617" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q617" t="n">
         <v>25</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K618" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L618" t="n">
         <v>6500</v>
       </c>
       <c r="M618" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q618" t="n">
         <v>25</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44916,29 +44916,29 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K619" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L619" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M619" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="Q619" t="n">
         <v>25</v>
@@ -44988,38 +44988,38 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J620" t="n">
         <v>340</v>
       </c>
       <c r="K620" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L620" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M620" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q620" t="n">
         <v>25</v>
@@ -45060,25 +45060,25 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K621" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L621" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M621" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q621" t="n">
         <v>25</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45137,24 +45137,24 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K622" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L622" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M622" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q622" t="n">
         <v>25</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45204,38 +45204,38 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K623" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L623" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M623" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q623" t="n">
         <v>25</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K624" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L624" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M624" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="Q624" t="n">
         <v>25</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45348,29 +45348,29 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K625" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L625" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M625" t="n">
-        <v>7250</v>
+        <v>6000</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="Q625" t="n">
         <v>25</v>
@@ -45420,38 +45420,38 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K626" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L626" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M626" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q626" t="n">
         <v>25</v>
@@ -45492,25 +45492,25 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K627" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L627" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M627" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q627" t="n">
         <v>25</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K628" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L628" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M628" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="Q628" t="n">
         <v>25</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45636,38 +45636,38 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="K629" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L629" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M629" t="n">
-        <v>10490</v>
+        <v>7250</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="Q629" t="n">
         <v>25</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45713,33 +45713,33 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J630" t="n">
         <v>250</v>
       </c>
       <c r="K630" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L630" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M630" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="Q630" t="n">
         <v>25</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="K631" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L631" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M631" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q631" t="n">
         <v>25</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45857,24 +45857,24 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K632" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L632" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M632" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="Q632" t="n">
         <v>25</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>160</v>
+        <v>490</v>
       </c>
       <c r="K633" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L633" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M633" t="n">
-        <v>7000</v>
+        <v>10490</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="Q633" t="n">
         <v>25</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -45996,25 +45996,25 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K634" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L634" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M634" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="Q634" t="n">
         <v>25</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46068,25 +46068,25 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K635" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L635" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M635" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q635" t="n">
         <v>25</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46140,25 +46140,25 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K636" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L636" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M636" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q636" t="n">
         <v>25</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46212,25 +46212,25 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K637" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L637" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M637" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q637" t="n">
         <v>25</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46284,38 +46284,38 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="K638" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L638" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M638" t="n">
-        <v>12417</v>
+        <v>10000</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>497</v>
+        <v>400</v>
       </c>
       <c r="Q638" t="n">
         <v>25</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46356,7 +46356,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K639" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L639" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M639" t="n">
-        <v>13333</v>
+        <v>8000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>533</v>
+        <v>320</v>
       </c>
       <c r="Q639" t="n">
         <v>25</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46428,25 +46428,25 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J640" t="n">
         <v>340</v>
       </c>
       <c r="K640" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L640" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M640" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="Q640" t="n">
         <v>25</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46500,25 +46500,25 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K641" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L641" t="n">
         <v>8000</v>
       </c>
-      <c r="L641" t="n">
-        <v>9000</v>
-      </c>
       <c r="M641" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q641" t="n">
         <v>25</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46572,38 +46572,38 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="K642" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L642" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M642" t="n">
-        <v>9500</v>
+        <v>12417</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>380</v>
+        <v>497</v>
       </c>
       <c r="Q642" t="n">
         <v>25</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46644,25 +46644,25 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="K643" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L643" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M643" t="n">
-        <v>7496</v>
+        <v>13333</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>300</v>
+        <v>533</v>
       </c>
       <c r="Q643" t="n">
         <v>25</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46725,16 +46725,16 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K644" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L644" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M644" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="Q644" t="n">
         <v>25</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46788,7 +46788,7 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K645" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L645" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M645" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="Q645" t="n">
         <v>25</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46860,7 +46860,7 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -46869,16 +46869,16 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K646" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L646" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M646" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q646" t="n">
         <v>25</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,7 +46932,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="K647" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L647" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M647" t="n">
-        <v>6250</v>
+        <v>7496</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q647" t="n">
         <v>25</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47004,38 +47004,38 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K648" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L648" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M648" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="Q648" t="n">
         <v>25</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47076,38 +47076,38 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K649" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L649" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M649" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q649" t="n">
         <v>25</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47148,38 +47148,38 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J650" t="n">
         <v>340</v>
       </c>
       <c r="K650" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L650" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M650" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q650" t="n">
         <v>25</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47220,38 +47220,38 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K651" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L651" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M651" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q651" t="n">
         <v>25</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47292,25 +47292,25 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K652" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L652" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M652" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q652" t="n">
         <v>25</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47376,13 +47376,13 @@
         <v>430</v>
       </c>
       <c r="K653" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L653" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M653" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="Q653" t="n">
         <v>25</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47445,16 +47445,16 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K654" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L654" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M654" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q654" t="n">
         <v>25</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J655" t="n">
         <v>340</v>
       </c>
       <c r="K655" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L655" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M655" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="Q655" t="n">
         <v>25</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K656" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L656" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M656" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="Q656" t="n">
         <v>25</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K657" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L657" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M657" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q657" t="n">
         <v>25</v>
@@ -47724,43 +47724,331 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J658" t="n">
+        <v>250</v>
+      </c>
+      <c r="K658" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L658" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M658" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N658" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O658" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P658" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q658" t="n">
+        <v>25</v>
+      </c>
+      <c r="R658" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>9</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D659" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E659" t="n">
+        <v>13</v>
+      </c>
+      <c r="F659" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>1a (nueva lavada)</t>
+        </is>
+      </c>
+      <c r="J659" t="n">
+        <v>340</v>
+      </c>
+      <c r="K659" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L659" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M659" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N659" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O659" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P659" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q659" t="n">
+        <v>25</v>
+      </c>
+      <c r="R659" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>9</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D660" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E660" t="n">
+        <v>13</v>
+      </c>
+      <c r="F660" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J660" t="n">
+        <v>160</v>
+      </c>
+      <c r="K660" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L660" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M660" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N660" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O660" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P660" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q660" t="n">
+        <v>25</v>
+      </c>
+      <c r="R660" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>9</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D661" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E661" t="n">
+        <v>13</v>
+      </c>
+      <c r="F661" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
           <t>Rodeo</t>
         </is>
       </c>
-      <c r="I658" t="inlineStr">
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>1a (guarda lavada)</t>
+        </is>
+      </c>
+      <c r="J661" t="n">
+        <v>340</v>
+      </c>
+      <c r="K661" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L661" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M661" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N661" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O661" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P661" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q661" t="n">
+        <v>25</v>
+      </c>
+      <c r="R661" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>9</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D662" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E662" t="n">
+        <v>13</v>
+      </c>
+      <c r="F662" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J658" t="n">
+      <c r="J662" t="n">
         <v>196</v>
       </c>
-      <c r="K658" t="n">
+      <c r="K662" t="n">
         <v>7000</v>
       </c>
-      <c r="L658" t="n">
+      <c r="L662" t="n">
         <v>8000</v>
       </c>
-      <c r="M658" t="n">
+      <c r="M662" t="n">
         <v>7500</v>
       </c>
-      <c r="N658" t="inlineStr">
+      <c r="N662" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O658" t="inlineStr">
+      <c r="O662" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P658" t="n">
+      <c r="P662" t="n">
         <v>300</v>
       </c>
-      <c r="Q658" t="n">
-        <v>25</v>
-      </c>
-      <c r="R658" t="inlineStr">
+      <c r="Q662" t="n">
+        <v>25</v>
+      </c>
+      <c r="R662" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R692"/>
+  <dimension ref="A1:R696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44352,13 +44352,13 @@
         <v>340</v>
       </c>
       <c r="K611" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L611" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M611" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q611" t="n">
         <v>25</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="K612" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L612" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M612" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q612" t="n">
         <v>25</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44489,24 +44489,24 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K613" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L613" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M613" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q613" t="n">
         <v>25</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44556,29 +44556,29 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K614" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L614" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M614" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="Q614" t="n">
         <v>25</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44628,38 +44628,38 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K615" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L615" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M615" t="n">
-        <v>6250</v>
+        <v>8750</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q615" t="n">
         <v>25</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44700,25 +44700,25 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K616" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L616" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M616" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q616" t="n">
         <v>25</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,38 +44772,38 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K617" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L617" t="n">
         <v>8000</v>
       </c>
       <c r="M617" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q617" t="n">
         <v>25</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44844,29 +44844,29 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K618" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L618" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M618" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q618" t="n">
         <v>25</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44916,25 +44916,25 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K619" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L619" t="n">
         <v>6500</v>
       </c>
-      <c r="L619" t="n">
-        <v>7000</v>
-      </c>
       <c r="M619" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q619" t="n">
         <v>25</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44988,38 +44988,38 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K620" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L620" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M620" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q620" t="n">
         <v>25</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45060,38 +45060,38 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J621" t="n">
         <v>340</v>
       </c>
       <c r="K621" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L621" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M621" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q621" t="n">
         <v>25</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45132,7 +45132,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -45159,7 +45159,7 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P622" t="n">
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45204,38 +45204,38 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K623" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L623" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M623" t="n">
-        <v>11357</v>
+        <v>6750</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>454</v>
+        <v>270</v>
       </c>
       <c r="Q623" t="n">
         <v>25</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,16 +45276,16 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K624" t="n">
         <v>8000</v>
@@ -45298,12 +45298,12 @@
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P624" t="n">
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45348,38 +45348,38 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J625" t="n">
         <v>340</v>
       </c>
       <c r="K625" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L625" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M625" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q625" t="n">
         <v>25</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45432,13 +45432,13 @@
         <v>250</v>
       </c>
       <c r="K626" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L626" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M626" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q626" t="n">
         <v>25</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="K627" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L627" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M627" t="n">
-        <v>9750</v>
+        <v>11357</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="Q627" t="n">
         <v>25</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K628" t="n">
         <v>8000</v>
       </c>
       <c r="L628" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M628" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q628" t="n">
         <v>25</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45641,24 +45641,24 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K629" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L629" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M629" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q629" t="n">
         <v>25</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45708,38 +45708,38 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K630" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L630" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M630" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q630" t="n">
         <v>25</v>
@@ -45780,38 +45780,38 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K631" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L631" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M631" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q631" t="n">
         <v>25</v>
@@ -45852,25 +45852,25 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K632" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L632" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M632" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="Q632" t="n">
         <v>25</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45929,24 +45929,24 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K633" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L633" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M633" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q633" t="n">
         <v>25</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -45996,38 +45996,38 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K634" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L634" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M634" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q634" t="n">
         <v>25</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46068,25 +46068,25 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K635" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L635" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M635" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q635" t="n">
         <v>25</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46140,29 +46140,29 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K636" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L636" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M636" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q636" t="n">
         <v>25</v>
@@ -46212,38 +46212,38 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J637" t="n">
         <v>340</v>
       </c>
       <c r="K637" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L637" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M637" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q637" t="n">
         <v>25</v>
@@ -46284,25 +46284,25 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K638" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L638" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M638" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q638" t="n">
         <v>25</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46361,24 +46361,24 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K639" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L639" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M639" t="n">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="Q639" t="n">
         <v>25</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46428,38 +46428,38 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K640" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L640" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M640" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q640" t="n">
         <v>25</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46500,38 +46500,38 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J641" t="n">
         <v>340</v>
       </c>
       <c r="K641" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L641" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M641" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q641" t="n">
         <v>25</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46572,25 +46572,25 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K642" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L642" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M642" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="Q642" t="n">
         <v>25</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46644,38 +46644,38 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K643" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L643" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M643" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="Q643" t="n">
         <v>25</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K644" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L644" t="n">
         <v>7500</v>
       </c>
-      <c r="L644" t="n">
-        <v>8000</v>
-      </c>
       <c r="M644" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q644" t="n">
         <v>25</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46793,24 +46793,24 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J645" t="n">
         <v>340</v>
       </c>
       <c r="K645" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L645" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M645" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q645" t="n">
         <v>25</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46860,25 +46860,25 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K646" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L646" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M646" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="Q646" t="n">
         <v>25</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,38 +46932,38 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K647" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L647" t="n">
         <v>7000</v>
       </c>
-      <c r="L647" t="n">
-        <v>7500</v>
-      </c>
       <c r="M647" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q647" t="n">
         <v>25</v>
@@ -47004,38 +47004,38 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K648" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L648" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M648" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q648" t="n">
         <v>25</v>
@@ -47076,25 +47076,25 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K649" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L649" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M649" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q649" t="n">
         <v>25</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47153,24 +47153,24 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K650" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L650" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M650" t="n">
-        <v>8750</v>
+        <v>6000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="Q650" t="n">
         <v>25</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47220,38 +47220,38 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K651" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L651" t="n">
         <v>7500</v>
       </c>
-      <c r="L651" t="n">
-        <v>8000</v>
-      </c>
       <c r="M651" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="Q651" t="n">
         <v>25</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47292,25 +47292,25 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K652" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L652" t="n">
         <v>6500</v>
       </c>
       <c r="M652" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q652" t="n">
         <v>25</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47364,29 +47364,29 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K653" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L653" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M653" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="Q653" t="n">
         <v>25</v>
@@ -47436,38 +47436,38 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J654" t="n">
         <v>340</v>
       </c>
       <c r="K654" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L654" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M654" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q654" t="n">
         <v>25</v>
@@ -47508,25 +47508,25 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K655" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L655" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M655" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q655" t="n">
         <v>25</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,24 +47585,24 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K656" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L656" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M656" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q656" t="n">
         <v>25</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47652,38 +47652,38 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K657" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L657" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M657" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q657" t="n">
         <v>25</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K658" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L658" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M658" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="Q658" t="n">
         <v>25</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47796,29 +47796,29 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K659" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L659" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M659" t="n">
-        <v>7250</v>
+        <v>6000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="Q659" t="n">
         <v>25</v>
@@ -47868,38 +47868,38 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K660" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L660" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M660" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q660" t="n">
         <v>25</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K661" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L661" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M661" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q661" t="n">
         <v>25</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K662" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L662" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M662" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="Q662" t="n">
         <v>25</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48084,38 +48084,38 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="K663" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L663" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M663" t="n">
-        <v>10490</v>
+        <v>7250</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="Q663" t="n">
         <v>25</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48161,33 +48161,33 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J664" t="n">
         <v>250</v>
       </c>
       <c r="K664" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L664" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M664" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="Q664" t="n">
         <v>25</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="K665" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L665" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M665" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q665" t="n">
         <v>25</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48305,24 +48305,24 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K666" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L666" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M666" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="Q666" t="n">
         <v>25</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>160</v>
+        <v>490</v>
       </c>
       <c r="K667" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L667" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M667" t="n">
-        <v>7000</v>
+        <v>10490</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="Q667" t="n">
         <v>25</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K668" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L668" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M668" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="Q668" t="n">
         <v>25</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K669" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L669" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M669" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q669" t="n">
         <v>25</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48588,25 +48588,25 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K670" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L670" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M670" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q670" t="n">
         <v>25</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48660,25 +48660,25 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K671" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L671" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q671" t="n">
         <v>25</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48732,38 +48732,38 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="K672" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L672" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M672" t="n">
-        <v>12417</v>
+        <v>10000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>497</v>
+        <v>400</v>
       </c>
       <c r="Q672" t="n">
         <v>25</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K673" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L673" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M673" t="n">
-        <v>13333</v>
+        <v>8000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>533</v>
+        <v>320</v>
       </c>
       <c r="Q673" t="n">
         <v>25</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J674" t="n">
         <v>340</v>
       </c>
       <c r="K674" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L674" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M674" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="Q674" t="n">
         <v>25</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48948,25 +48948,25 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K675" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L675" t="n">
         <v>8000</v>
       </c>
-      <c r="L675" t="n">
-        <v>9000</v>
-      </c>
       <c r="M675" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q675" t="n">
         <v>25</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49020,38 +49020,38 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="K676" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L676" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M676" t="n">
-        <v>9500</v>
+        <v>12417</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>380</v>
+        <v>497</v>
       </c>
       <c r="Q676" t="n">
         <v>25</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="K677" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L677" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M677" t="n">
-        <v>7496</v>
+        <v>13333</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>300</v>
+        <v>533</v>
       </c>
       <c r="Q677" t="n">
         <v>25</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K678" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L678" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M678" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="Q678" t="n">
         <v>25</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K679" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L679" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M679" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="Q679" t="n">
         <v>25</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K680" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L680" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M680" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q680" t="n">
         <v>25</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="K681" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L681" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M681" t="n">
-        <v>6250</v>
+        <v>7496</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q681" t="n">
         <v>25</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,38 +49452,38 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K682" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L682" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M682" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="Q682" t="n">
         <v>25</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,38 +49524,38 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K683" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L683" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M683" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q683" t="n">
         <v>25</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49596,38 +49596,38 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J684" t="n">
         <v>340</v>
       </c>
       <c r="K684" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L684" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M684" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q684" t="n">
         <v>25</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49668,38 +49668,38 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K685" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L685" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M685" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q685" t="n">
         <v>25</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49740,25 +49740,25 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K686" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L686" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M686" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q686" t="n">
         <v>25</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49824,13 +49824,13 @@
         <v>430</v>
       </c>
       <c r="K687" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L687" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M687" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="Q687" t="n">
         <v>25</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K688" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L688" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M688" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q688" t="n">
         <v>25</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J689" t="n">
         <v>340</v>
       </c>
       <c r="K689" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L689" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M689" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="Q689" t="n">
         <v>25</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K690" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L690" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M690" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="Q690" t="n">
         <v>25</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K691" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L691" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M691" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q691" t="n">
         <v>25</v>
@@ -50172,43 +50172,331 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J692" t="n">
+        <v>250</v>
+      </c>
+      <c r="K692" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L692" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M692" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N692" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O692" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P692" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q692" t="n">
+        <v>25</v>
+      </c>
+      <c r="R692" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>9</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D693" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E693" t="n">
+        <v>13</v>
+      </c>
+      <c r="F693" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>1a (nueva lavada)</t>
+        </is>
+      </c>
+      <c r="J693" t="n">
+        <v>340</v>
+      </c>
+      <c r="K693" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L693" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M693" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N693" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O693" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P693" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q693" t="n">
+        <v>25</v>
+      </c>
+      <c r="R693" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>9</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D694" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E694" t="n">
+        <v>13</v>
+      </c>
+      <c r="F694" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J694" t="n">
+        <v>160</v>
+      </c>
+      <c r="K694" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L694" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M694" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N694" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O694" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P694" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q694" t="n">
+        <v>25</v>
+      </c>
+      <c r="R694" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>9</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D695" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E695" t="n">
+        <v>13</v>
+      </c>
+      <c r="F695" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
           <t>Rodeo</t>
         </is>
       </c>
-      <c r="I692" t="inlineStr">
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>1a (guarda lavada)</t>
+        </is>
+      </c>
+      <c r="J695" t="n">
+        <v>340</v>
+      </c>
+      <c r="K695" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L695" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M695" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N695" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O695" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P695" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q695" t="n">
+        <v>25</v>
+      </c>
+      <c r="R695" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>9</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D696" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E696" t="n">
+        <v>13</v>
+      </c>
+      <c r="F696" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J692" t="n">
+      <c r="J696" t="n">
         <v>196</v>
       </c>
-      <c r="K692" t="n">
+      <c r="K696" t="n">
         <v>7000</v>
       </c>
-      <c r="L692" t="n">
+      <c r="L696" t="n">
         <v>8000</v>
       </c>
-      <c r="M692" t="n">
+      <c r="M696" t="n">
         <v>7500</v>
       </c>
-      <c r="N692" t="inlineStr">
+      <c r="N696" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O692" t="inlineStr">
+      <c r="O696" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P692" t="n">
+      <c r="P696" t="n">
         <v>300</v>
       </c>
-      <c r="Q692" t="n">
-        <v>25</v>
-      </c>
-      <c r="R692" t="inlineStr">
+      <c r="Q696" t="n">
+        <v>25</v>
+      </c>
+      <c r="R696" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R709"/>
+  <dimension ref="A1:R713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K604" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L604" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M604" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q604" t="n">
         <v>25</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="K605" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L605" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M605" t="n">
-        <v>7250</v>
+        <v>9503</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q605" t="n">
         <v>25</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="K606" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L606" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M606" t="n">
-        <v>7250</v>
+        <v>10500</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="Q606" t="n">
         <v>25</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44052,7 +44052,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K607" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L607" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M607" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q607" t="n">
         <v>25</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K608" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L608" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M608" t="n">
-        <v>10000</v>
+        <v>8250</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q608" t="n">
         <v>25</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44196,7 +44196,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -44205,16 +44205,16 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K609" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L609" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M609" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44223,11 +44223,11 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q609" t="n">
         <v>25</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,38 +44268,38 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K610" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L610" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M610" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q610" t="n">
         <v>25</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44340,38 +44340,38 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J611" t="n">
         <v>250</v>
       </c>
       <c r="K611" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L611" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M611" t="n">
-        <v>10500</v>
+        <v>6250</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="Q611" t="n">
         <v>25</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44412,38 +44412,38 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>106</v>
+        <v>430</v>
       </c>
       <c r="K612" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L612" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M612" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="Q612" t="n">
         <v>25</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44484,38 +44484,38 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J613" t="n">
         <v>340</v>
       </c>
       <c r="K613" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L613" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M613" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="Q613" t="n">
         <v>25</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44556,25 +44556,25 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J614" t="n">
         <v>250</v>
       </c>
       <c r="K614" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L614" t="n">
         <v>8000</v>
       </c>
       <c r="M614" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q614" t="n">
         <v>25</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44628,38 +44628,38 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K615" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L615" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M615" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="Q615" t="n">
         <v>25</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44705,33 +44705,33 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K616" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L616" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M616" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q616" t="n">
         <v>25</v>
@@ -44772,38 +44772,38 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J617" t="n">
         <v>340</v>
       </c>
       <c r="K617" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L617" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M617" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q617" t="n">
         <v>25</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K618" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L618" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M618" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q618" t="n">
         <v>25</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44921,24 +44921,24 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="K619" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L619" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M619" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q619" t="n">
         <v>25</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44988,38 +44988,38 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="K620" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L620" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M620" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q620" t="n">
         <v>25</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45065,11 +45065,11 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K621" t="n">
         <v>6500</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45132,38 +45132,38 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K622" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L622" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M622" t="n">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="Q622" t="n">
         <v>25</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45209,24 +45209,24 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K623" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L623" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M623" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q623" t="n">
         <v>25</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,38 +45276,38 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="K624" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L624" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M624" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q624" t="n">
         <v>25</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45353,7 +45353,7 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J625" t="n">
@@ -45420,38 +45420,38 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K626" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L626" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M626" t="n">
-        <v>5000</v>
+        <v>8250</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Q626" t="n">
         <v>25</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45497,24 +45497,24 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K627" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L627" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M627" t="n">
-        <v>9500</v>
+        <v>7250</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="Q627" t="n">
         <v>25</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,38 +45564,38 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="K628" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L628" t="n">
         <v>8000</v>
       </c>
       <c r="M628" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q628" t="n">
         <v>25</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45641,24 +45641,24 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K629" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L629" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M629" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q629" t="n">
         <v>25</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="K630" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L630" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M630" t="n">
-        <v>6498</v>
+        <v>5000</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q630" t="n">
         <v>25</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K631" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L631" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M631" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q631" t="n">
         <v>25</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>430</v>
+        <v>232</v>
       </c>
       <c r="K632" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L632" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M632" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q632" t="n">
         <v>25</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45924,25 +45924,25 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K633" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L633" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M633" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q633" t="n">
         <v>25</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -45996,38 +45996,38 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>430</v>
+        <v>295</v>
       </c>
       <c r="K634" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L634" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M634" t="n">
-        <v>7750</v>
+        <v>6498</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q634" t="n">
         <v>25</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46073,24 +46073,24 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K635" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L635" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M635" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q635" t="n">
         <v>25</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K636" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L636" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M636" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="Q636" t="n">
         <v>25</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46212,25 +46212,25 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K637" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L637" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M637" t="n">
-        <v>7250</v>
+        <v>11000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="Q637" t="n">
         <v>25</v>
@@ -46284,38 +46284,38 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K638" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L638" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M638" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q638" t="n">
         <v>25</v>
@@ -46356,25 +46356,25 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K639" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L639" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M639" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q639" t="n">
         <v>25</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46433,24 +46433,24 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K640" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L640" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M640" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="Q640" t="n">
         <v>25</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46500,38 +46500,38 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K641" t="n">
         <v>7000</v>
       </c>
       <c r="L641" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M641" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q641" t="n">
         <v>25</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46572,38 +46572,38 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J642" t="n">
         <v>250</v>
       </c>
       <c r="K642" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L642" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M642" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="Q642" t="n">
         <v>25</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46644,25 +46644,25 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K643" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L643" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M643" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q643" t="n">
         <v>25</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J644" t="n">
         <v>430</v>
       </c>
       <c r="K644" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L644" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M644" t="n">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="Q644" t="n">
         <v>25</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46788,25 +46788,25 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J645" t="n">
         <v>250</v>
       </c>
       <c r="K645" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L645" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M645" t="n">
-        <v>8250</v>
+        <v>7000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="Q645" t="n">
         <v>25</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46860,38 +46860,38 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K646" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L646" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M646" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="Q646" t="n">
         <v>25</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,38 +46932,38 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K647" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L647" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M647" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q647" t="n">
         <v>25</v>
@@ -47004,38 +47004,38 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K648" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L648" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M648" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q648" t="n">
         <v>25</v>
@@ -47076,25 +47076,25 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K649" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L649" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M649" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="Q649" t="n">
         <v>25</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47153,24 +47153,24 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K650" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L650" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M650" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="Q650" t="n">
         <v>25</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47220,38 +47220,38 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="K651" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L651" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M651" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="Q651" t="n">
         <v>25</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47292,38 +47292,38 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K652" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L652" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M652" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q652" t="n">
         <v>25</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47364,25 +47364,25 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="K653" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L653" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M653" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="Q653" t="n">
         <v>25</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47441,11 +47441,11 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="K654" t="n">
         <v>12000</v>
@@ -47454,7 +47454,7 @@
         <v>13000</v>
       </c>
       <c r="M654" t="n">
-        <v>12444</v>
+        <v>12500</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q654" t="n">
         <v>25</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="K655" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L655" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M655" t="n">
-        <v>12516</v>
+        <v>10500</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>501</v>
+        <v>420</v>
       </c>
       <c r="Q655" t="n">
         <v>25</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47580,38 +47580,38 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K656" t="n">
         <v>11000</v>
       </c>
       <c r="L656" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M656" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="Q656" t="n">
         <v>25</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="K657" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L657" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M657" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="Q657" t="n">
         <v>25</v>
@@ -47729,33 +47729,33 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K658" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L658" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M658" t="n">
-        <v>9000</v>
+        <v>12444</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>360</v>
+        <v>498</v>
       </c>
       <c r="Q658" t="n">
         <v>25</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>570</v>
+        <v>310</v>
       </c>
       <c r="K659" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L659" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M659" t="n">
-        <v>11596</v>
+        <v>12516</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="Q659" t="n">
         <v>25</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47873,24 +47873,24 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K660" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L660" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M660" t="n">
-        <v>7750</v>
+        <v>11000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="Q660" t="n">
         <v>25</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K661" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L661" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M661" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q661" t="n">
         <v>25</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K662" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L662" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M662" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q662" t="n">
         <v>25</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48084,38 +48084,38 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>250</v>
+        <v>570</v>
       </c>
       <c r="K663" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L663" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M663" t="n">
-        <v>8500</v>
+        <v>11596</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>340</v>
+        <v>464</v>
       </c>
       <c r="Q663" t="n">
         <v>25</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48156,38 +48156,38 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K664" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L664" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M664" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q664" t="n">
         <v>25</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48228,38 +48228,38 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K665" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L665" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M665" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q665" t="n">
         <v>25</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,7 +48309,7 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K666" t="n">
         <v>6500</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48377,33 +48377,33 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K667" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L667" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M667" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q667" t="n">
         <v>25</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48444,38 +48444,38 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K668" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L668" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M668" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q668" t="n">
         <v>25</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48516,38 +48516,38 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K669" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L669" t="n">
         <v>8000</v>
       </c>
       <c r="M669" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q669" t="n">
         <v>25</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48600,13 +48600,13 @@
         <v>250</v>
       </c>
       <c r="K670" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L670" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M670" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q670" t="n">
         <v>25</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48660,38 +48660,38 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K671" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L671" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q671" t="n">
         <v>25</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48732,38 +48732,38 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K672" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L672" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M672" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q672" t="n">
         <v>25</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K673" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L673" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M673" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q673" t="n">
         <v>25</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,38 +48876,38 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J674" t="n">
         <v>250</v>
       </c>
       <c r="K674" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L674" t="n">
         <v>8000</v>
       </c>
       <c r="M674" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q674" t="n">
         <v>25</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48953,24 +48953,24 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K675" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L675" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M675" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q675" t="n">
         <v>25</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49020,38 +49020,38 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K676" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L676" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M676" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q676" t="n">
         <v>25</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K677" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L677" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M677" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q677" t="n">
         <v>25</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49164,12 +49164,12 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J678" t="n">
@@ -49186,12 +49186,12 @@
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P678" t="n">
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49236,25 +49236,25 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K679" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L679" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M679" t="n">
-        <v>9526</v>
+        <v>7000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="Q679" t="n">
         <v>25</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49308,25 +49308,25 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K680" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L680" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M680" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="Q680" t="n">
         <v>25</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J681" t="n">
         <v>250</v>
       </c>
       <c r="K681" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L681" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M681" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q681" t="n">
         <v>25</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,38 +49452,38 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K682" t="n">
         <v>8000</v>
       </c>
       <c r="L682" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M682" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q682" t="n">
         <v>25</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,16 +49533,16 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K683" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L683" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M683" t="n">
-        <v>7250</v>
+        <v>9526</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="Q683" t="n">
         <v>25</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49596,38 +49596,38 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K684" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L684" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M684" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q684" t="n">
         <v>25</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49668,16 +49668,16 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K685" t="n">
         <v>7000</v>
@@ -49690,12 +49690,12 @@
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P685" t="n">
@@ -49740,38 +49740,38 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K686" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L686" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M686" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q686" t="n">
         <v>25</v>
@@ -49812,25 +49812,25 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K687" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L687" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M687" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q687" t="n">
         <v>25</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49889,24 +49889,24 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K688" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L688" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M688" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q688" t="n">
         <v>25</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,38 +49956,38 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K689" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L689" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M689" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q689" t="n">
         <v>25</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50028,25 +50028,25 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J690" t="n">
         <v>250</v>
       </c>
       <c r="K690" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L690" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M690" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q690" t="n">
         <v>25</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,38 +50100,38 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K691" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L691" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M691" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="Q691" t="n">
         <v>25</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50172,38 +50172,38 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K692" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L692" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M692" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="Q692" t="n">
         <v>25</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50244,38 +50244,38 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K693" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L693" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M693" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q693" t="n">
         <v>25</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K694" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L694" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M694" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="Q694" t="n">
         <v>25</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50388,38 +50388,38 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K695" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L695" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M695" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q695" t="n">
         <v>25</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50460,38 +50460,38 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K696" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L696" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M696" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q696" t="n">
         <v>25</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50537,24 +50537,24 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K697" t="n">
         <v>9000</v>
       </c>
       <c r="L697" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M697" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q697" t="n">
         <v>25</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50609,24 +50609,24 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K698" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L698" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M698" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="Q698" t="n">
         <v>25</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50681,20 +50681,20 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K699" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L699" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M699" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="Q699" t="n">
         <v>25</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50760,13 +50760,13 @@
         <v>340</v>
       </c>
       <c r="K700" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L700" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M700" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q700" t="n">
         <v>25</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K701" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L701" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M701" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q701" t="n">
         <v>25</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50897,24 +50897,24 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J702" t="n">
         <v>250</v>
       </c>
       <c r="K702" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L702" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M702" t="n">
-        <v>7250</v>
+        <v>10500</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="Q702" t="n">
         <v>25</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50964,25 +50964,25 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="K703" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L703" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M703" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q703" t="n">
         <v>25</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51041,33 +51041,33 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K704" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L704" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M704" t="n">
-        <v>10763</v>
+        <v>8250</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>431</v>
+        <v>330</v>
       </c>
       <c r="Q704" t="n">
         <v>25</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,25 +51108,25 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K705" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L705" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M705" t="n">
-        <v>9000</v>
+        <v>7250</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Q705" t="n">
         <v>25</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51180,38 +51180,38 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K706" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L706" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M706" t="n">
-        <v>12500</v>
+        <v>7250</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="Q706" t="n">
         <v>25</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51257,20 +51257,20 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="K707" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L707" t="n">
         <v>11000</v>
       </c>
       <c r="M707" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="Q707" t="n">
         <v>25</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51324,38 +51324,38 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="K708" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L708" t="n">
         <v>11000</v>
       </c>
-      <c r="L708" t="n">
-        <v>12000</v>
-      </c>
       <c r="M708" t="n">
-        <v>11500</v>
+        <v>10763</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="Q708" t="n">
         <v>25</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51396,43 +51396,331 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="K709" t="n">
         <v>9000</v>
       </c>
       <c r="L709" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M709" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N709" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O709" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P709" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q709" t="n">
+        <v>25</v>
+      </c>
+      <c r="R709" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>9</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D710" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E710" t="n">
+        <v>13</v>
+      </c>
+      <c r="F710" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>1a (cosecha lavada)</t>
+        </is>
+      </c>
+      <c r="J710" t="n">
+        <v>340</v>
+      </c>
+      <c r="K710" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L710" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M710" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N710" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O710" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P710" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q710" t="n">
+        <v>25</v>
+      </c>
+      <c r="R710" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>9</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D711" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E711" t="n">
+        <v>13</v>
+      </c>
+      <c r="F711" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J711" t="n">
+        <v>196</v>
+      </c>
+      <c r="K711" t="n">
         <v>10000</v>
       </c>
-      <c r="M709" t="n">
+      <c r="L711" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M711" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N711" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O711" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P711" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q711" t="n">
+        <v>25</v>
+      </c>
+      <c r="R711" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>9</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D712" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E712" t="n">
+        <v>13</v>
+      </c>
+      <c r="F712" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>1a (guarda lavada)</t>
+        </is>
+      </c>
+      <c r="J712" t="n">
+        <v>430</v>
+      </c>
+      <c r="K712" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L712" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M712" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N712" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O712" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P712" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q712" t="n">
+        <v>25</v>
+      </c>
+      <c r="R712" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>9</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D713" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E713" t="n">
+        <v>13</v>
+      </c>
+      <c r="F713" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J713" t="n">
+        <v>210</v>
+      </c>
+      <c r="K713" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L713" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M713" t="n">
         <v>9500</v>
       </c>
-      <c r="N709" t="inlineStr">
+      <c r="N713" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O709" t="inlineStr">
+      <c r="O713" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P709" t="n">
+      <c r="P713" t="n">
         <v>380</v>
       </c>
-      <c r="Q709" t="n">
-        <v>25</v>
-      </c>
-      <c r="R709" t="inlineStr">
+      <c r="Q713" t="n">
+        <v>25</v>
+      </c>
+      <c r="R713" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R713"/>
+  <dimension ref="A1:R717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K615" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L615" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M615" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q615" t="n">
         <v>25</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44700,25 +44700,25 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="K616" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L616" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M616" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q616" t="n">
         <v>25</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,25 +44772,25 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K617" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L617" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M617" t="n">
-        <v>8750</v>
+        <v>10554</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>350</v>
+        <v>422</v>
       </c>
       <c r="Q617" t="n">
         <v>25</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K618" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L618" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M618" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q618" t="n">
         <v>25</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44916,38 +44916,38 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K619" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L619" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M619" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="Q619" t="n">
         <v>25</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44993,33 +44993,33 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K620" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L620" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M620" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q620" t="n">
         <v>25</v>
@@ -45060,38 +45060,38 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J621" t="n">
         <v>340</v>
       </c>
       <c r="K621" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L621" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M621" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q621" t="n">
         <v>25</v>
@@ -45132,25 +45132,25 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K622" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L622" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M622" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q622" t="n">
         <v>25</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45209,24 +45209,24 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="K623" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L623" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M623" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q623" t="n">
         <v>25</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,38 +45276,38 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="K624" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L624" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M624" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q624" t="n">
         <v>25</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45353,11 +45353,11 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K625" t="n">
         <v>6500</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45420,38 +45420,38 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K626" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L626" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M626" t="n">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="Q626" t="n">
         <v>25</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45497,24 +45497,24 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K627" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L627" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M627" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q627" t="n">
         <v>25</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,38 +45564,38 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="K628" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L628" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M628" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q628" t="n">
         <v>25</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45641,7 +45641,7 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J629" t="n">
@@ -45708,38 +45708,38 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K630" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L630" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M630" t="n">
-        <v>5000</v>
+        <v>8250</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Q630" t="n">
         <v>25</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45785,24 +45785,24 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K631" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L631" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M631" t="n">
-        <v>9500</v>
+        <v>7250</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="Q631" t="n">
         <v>25</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45852,38 +45852,38 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="K632" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L632" t="n">
         <v>8000</v>
       </c>
       <c r="M632" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q632" t="n">
         <v>25</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45929,24 +45929,24 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K633" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L633" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M633" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q633" t="n">
         <v>25</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="K634" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L634" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M634" t="n">
-        <v>6498</v>
+        <v>5000</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q634" t="n">
         <v>25</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K635" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L635" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M635" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q635" t="n">
         <v>25</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>430</v>
+        <v>232</v>
       </c>
       <c r="K636" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L636" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M636" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q636" t="n">
         <v>25</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46212,25 +46212,25 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K637" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L637" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M637" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q637" t="n">
         <v>25</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46284,38 +46284,38 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>430</v>
+        <v>295</v>
       </c>
       <c r="K638" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L638" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M638" t="n">
-        <v>7750</v>
+        <v>6498</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q638" t="n">
         <v>25</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46361,24 +46361,24 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K639" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L639" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M639" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q639" t="n">
         <v>25</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K640" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L640" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M640" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="Q640" t="n">
         <v>25</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46500,25 +46500,25 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K641" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L641" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M641" t="n">
-        <v>7250</v>
+        <v>11000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="Q641" t="n">
         <v>25</v>
@@ -46572,38 +46572,38 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K642" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L642" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M642" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q642" t="n">
         <v>25</v>
@@ -46644,25 +46644,25 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K643" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L643" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M643" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q643" t="n">
         <v>25</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K644" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L644" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M644" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="Q644" t="n">
         <v>25</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46788,38 +46788,38 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K645" t="n">
         <v>7000</v>
       </c>
       <c r="L645" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M645" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q645" t="n">
         <v>25</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46860,38 +46860,38 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J646" t="n">
         <v>250</v>
       </c>
       <c r="K646" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L646" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M646" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="Q646" t="n">
         <v>25</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,25 +46932,25 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K647" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L647" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M647" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q647" t="n">
         <v>25</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J648" t="n">
         <v>430</v>
       </c>
       <c r="K648" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L648" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M648" t="n">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="Q648" t="n">
         <v>25</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47076,25 +47076,25 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J649" t="n">
         <v>250</v>
       </c>
       <c r="K649" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L649" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M649" t="n">
-        <v>8250</v>
+        <v>7000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="Q649" t="n">
         <v>25</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47148,38 +47148,38 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K650" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L650" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M650" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="Q650" t="n">
         <v>25</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47220,38 +47220,38 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K651" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L651" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M651" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q651" t="n">
         <v>25</v>
@@ -47292,38 +47292,38 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K652" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L652" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M652" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q652" t="n">
         <v>25</v>
@@ -47364,25 +47364,25 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K653" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L653" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M653" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="Q653" t="n">
         <v>25</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47441,24 +47441,24 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K654" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L654" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M654" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="Q654" t="n">
         <v>25</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47508,38 +47508,38 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="K655" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L655" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M655" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="Q655" t="n">
         <v>25</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47580,38 +47580,38 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K656" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L656" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M656" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q656" t="n">
         <v>25</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="K657" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L657" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M657" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="Q657" t="n">
         <v>25</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47729,11 +47729,11 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="K658" t="n">
         <v>12000</v>
@@ -47742,7 +47742,7 @@
         <v>13000</v>
       </c>
       <c r="M658" t="n">
-        <v>12444</v>
+        <v>12500</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q658" t="n">
         <v>25</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="K659" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L659" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M659" t="n">
-        <v>12516</v>
+        <v>10500</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>501</v>
+        <v>420</v>
       </c>
       <c r="Q659" t="n">
         <v>25</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47868,38 +47868,38 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K660" t="n">
         <v>11000</v>
       </c>
       <c r="L660" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M660" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="Q660" t="n">
         <v>25</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="K661" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L661" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M661" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="Q661" t="n">
         <v>25</v>
@@ -48017,33 +48017,33 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K662" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L662" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M662" t="n">
-        <v>9000</v>
+        <v>12444</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>360</v>
+        <v>498</v>
       </c>
       <c r="Q662" t="n">
         <v>25</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>570</v>
+        <v>310</v>
       </c>
       <c r="K663" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L663" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M663" t="n">
-        <v>11596</v>
+        <v>12516</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="Q663" t="n">
         <v>25</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48161,24 +48161,24 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K664" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L664" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M664" t="n">
-        <v>7750</v>
+        <v>11000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O664" t="inlineStr">
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="Q664" t="n">
         <v>25</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48228,25 +48228,25 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K665" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L665" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M665" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q665" t="n">
         <v>25</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K666" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L666" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M666" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q666" t="n">
         <v>25</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48372,38 +48372,38 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>250</v>
+        <v>570</v>
       </c>
       <c r="K667" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L667" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M667" t="n">
-        <v>8500</v>
+        <v>11596</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>340</v>
+        <v>464</v>
       </c>
       <c r="Q667" t="n">
         <v>25</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48444,38 +48444,38 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K668" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L668" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M668" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q668" t="n">
         <v>25</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48516,38 +48516,38 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K669" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L669" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M669" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q669" t="n">
         <v>25</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,7 +48597,7 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K670" t="n">
         <v>6500</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48665,33 +48665,33 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K671" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L671" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M671" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q671" t="n">
         <v>25</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48732,38 +48732,38 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K672" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L672" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M672" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q672" t="n">
         <v>25</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,38 +48804,38 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K673" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L673" t="n">
         <v>8000</v>
       </c>
       <c r="M673" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q673" t="n">
         <v>25</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48888,13 +48888,13 @@
         <v>250</v>
       </c>
       <c r="K674" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L674" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M674" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q674" t="n">
         <v>25</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48948,38 +48948,38 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K675" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L675" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M675" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q675" t="n">
         <v>25</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49020,38 +49020,38 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K676" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L676" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M676" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q676" t="n">
         <v>25</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K677" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L677" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M677" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q677" t="n">
         <v>25</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49164,38 +49164,38 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J678" t="n">
         <v>250</v>
       </c>
       <c r="K678" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L678" t="n">
         <v>8000</v>
       </c>
       <c r="M678" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q678" t="n">
         <v>25</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49241,24 +49241,24 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K679" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L679" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M679" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q679" t="n">
         <v>25</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49308,38 +49308,38 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K680" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L680" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q680" t="n">
         <v>25</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K681" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L681" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M681" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q681" t="n">
         <v>25</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,12 +49452,12 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J682" t="n">
@@ -49474,12 +49474,12 @@
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P682" t="n">
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,25 +49524,25 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K683" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L683" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M683" t="n">
-        <v>9526</v>
+        <v>7000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="Q683" t="n">
         <v>25</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49596,25 +49596,25 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K684" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L684" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M684" t="n">
-        <v>8250</v>
+        <v>9000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="Q684" t="n">
         <v>25</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49668,25 +49668,25 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J685" t="n">
         <v>250</v>
       </c>
       <c r="K685" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L685" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M685" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q685" t="n">
         <v>25</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49740,38 +49740,38 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K686" t="n">
         <v>8000</v>
       </c>
       <c r="L686" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M686" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q686" t="n">
         <v>25</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49812,7 +49812,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K687" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L687" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M687" t="n">
-        <v>7250</v>
+        <v>9526</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="Q687" t="n">
         <v>25</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49884,38 +49884,38 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K688" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L688" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M688" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q688" t="n">
         <v>25</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,16 +49956,16 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K689" t="n">
         <v>7000</v>
@@ -49978,12 +49978,12 @@
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P689" t="n">
@@ -50028,38 +50028,38 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K690" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L690" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M690" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q690" t="n">
         <v>25</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K691" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L691" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M691" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q691" t="n">
         <v>25</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50177,24 +50177,24 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K692" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L692" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M692" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q692" t="n">
         <v>25</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50244,38 +50244,38 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K693" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L693" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M693" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q693" t="n">
         <v>25</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50316,25 +50316,25 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J694" t="n">
         <v>250</v>
       </c>
       <c r="K694" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L694" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M694" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q694" t="n">
         <v>25</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50388,38 +50388,38 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K695" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L695" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M695" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="Q695" t="n">
         <v>25</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50460,38 +50460,38 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K696" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L696" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M696" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="Q696" t="n">
         <v>25</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50532,38 +50532,38 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K697" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L697" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M697" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q697" t="n">
         <v>25</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50613,16 +50613,16 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K698" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L698" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M698" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="Q698" t="n">
         <v>25</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50676,38 +50676,38 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K699" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L699" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M699" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q699" t="n">
         <v>25</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50748,38 +50748,38 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K700" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L700" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M700" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q700" t="n">
         <v>25</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50825,24 +50825,24 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K701" t="n">
         <v>9000</v>
       </c>
       <c r="L701" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M701" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q701" t="n">
         <v>25</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50897,24 +50897,24 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K702" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L702" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M702" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="Q702" t="n">
         <v>25</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K703" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L703" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M703" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="Q703" t="n">
         <v>25</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51048,13 +51048,13 @@
         <v>340</v>
       </c>
       <c r="K704" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L704" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M704" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q704" t="n">
         <v>25</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,16 +51117,16 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K705" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L705" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M705" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q705" t="n">
         <v>25</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51185,24 +51185,24 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J706" t="n">
         <v>250</v>
       </c>
       <c r="K706" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L706" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M706" t="n">
-        <v>7250</v>
+        <v>10500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="Q706" t="n">
         <v>25</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51252,25 +51252,25 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="K707" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L707" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M707" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q707" t="n">
         <v>25</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51329,33 +51329,33 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K708" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L708" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M708" t="n">
-        <v>10763</v>
+        <v>8250</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>431</v>
+        <v>330</v>
       </c>
       <c r="Q708" t="n">
         <v>25</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51396,25 +51396,25 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K709" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L709" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M709" t="n">
-        <v>9000</v>
+        <v>7250</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Q709" t="n">
         <v>25</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51468,38 +51468,38 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K710" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L710" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M710" t="n">
-        <v>12500</v>
+        <v>7250</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="Q710" t="n">
         <v>25</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="K711" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L711" t="n">
         <v>11000</v>
       </c>
       <c r="M711" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="Q711" t="n">
         <v>25</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,38 +51612,38 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="K712" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L712" t="n">
         <v>11000</v>
       </c>
-      <c r="L712" t="n">
-        <v>12000</v>
-      </c>
       <c r="M712" t="n">
-        <v>11500</v>
+        <v>10763</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="Q712" t="n">
         <v>25</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51684,43 +51684,331 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="K713" t="n">
         <v>9000</v>
       </c>
       <c r="L713" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M713" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N713" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O713" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P713" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q713" t="n">
+        <v>25</v>
+      </c>
+      <c r="R713" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>9</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D714" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E714" t="n">
+        <v>13</v>
+      </c>
+      <c r="F714" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>1a (cosecha lavada)</t>
+        </is>
+      </c>
+      <c r="J714" t="n">
+        <v>340</v>
+      </c>
+      <c r="K714" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L714" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M714" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N714" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O714" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P714" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>25</v>
+      </c>
+      <c r="R714" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>9</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D715" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E715" t="n">
+        <v>13</v>
+      </c>
+      <c r="F715" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J715" t="n">
+        <v>196</v>
+      </c>
+      <c r="K715" t="n">
         <v>10000</v>
       </c>
-      <c r="M713" t="n">
+      <c r="L715" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M715" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N715" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O715" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P715" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q715" t="n">
+        <v>25</v>
+      </c>
+      <c r="R715" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>9</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D716" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E716" t="n">
+        <v>13</v>
+      </c>
+      <c r="F716" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>1a (guarda lavada)</t>
+        </is>
+      </c>
+      <c r="J716" t="n">
+        <v>430</v>
+      </c>
+      <c r="K716" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L716" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M716" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N716" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O716" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P716" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q716" t="n">
+        <v>25</v>
+      </c>
+      <c r="R716" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>9</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D717" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E717" t="n">
+        <v>13</v>
+      </c>
+      <c r="F717" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J717" t="n">
+        <v>210</v>
+      </c>
+      <c r="K717" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L717" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M717" t="n">
         <v>9500</v>
       </c>
-      <c r="N713" t="inlineStr">
+      <c r="N717" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O713" t="inlineStr">
+      <c r="O717" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P713" t="n">
+      <c r="P717" t="n">
         <v>380</v>
       </c>
-      <c r="Q713" t="n">
-        <v>25</v>
-      </c>
-      <c r="R713" t="inlineStr">
+      <c r="Q717" t="n">
+        <v>25</v>
+      </c>
+      <c r="R717" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R720"/>
+  <dimension ref="A1:R722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J691" t="n">
         <v>340</v>
       </c>
       <c r="K691" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L691" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M691" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q691" t="n">
         <v>25</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50172,25 +50172,25 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K692" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L692" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M692" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50199,11 +50199,11 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q692" t="n">
         <v>25</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50244,16 +50244,16 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K693" t="n">
         <v>8000</v>
@@ -50271,7 +50271,7 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P693" t="n">
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50316,16 +50316,16 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K694" t="n">
         <v>7000</v>
@@ -50343,7 +50343,7 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P694" t="n">
@@ -50393,24 +50393,24 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K695" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L695" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M695" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q695" t="n">
         <v>25</v>
@@ -50460,12 +50460,12 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J696" t="n">
@@ -50482,12 +50482,12 @@
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P696" t="n">
@@ -50532,25 +50532,25 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K697" t="n">
         <v>6000</v>
       </c>
       <c r="L697" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M697" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q697" t="n">
         <v>25</v>
@@ -50609,24 +50609,24 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K698" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L698" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M698" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q698" t="n">
         <v>25</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50676,38 +50676,38 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K699" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L699" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M699" t="n">
-        <v>10000</v>
+        <v>6250</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q699" t="n">
         <v>25</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50748,25 +50748,25 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K700" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L700" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M700" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q700" t="n">
         <v>25</v>
@@ -50820,38 +50820,38 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K701" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L701" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M701" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q701" t="n">
         <v>25</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50892,38 +50892,38 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K702" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L702" t="n">
         <v>8000</v>
       </c>
       <c r="M702" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q702" t="n">
         <v>25</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K703" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L703" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M703" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q703" t="n">
         <v>25</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51045,16 +51045,16 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K704" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L704" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M704" t="n">
-        <v>9000</v>
+        <v>7750</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="Q704" t="n">
         <v>25</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J705" t="n">
         <v>160</v>
       </c>
       <c r="K705" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L705" t="n">
         <v>7000</v>
       </c>
       <c r="M705" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q705" t="n">
         <v>25</v>
@@ -51180,38 +51180,38 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K706" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L706" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M706" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="Q706" t="n">
         <v>25</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51252,38 +51252,38 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K707" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L707" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M707" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="Q707" t="n">
         <v>25</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51324,25 +51324,25 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K708" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L708" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M708" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="Q708" t="n">
         <v>25</v>
@@ -51396,25 +51396,25 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K709" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L709" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M709" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q709" t="n">
         <v>25</v>
@@ -51468,25 +51468,25 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K710" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L710" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M710" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q710" t="n">
         <v>25</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K711" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L711" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="M711" t="n">
-        <v>8250</v>
+        <v>10500</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="Q711" t="n">
         <v>25</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K712" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L712" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M712" t="n">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="Q712" t="n">
         <v>25</v>
@@ -51684,38 +51684,38 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K713" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L713" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M713" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="Q713" t="n">
         <v>25</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51756,25 +51756,25 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K714" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L714" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M714" t="n">
-        <v>11000</v>
+        <v>7250</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="Q714" t="n">
         <v>25</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K715" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L715" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M715" t="n">
-        <v>10763</v>
+        <v>7250</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>431</v>
+        <v>290</v>
       </c>
       <c r="Q715" t="n">
         <v>25</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K716" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L716" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M716" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="Q716" t="n">
         <v>25</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51977,33 +51977,33 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K717" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L717" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M717" t="n">
-        <v>12500</v>
+        <v>10763</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="Q717" t="n">
         <v>25</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52049,20 +52049,20 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="K718" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L718" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M718" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="Q718" t="n">
         <v>25</v>
@@ -52116,25 +52116,25 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K719" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L719" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M719" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="Q719" t="n">
         <v>25</v>
@@ -52188,43 +52188,187 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J720" t="n">
+        <v>196</v>
+      </c>
+      <c r="K720" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L720" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M720" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N720" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O720" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P720" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q720" t="n">
+        <v>25</v>
+      </c>
+      <c r="R720" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>9</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D721" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E721" t="n">
+        <v>13</v>
+      </c>
+      <c r="F721" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
           <t>Rodeo</t>
         </is>
       </c>
-      <c r="I720" t="inlineStr">
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>1a (guarda lavada)</t>
+        </is>
+      </c>
+      <c r="J721" t="n">
+        <v>430</v>
+      </c>
+      <c r="K721" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L721" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M721" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N721" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O721" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P721" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>25</v>
+      </c>
+      <c r="R721" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>9</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D722" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E722" t="n">
+        <v>13</v>
+      </c>
+      <c r="F722" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J720" t="n">
+      <c r="J722" t="n">
         <v>210</v>
       </c>
-      <c r="K720" t="n">
+      <c r="K722" t="n">
         <v>9000</v>
       </c>
-      <c r="L720" t="n">
+      <c r="L722" t="n">
         <v>10000</v>
       </c>
-      <c r="M720" t="n">
+      <c r="M722" t="n">
         <v>9500</v>
       </c>
-      <c r="N720" t="inlineStr">
+      <c r="N722" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O720" t="inlineStr">
+      <c r="O722" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P720" t="n">
+      <c r="P722" t="n">
         <v>380</v>
       </c>
-      <c r="Q720" t="n">
-        <v>25</v>
-      </c>
-      <c r="R720" t="inlineStr">
+      <c r="Q722" t="n">
+        <v>25</v>
+      </c>
+      <c r="R722" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R726"/>
+  <dimension ref="A1:R730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J588" t="n">
         <v>340</v>
       </c>
       <c r="K588" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L588" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M588" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q588" t="n">
         <v>25</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42756,25 +42756,25 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J589" t="n">
         <v>160</v>
       </c>
       <c r="K589" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L589" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M589" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42783,11 +42783,11 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q589" t="n">
         <v>25</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42828,38 +42828,38 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J590" t="n">
         <v>250</v>
       </c>
       <c r="K590" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L590" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M590" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q590" t="n">
         <v>25</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42900,29 +42900,29 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K591" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L591" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M591" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q591" t="n">
         <v>25</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42977,24 +42977,24 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K592" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L592" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M592" t="n">
-        <v>10000</v>
+        <v>7750</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="Q592" t="n">
         <v>25</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K593" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L593" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M593" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q593" t="n">
         <v>25</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43116,7 +43116,7 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -43125,29 +43125,29 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K594" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L594" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M594" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q594" t="n">
         <v>25</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43193,24 +43193,24 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K595" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L595" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M595" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q595" t="n">
         <v>25</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43260,38 +43260,38 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K596" t="n">
         <v>10000</v>
       </c>
       <c r="L596" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M596" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Q596" t="n">
         <v>25</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43332,25 +43332,25 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K597" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L597" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M597" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q597" t="n">
         <v>25</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K598" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L598" t="n">
         <v>13000</v>
       </c>
       <c r="M598" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="Q598" t="n">
         <v>25</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43476,38 +43476,38 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K599" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L599" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M599" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="Q599" t="n">
         <v>25</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43548,38 +43548,38 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K600" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L600" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M600" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="Q600" t="n">
         <v>25</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43620,25 +43620,25 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="K601" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L601" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M601" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="Q601" t="n">
         <v>25</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="K602" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L602" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M602" t="n">
-        <v>8750</v>
+        <v>13000</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>350</v>
+        <v>520</v>
       </c>
       <c r="Q602" t="n">
         <v>25</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43764,38 +43764,38 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K603" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L603" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M603" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Q603" t="n">
         <v>25</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43836,25 +43836,25 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="K604" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L604" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M604" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="Q604" t="n">
         <v>25</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43908,38 +43908,38 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K605" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L605" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M605" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q605" t="n">
         <v>25</v>
@@ -43980,38 +43980,38 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K606" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L606" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M606" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q606" t="n">
         <v>25</v>
@@ -44052,25 +44052,25 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K607" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L607" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M607" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q607" t="n">
         <v>25</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="K608" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L608" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M608" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="Q608" t="n">
         <v>25</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44196,38 +44196,38 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K609" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L609" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M609" t="n">
-        <v>11000</v>
+        <v>7750</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>440</v>
+        <v>310</v>
       </c>
       <c r="Q609" t="n">
         <v>25</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,25 +44268,25 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K610" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L610" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M610" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q610" t="n">
         <v>25</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44340,38 +44340,38 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="K611" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L611" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M611" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="Q611" t="n">
         <v>25</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="K612" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L612" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M612" t="n">
-        <v>9503</v>
+        <v>12000</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="Q612" t="n">
         <v>25</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44484,38 +44484,38 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="K613" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L613" t="n">
         <v>11000</v>
       </c>
       <c r="M613" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="Q613" t="n">
         <v>25</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44556,25 +44556,25 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K614" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L614" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M614" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="Q614" t="n">
         <v>25</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K615" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L615" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M615" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q615" t="n">
         <v>25</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="K616" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L616" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M616" t="n">
-        <v>7250</v>
+        <v>9503</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q616" t="n">
         <v>25</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="K617" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L617" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M617" t="n">
-        <v>7250</v>
+        <v>10500</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="Q617" t="n">
         <v>25</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K618" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L618" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M618" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q618" t="n">
         <v>25</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K619" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L619" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M619" t="n">
-        <v>10000</v>
+        <v>8250</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q619" t="n">
         <v>25</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44988,7 +44988,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K620" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L620" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M620" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q620" t="n">
         <v>25</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45060,38 +45060,38 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K621" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L621" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M621" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q621" t="n">
         <v>25</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45132,38 +45132,38 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K622" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L622" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M622" t="n">
-        <v>11500</v>
+        <v>6250</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="Q622" t="n">
         <v>25</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45209,24 +45209,24 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>196</v>
+        <v>430</v>
       </c>
       <c r="K623" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L623" t="n">
         <v>10000</v>
       </c>
       <c r="M623" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="Q623" t="n">
         <v>25</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,29 +45276,29 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="K624" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L624" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M624" t="n">
-        <v>10554</v>
+        <v>8000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O624" t="inlineStr">
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>422</v>
+        <v>320</v>
       </c>
       <c r="Q624" t="n">
         <v>25</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45348,25 +45348,25 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K625" t="n">
         <v>8000</v>
       </c>
       <c r="L625" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M625" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q625" t="n">
         <v>25</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45420,25 +45420,25 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K626" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L626" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M626" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q626" t="n">
         <v>25</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45492,25 +45492,25 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="K627" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L627" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M627" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q627" t="n">
         <v>25</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K628" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L628" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M628" t="n">
-        <v>8750</v>
+        <v>10554</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>350</v>
+        <v>422</v>
       </c>
       <c r="Q628" t="n">
         <v>25</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45636,25 +45636,25 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K629" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L629" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M629" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q629" t="n">
         <v>25</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45708,38 +45708,38 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K630" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L630" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M630" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="Q630" t="n">
         <v>25</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45785,33 +45785,33 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K631" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L631" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M631" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Q631" t="n">
         <v>25</v>
@@ -45852,38 +45852,38 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J632" t="n">
         <v>340</v>
       </c>
       <c r="K632" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L632" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M632" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q632" t="n">
         <v>25</v>
@@ -45924,25 +45924,25 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K633" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L633" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M633" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q633" t="n">
         <v>25</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -46001,24 +46001,24 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="K634" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L634" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M634" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q634" t="n">
         <v>25</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46068,38 +46068,38 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="K635" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L635" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M635" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q635" t="n">
         <v>25</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46145,11 +46145,11 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K636" t="n">
         <v>6500</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46212,38 +46212,38 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K637" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L637" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M637" t="n">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="Q637" t="n">
         <v>25</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46289,24 +46289,24 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K638" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L638" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M638" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q638" t="n">
         <v>25</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46356,38 +46356,38 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="K639" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L639" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M639" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q639" t="n">
         <v>25</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46433,7 +46433,7 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J640" t="n">
@@ -46500,38 +46500,38 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K641" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L641" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M641" t="n">
-        <v>5000</v>
+        <v>8250</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Q641" t="n">
         <v>25</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46577,24 +46577,24 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K642" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L642" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M642" t="n">
-        <v>9500</v>
+        <v>7250</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="Q642" t="n">
         <v>25</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46644,38 +46644,38 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="K643" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L643" t="n">
         <v>8000</v>
       </c>
       <c r="M643" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q643" t="n">
         <v>25</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K644" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L644" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M644" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O644" t="inlineStr">
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q644" t="n">
         <v>25</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="K645" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L645" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M645" t="n">
-        <v>6498</v>
+        <v>5000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q645" t="n">
         <v>25</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K646" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L646" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M646" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q646" t="n">
         <v>25</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>430</v>
+        <v>232</v>
       </c>
       <c r="K647" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L647" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M647" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q647" t="n">
         <v>25</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47004,25 +47004,25 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K648" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L648" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M648" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q648" t="n">
         <v>25</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47076,38 +47076,38 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>430</v>
+        <v>295</v>
       </c>
       <c r="K649" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L649" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M649" t="n">
-        <v>7750</v>
+        <v>6498</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q649" t="n">
         <v>25</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47153,24 +47153,24 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K650" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L650" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M650" t="n">
-        <v>6750</v>
+        <v>11500</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="Q650" t="n">
         <v>25</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K651" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L651" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M651" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="Q651" t="n">
         <v>25</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47292,25 +47292,25 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K652" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L652" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M652" t="n">
-        <v>7250</v>
+        <v>11000</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47319,11 +47319,11 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="Q652" t="n">
         <v>25</v>
@@ -47364,38 +47364,38 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K653" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L653" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M653" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q653" t="n">
         <v>25</v>
@@ -47436,25 +47436,25 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K654" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L654" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M654" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q654" t="n">
         <v>25</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,24 +47513,24 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K655" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L655" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M655" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="Q655" t="n">
         <v>25</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47580,38 +47580,38 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K656" t="n">
         <v>7000</v>
       </c>
       <c r="L656" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M656" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q656" t="n">
         <v>25</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47652,38 +47652,38 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J657" t="n">
         <v>250</v>
       </c>
       <c r="K657" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L657" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M657" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="Q657" t="n">
         <v>25</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K658" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L658" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M658" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q658" t="n">
         <v>25</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J659" t="n">
         <v>430</v>
       </c>
       <c r="K659" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L659" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M659" t="n">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="Q659" t="n">
         <v>25</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47868,25 +47868,25 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J660" t="n">
         <v>250</v>
       </c>
       <c r="K660" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L660" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M660" t="n">
-        <v>8250</v>
+        <v>7000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47895,11 +47895,11 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="Q660" t="n">
         <v>25</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47940,38 +47940,38 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K661" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L661" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M661" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="Q661" t="n">
         <v>25</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48012,38 +48012,38 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K662" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L662" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M662" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q662" t="n">
         <v>25</v>
@@ -48084,38 +48084,38 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K663" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L663" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M663" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q663" t="n">
         <v>25</v>
@@ -48156,25 +48156,25 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K664" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L664" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M664" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="Q664" t="n">
         <v>25</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48233,24 +48233,24 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K665" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L665" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M665" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="Q665" t="n">
         <v>25</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48300,38 +48300,38 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="K666" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L666" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M666" t="n">
-        <v>10500</v>
+        <v>8750</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="Q666" t="n">
         <v>25</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48372,38 +48372,38 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K667" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L667" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M667" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q667" t="n">
         <v>25</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="K668" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L668" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M668" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="Q668" t="n">
         <v>25</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48521,11 +48521,11 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="K669" t="n">
         <v>12000</v>
@@ -48534,7 +48534,7 @@
         <v>13000</v>
       </c>
       <c r="M669" t="n">
-        <v>12444</v>
+        <v>12500</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q669" t="n">
         <v>25</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="K670" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L670" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M670" t="n">
-        <v>12516</v>
+        <v>10500</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>501</v>
+        <v>420</v>
       </c>
       <c r="Q670" t="n">
         <v>25</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48660,38 +48660,38 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="K671" t="n">
         <v>11000</v>
       </c>
       <c r="L671" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M671" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="Q671" t="n">
         <v>25</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48732,25 +48732,25 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="K672" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L672" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M672" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="Q672" t="n">
         <v>25</v>
@@ -48809,33 +48809,33 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K673" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L673" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M673" t="n">
-        <v>9000</v>
+        <v>12444</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>360</v>
+        <v>498</v>
       </c>
       <c r="Q673" t="n">
         <v>25</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>570</v>
+        <v>310</v>
       </c>
       <c r="K674" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L674" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M674" t="n">
-        <v>11596</v>
+        <v>12516</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="Q674" t="n">
         <v>25</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48953,24 +48953,24 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K675" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L675" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M675" t="n">
-        <v>7750</v>
+        <v>11000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="Q675" t="n">
         <v>25</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49020,25 +49020,25 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K676" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L676" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M676" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="Q676" t="n">
         <v>25</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K677" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L677" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M677" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="Q677" t="n">
         <v>25</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49164,38 +49164,38 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>250</v>
+        <v>570</v>
       </c>
       <c r="K678" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L678" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M678" t="n">
-        <v>8500</v>
+        <v>11596</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>340</v>
+        <v>464</v>
       </c>
       <c r="Q678" t="n">
         <v>25</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49236,38 +49236,38 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K679" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L679" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M679" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q679" t="n">
         <v>25</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49308,38 +49308,38 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K680" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L680" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q680" t="n">
         <v>25</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,7 +49389,7 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K681" t="n">
         <v>6500</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49457,33 +49457,33 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K682" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L682" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M682" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q682" t="n">
         <v>25</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,38 +49524,38 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K683" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L683" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M683" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q683" t="n">
         <v>25</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49596,38 +49596,38 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K684" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L684" t="n">
         <v>8000</v>
       </c>
       <c r="M684" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q684" t="n">
         <v>25</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49680,13 +49680,13 @@
         <v>250</v>
       </c>
       <c r="K685" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L685" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M685" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q685" t="n">
         <v>25</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49740,38 +49740,38 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K686" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L686" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M686" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q686" t="n">
         <v>25</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49812,38 +49812,38 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K687" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L687" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M687" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q687" t="n">
         <v>25</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K688" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L688" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M688" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q688" t="n">
         <v>25</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,38 +49956,38 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J689" t="n">
         <v>250</v>
       </c>
       <c r="K689" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L689" t="n">
         <v>8000</v>
       </c>
       <c r="M689" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q689" t="n">
         <v>25</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50033,24 +50033,24 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K690" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L690" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M690" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q690" t="n">
         <v>25</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,38 +50100,38 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K691" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L691" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M691" t="n">
-        <v>9000</v>
+        <v>6750</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="Q691" t="n">
         <v>25</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K692" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L692" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M692" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q692" t="n">
         <v>25</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50244,12 +50244,12 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J693" t="n">
@@ -50266,12 +50266,12 @@
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P693" t="n">
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50316,25 +50316,25 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K694" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L694" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M694" t="n">
-        <v>9526</v>
+        <v>7000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="Q694" t="n">
         <v>25</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50393,20 +50393,20 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K695" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L695" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M695" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="Q695" t="n">
         <v>25</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K696" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L696" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M696" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="Q696" t="n">
         <v>25</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50532,38 +50532,38 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K697" t="n">
         <v>8000</v>
       </c>
       <c r="L697" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M697" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q697" t="n">
         <v>25</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50604,25 +50604,25 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K698" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L698" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M698" t="n">
-        <v>7250</v>
+        <v>9526</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="Q698" t="n">
         <v>25</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50685,16 +50685,16 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K699" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L699" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M699" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q699" t="n">
         <v>25</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="K700" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L700" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M700" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q700" t="n">
         <v>25</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,38 +50820,38 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K701" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L701" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M701" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q701" t="n">
         <v>25</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50892,16 +50892,16 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K702" t="n">
         <v>7000</v>
@@ -50914,12 +50914,12 @@
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P702" t="n">
@@ -50964,38 +50964,38 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K703" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L703" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M703" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q703" t="n">
         <v>25</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K704" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L704" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M704" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q704" t="n">
         <v>25</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51113,24 +51113,24 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K705" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L705" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M705" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q705" t="n">
         <v>25</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51180,38 +51180,38 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K706" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L706" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M706" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q706" t="n">
         <v>25</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51252,25 +51252,25 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J707" t="n">
         <v>250</v>
       </c>
       <c r="K707" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L707" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M707" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q707" t="n">
         <v>25</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51324,38 +51324,38 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K708" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L708" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M708" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="Q708" t="n">
         <v>25</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51396,38 +51396,38 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K709" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L709" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M709" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="Q709" t="n">
         <v>25</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51468,38 +51468,38 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K710" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L710" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M710" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q710" t="n">
         <v>25</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51549,16 +51549,16 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K711" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L711" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M711" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="Q711" t="n">
         <v>25</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,38 +51612,38 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K712" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L712" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M712" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q712" t="n">
         <v>25</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51684,38 +51684,38 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K713" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L713" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M713" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q713" t="n">
         <v>25</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51761,24 +51761,24 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K714" t="n">
         <v>9000</v>
       </c>
       <c r="L714" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M714" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q714" t="n">
         <v>25</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51833,24 +51833,24 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K715" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L715" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M715" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="Q715" t="n">
         <v>25</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K716" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L716" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M716" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="Q716" t="n">
         <v>25</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51984,13 +51984,13 @@
         <v>340</v>
       </c>
       <c r="K717" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L717" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M717" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q717" t="n">
         <v>25</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K718" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L718" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M718" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q718" t="n">
         <v>25</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,24 +52121,24 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J719" t="n">
         <v>250</v>
       </c>
       <c r="K719" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L719" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M719" t="n">
-        <v>7250</v>
+        <v>10500</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="Q719" t="n">
         <v>25</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52188,25 +52188,25 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="K720" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L720" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M720" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q720" t="n">
         <v>25</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52265,33 +52265,33 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K721" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L721" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M721" t="n">
-        <v>10763</v>
+        <v>8250</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>431</v>
+        <v>330</v>
       </c>
       <c r="Q721" t="n">
         <v>25</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,25 +52332,25 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K722" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L722" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M722" t="n">
-        <v>9000</v>
+        <v>7250</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Q722" t="n">
         <v>25</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52404,38 +52404,38 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K723" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L723" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M723" t="n">
-        <v>12500</v>
+        <v>7250</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="Q723" t="n">
         <v>25</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="K724" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L724" t="n">
         <v>11000</v>
       </c>
       <c r="M724" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="Q724" t="n">
         <v>25</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52548,38 +52548,38 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="K725" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L725" t="n">
         <v>11000</v>
       </c>
-      <c r="L725" t="n">
-        <v>12000</v>
-      </c>
       <c r="M725" t="n">
-        <v>11500</v>
+        <v>10763</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="Q725" t="n">
         <v>25</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52620,43 +52620,331 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="K726" t="n">
         <v>9000</v>
       </c>
       <c r="L726" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M726" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N726" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O726" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P726" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q726" t="n">
+        <v>25</v>
+      </c>
+      <c r="R726" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>9</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D727" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E727" t="n">
+        <v>13</v>
+      </c>
+      <c r="F727" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>1a (cosecha lavada)</t>
+        </is>
+      </c>
+      <c r="J727" t="n">
+        <v>340</v>
+      </c>
+      <c r="K727" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L727" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M727" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N727" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O727" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P727" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q727" t="n">
+        <v>25</v>
+      </c>
+      <c r="R727" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>9</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D728" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E728" t="n">
+        <v>13</v>
+      </c>
+      <c r="F728" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J728" t="n">
+        <v>196</v>
+      </c>
+      <c r="K728" t="n">
         <v>10000</v>
       </c>
-      <c r="M726" t="n">
+      <c r="L728" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M728" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N728" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O728" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P728" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q728" t="n">
+        <v>25</v>
+      </c>
+      <c r="R728" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>9</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D729" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E729" t="n">
+        <v>13</v>
+      </c>
+      <c r="F729" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>1a (guarda lavada)</t>
+        </is>
+      </c>
+      <c r="J729" t="n">
+        <v>430</v>
+      </c>
+      <c r="K729" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L729" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M729" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N729" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O729" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P729" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q729" t="n">
+        <v>25</v>
+      </c>
+      <c r="R729" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>9</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D730" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E730" t="n">
+        <v>13</v>
+      </c>
+      <c r="F730" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J730" t="n">
+        <v>210</v>
+      </c>
+      <c r="K730" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L730" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M730" t="n">
         <v>9500</v>
       </c>
-      <c r="N726" t="inlineStr">
+      <c r="N730" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O726" t="inlineStr">
+      <c r="O730" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P726" t="n">
+      <c r="P730" t="n">
         <v>380</v>
       </c>
-      <c r="Q726" t="n">
-        <v>25</v>
-      </c>
-      <c r="R726" t="inlineStr">
+      <c r="Q730" t="n">
+        <v>25</v>
+      </c>
+      <c r="R730" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R740"/>
+  <dimension ref="A1:R744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K703" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L703" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M703" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="Q703" t="n">
         <v>25</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51041,20 +51041,20 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K704" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L704" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M704" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="Q704" t="n">
         <v>25</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,25 +51108,25 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K705" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L705" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M705" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="Q705" t="n">
         <v>25</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51180,25 +51180,25 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K706" t="n">
         <v>8000</v>
       </c>
       <c r="L706" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M706" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q706" t="n">
         <v>25</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51252,12 +51252,12 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J707" t="n">
@@ -51274,12 +51274,12 @@
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P707" t="n">
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51324,25 +51324,25 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K708" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L708" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M708" t="n">
-        <v>9526</v>
+        <v>7000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="Q708" t="n">
         <v>25</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K709" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L709" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M709" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="Q709" t="n">
         <v>25</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51468,25 +51468,25 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K710" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L710" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M710" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="Q710" t="n">
         <v>25</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51540,38 +51540,38 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K711" t="n">
         <v>8000</v>
       </c>
       <c r="L711" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M711" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q711" t="n">
         <v>25</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K712" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L712" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M712" t="n">
-        <v>7250</v>
+        <v>9526</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="Q712" t="n">
         <v>25</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51693,16 +51693,16 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K713" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L713" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M713" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q713" t="n">
         <v>25</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="K714" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L714" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M714" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q714" t="n">
         <v>25</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51828,38 +51828,38 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K715" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L715" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M715" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q715" t="n">
         <v>25</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51900,16 +51900,16 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K716" t="n">
         <v>7000</v>
@@ -51922,12 +51922,12 @@
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P716" t="n">
@@ -51972,38 +51972,38 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K717" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L717" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M717" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q717" t="n">
         <v>25</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K718" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L718" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M718" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q718" t="n">
         <v>25</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,24 +52121,24 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K719" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L719" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M719" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q719" t="n">
         <v>25</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52188,38 +52188,38 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K720" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L720" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M720" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q720" t="n">
         <v>25</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52260,25 +52260,25 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J721" t="n">
         <v>250</v>
       </c>
       <c r="K721" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L721" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M721" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q721" t="n">
         <v>25</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,38 +52332,38 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K722" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L722" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M722" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="Q722" t="n">
         <v>25</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52404,38 +52404,38 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K723" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L723" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M723" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="Q723" t="n">
         <v>25</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52476,38 +52476,38 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K724" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L724" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M724" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q724" t="n">
         <v>25</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52557,16 +52557,16 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="Q725" t="n">
         <v>25</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52620,38 +52620,38 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K726" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L726" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M726" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q726" t="n">
         <v>25</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52692,38 +52692,38 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K727" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L727" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M727" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q727" t="n">
         <v>25</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52769,24 +52769,24 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K728" t="n">
         <v>9000</v>
       </c>
       <c r="L728" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M728" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O728" t="inlineStr">
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q728" t="n">
         <v>25</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52841,24 +52841,24 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K729" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L729" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M729" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,7 +52867,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="Q729" t="n">
         <v>25</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52913,20 +52913,20 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K730" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L730" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M730" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="Q730" t="n">
         <v>25</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52992,13 +52992,13 @@
         <v>340</v>
       </c>
       <c r="K731" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L731" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M731" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q731" t="n">
         <v>25</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53052,7 +53052,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K732" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L732" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M732" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q732" t="n">
         <v>25</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,24 +53129,24 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J733" t="n">
         <v>250</v>
       </c>
       <c r="K733" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L733" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="M733" t="n">
-        <v>7250</v>
+        <v>10500</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="Q733" t="n">
         <v>25</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53196,25 +53196,25 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="K734" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L734" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M734" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="Q734" t="n">
         <v>25</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53273,33 +53273,33 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K735" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L735" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="M735" t="n">
-        <v>10763</v>
+        <v>8250</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>431</v>
+        <v>330</v>
       </c>
       <c r="Q735" t="n">
         <v>25</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53340,25 +53340,25 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K736" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L736" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M736" t="n">
-        <v>9000</v>
+        <v>7250</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Q736" t="n">
         <v>25</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53412,38 +53412,38 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K737" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L737" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="M737" t="n">
-        <v>12500</v>
+        <v>7250</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="Q737" t="n">
         <v>25</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="K738" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L738" t="n">
         <v>11000</v>
       </c>
       <c r="M738" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="Q738" t="n">
         <v>25</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53556,38 +53556,38 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="K739" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L739" t="n">
         <v>11000</v>
       </c>
-      <c r="L739" t="n">
-        <v>12000</v>
-      </c>
       <c r="M739" t="n">
-        <v>11500</v>
+        <v>10763</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="Q739" t="n">
         <v>25</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53628,43 +53628,331 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="K740" t="n">
         <v>9000</v>
       </c>
       <c r="L740" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M740" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N740" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O740" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P740" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q740" t="n">
+        <v>25</v>
+      </c>
+      <c r="R740" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>9</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D741" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E741" t="n">
+        <v>13</v>
+      </c>
+      <c r="F741" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>1a (cosecha lavada)</t>
+        </is>
+      </c>
+      <c r="J741" t="n">
+        <v>340</v>
+      </c>
+      <c r="K741" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L741" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M741" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N741" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O741" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P741" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q741" t="n">
+        <v>25</v>
+      </c>
+      <c r="R741" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>9</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D742" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E742" t="n">
+        <v>13</v>
+      </c>
+      <c r="F742" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J742" t="n">
+        <v>196</v>
+      </c>
+      <c r="K742" t="n">
         <v>10000</v>
       </c>
-      <c r="M740" t="n">
+      <c r="L742" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M742" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N742" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O742" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P742" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q742" t="n">
+        <v>25</v>
+      </c>
+      <c r="R742" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>9</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D743" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E743" t="n">
+        <v>13</v>
+      </c>
+      <c r="F743" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>1a (guarda lavada)</t>
+        </is>
+      </c>
+      <c r="J743" t="n">
+        <v>430</v>
+      </c>
+      <c r="K743" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L743" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M743" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N743" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O743" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P743" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q743" t="n">
+        <v>25</v>
+      </c>
+      <c r="R743" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>9</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D744" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E744" t="n">
+        <v>13</v>
+      </c>
+      <c r="F744" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>Rodeo</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J744" t="n">
+        <v>210</v>
+      </c>
+      <c r="K744" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L744" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M744" t="n">
         <v>9500</v>
       </c>
-      <c r="N740" t="inlineStr">
+      <c r="N744" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O740" t="inlineStr">
+      <c r="O744" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P740" t="n">
+      <c r="P744" t="n">
         <v>380</v>
       </c>
-      <c r="Q740" t="n">
-        <v>25</v>
-      </c>
-      <c r="R740" t="inlineStr">
+      <c r="Q744" t="n">
+        <v>25</v>
+      </c>
+      <c r="R744" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R754"/>
+  <dimension ref="A1:R756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46716,25 +46716,25 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K644" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L644" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M644" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="Q644" t="n">
         <v>25</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K645" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L645" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M645" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="Q645" t="n">
         <v>25</v>
@@ -46860,38 +46860,38 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K646" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L646" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M646" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q646" t="n">
         <v>25</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,38 +46932,38 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J647" t="n">
         <v>340</v>
       </c>
       <c r="K647" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L647" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M647" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="Q647" t="n">
         <v>25</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47004,25 +47004,25 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K648" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L648" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M648" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="Q648" t="n">
         <v>25</v>
@@ -47076,25 +47076,25 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K649" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L649" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M649" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="Q649" t="n">
         <v>25</v>
@@ -47148,25 +47148,25 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K650" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L650" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M650" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q650" t="n">
         <v>25</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47220,25 +47220,25 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K651" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L651" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M651" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="Q651" t="n">
         <v>25</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47292,25 +47292,25 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K652" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L652" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M652" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="Q652" t="n">
         <v>25</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47376,13 +47376,13 @@
         <v>340</v>
       </c>
       <c r="K653" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L653" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M653" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="Q653" t="n">
         <v>25</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47436,12 +47436,12 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J654" t="n">
@@ -47451,10 +47451,10 @@
         <v>7000</v>
       </c>
       <c r="L654" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M654" t="n">
-        <v>7250</v>
+        <v>7000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="Q654" t="n">
         <v>25</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,24 +47513,24 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K655" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L655" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M655" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="Q655" t="n">
         <v>25</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K656" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L656" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M656" t="n">
-        <v>11444</v>
+        <v>7250</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>458</v>
+        <v>290</v>
       </c>
       <c r="Q656" t="n">
         <v>25</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K657" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L657" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M657" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="Q657" t="n">
         <v>25</v>
@@ -47724,7 +47724,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="K658" t="n">
         <v>11000</v>
       </c>
       <c r="L658" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M658" t="n">
-        <v>11000</v>
+        <v>11444</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="Q658" t="n">
         <v>25</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47796,25 +47796,25 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
       <c r="K659" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L659" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M659" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="Q659" t="n">
         <v>25</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47868,7 +47868,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -47877,16 +47877,16 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="K660" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L660" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M660" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="Q660" t="n">
         <v>25</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47940,38 +47940,38 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="K661" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L661" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M661" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="Q661" t="n">
         <v>25</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K662" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L662" t="n">
         <v>8000</v>
       </c>
       <c r="M662" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="Q662" t="n">
         <v>25</v>
@@ -48084,25 +48084,25 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K663" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L663" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M663" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q663" t="n">
         <v>25</v>
@@ -48156,25 +48156,25 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K664" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L664" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M664" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q664" t="n">
         <v>25</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48228,25 +48228,25 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K665" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L665" t="n">
         <v>9000</v>
       </c>
       <c r="M665" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q665" t="n">
         <v>25</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K666" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L666" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M666" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q666" t="n">
         <v>25</v>
@@ -48377,24 +48377,24 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K667" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L667" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M667" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q667" t="n">
         <v>25</v>
@@ -48444,16 +48444,16 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K668" t="n">
         <v>7500</v>
@@ -48466,12 +48466,12 @@
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P668" t="n">
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K669" t="n">
         <v>6500</v>
       </c>
       <c r="L669" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M669" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q669" t="n">
         <v>25</v>
@@ -48593,24 +48593,24 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K670" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L670" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M670" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q670" t="n">
         <v>25</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48660,38 +48660,38 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K671" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L671" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M671" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q671" t="n">
         <v>25</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48732,25 +48732,25 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="K672" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L672" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M672" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="Q672" t="n">
         <v>25</v>
@@ -48804,38 +48804,38 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K673" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L673" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M673" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q673" t="n">
         <v>25</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,38 +48876,38 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="K674" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L674" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M674" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q674" t="n">
         <v>25</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48953,11 +48953,11 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="K675" t="n">
         <v>6500</v>
@@ -49020,38 +49020,38 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="K676" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L676" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M676" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q676" t="n">
         <v>25</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49092,38 +49092,38 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>430</v>
+        <v>190</v>
       </c>
       <c r="K677" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L677" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M677" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q677" t="n">
         <v>25</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49164,16 +49164,16 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K678" t="n">
         <v>6500</v>
@@ -49191,7 +49191,7 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P678" t="n">
@@ -49236,38 +49236,38 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K679" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L679" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M679" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q679" t="n">
         <v>25</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49308,25 +49308,25 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K680" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L680" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M680" t="n">
-        <v>12464</v>
+        <v>6750</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>499</v>
+        <v>270</v>
       </c>
       <c r="Q680" t="n">
         <v>25</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K681" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L681" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M681" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="Q681" t="n">
         <v>25</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49457,33 +49457,33 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="K682" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L682" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M682" t="n">
-        <v>11000</v>
+        <v>12464</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="Q682" t="n">
         <v>25</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,16 +49524,16 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K683" t="n">
         <v>12000</v>
@@ -49551,7 +49551,7 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P683" t="n">
@@ -49601,33 +49601,33 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="K684" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L684" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M684" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="Q684" t="n">
         <v>25</v>
@@ -49668,38 +49668,38 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="K685" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L685" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M685" t="n">
-        <v>7465</v>
+        <v>12000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>299</v>
+        <v>480</v>
       </c>
       <c r="Q685" t="n">
         <v>25</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49745,33 +49745,33 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K686" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L686" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M686" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="Q686" t="n">
         <v>25</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49812,38 +49812,38 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K687" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L687" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M687" t="n">
-        <v>6750</v>
+        <v>7465</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="Q687" t="n">
         <v>25</v>
@@ -49884,38 +49884,38 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K688" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L688" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M688" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q688" t="n">
         <v>25</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,38 +49956,38 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K689" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L689" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M689" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q689" t="n">
         <v>25</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50028,25 +50028,25 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J690" t="n">
         <v>210</v>
       </c>
       <c r="K690" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L690" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M690" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="Q690" t="n">
         <v>25</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,7 +50109,7 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K691" t="n">
         <v>11000</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="K692" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L692" t="n">
         <v>10000</v>
       </c>
       <c r="M692" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="Q692" t="n">
         <v>25</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50244,16 +50244,16 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K693" t="n">
         <v>11000</v>
@@ -50262,11 +50262,11 @@
         <v>12000</v>
       </c>
       <c r="M693" t="n">
-        <v>11556</v>
+        <v>11500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q693" t="n">
         <v>25</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="K694" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L694" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M694" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="Q694" t="n">
         <v>25</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50393,24 +50393,24 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K695" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L695" t="n">
         <v>12000</v>
       </c>
-      <c r="L695" t="n">
-        <v>13000</v>
-      </c>
       <c r="M695" t="n">
-        <v>12500</v>
+        <v>11556</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="Q695" t="n">
         <v>25</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="K696" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L696" t="n">
         <v>11000</v>
       </c>
       <c r="M696" t="n">
-        <v>10496</v>
+        <v>11000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="Q696" t="n">
         <v>25</v>
@@ -50532,25 +50532,25 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K697" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L697" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M697" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="Q697" t="n">
         <v>25</v>
@@ -50604,25 +50604,25 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="K698" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L698" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M698" t="n">
-        <v>9500</v>
+        <v>10496</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q698" t="n">
         <v>25</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50676,16 +50676,16 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K699" t="n">
         <v>11000</v>
@@ -50703,7 +50703,7 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P699" t="n">
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50748,12 +50748,12 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J700" t="n">
@@ -50775,7 +50775,7 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P700" t="n">
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J701" t="n">
         <v>340</v>
       </c>
       <c r="K701" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L701" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M701" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="Q701" t="n">
         <v>25</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50892,25 +50892,25 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K702" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L702" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M702" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="Q702" t="n">
         <v>25</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J703" t="n">
         <v>340</v>
       </c>
       <c r="K703" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L703" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M703" t="n">
-        <v>8250</v>
+        <v>10000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="Q703" t="n">
         <v>25</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K704" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L704" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M704" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q704" t="n">
         <v>25</v>
@@ -51113,24 +51113,24 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K705" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L705" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M705" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q705" t="n">
         <v>25</v>
@@ -51180,12 +51180,12 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J706" t="n">
@@ -51202,12 +51202,12 @@
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P706" t="n">
@@ -51252,25 +51252,25 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K707" t="n">
         <v>6000</v>
       </c>
       <c r="L707" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M707" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q707" t="n">
         <v>25</v>
@@ -51329,24 +51329,24 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K708" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L708" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M708" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q708" t="n">
         <v>25</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51396,25 +51396,25 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K709" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L709" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M709" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q709" t="n">
         <v>25</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51473,24 +51473,24 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K710" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L710" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M710" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q710" t="n">
         <v>25</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51545,33 +51545,33 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J711" t="n">
         <v>340</v>
       </c>
       <c r="K711" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L711" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M711" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q711" t="n">
         <v>25</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,38 +51612,38 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K712" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L712" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M712" t="n">
-        <v>6250</v>
+        <v>10000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q712" t="n">
         <v>25</v>
@@ -51689,24 +51689,24 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K713" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L713" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M713" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q713" t="n">
         <v>25</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51756,38 +51756,38 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K714" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L714" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M714" t="n">
-        <v>10000</v>
+        <v>6250</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q714" t="n">
         <v>25</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K715" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L715" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M715" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="Q715" t="n">
         <v>25</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K716" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L716" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M716" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q716" t="n">
         <v>25</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51972,7 +51972,7 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -51981,16 +51981,16 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K717" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L717" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M717" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q717" t="n">
         <v>25</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K718" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L718" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M718" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="Q718" t="n">
         <v>25</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52116,7 +52116,7 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
@@ -52125,16 +52125,16 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="K719" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L719" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M719" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q719" t="n">
         <v>25</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52188,25 +52188,25 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K720" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L720" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M720" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q720" t="n">
         <v>25</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52260,25 +52260,25 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K721" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L721" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M721" t="n">
-        <v>6750</v>
+        <v>8500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="Q721" t="n">
         <v>25</v>
@@ -52332,38 +52332,38 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="K722" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L722" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M722" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q722" t="n">
         <v>25</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52404,38 +52404,38 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K723" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L723" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M723" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q723" t="n">
         <v>25</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K724" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L724" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M724" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q724" t="n">
         <v>25</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K725" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L725" t="n">
         <v>11000</v>
       </c>
-      <c r="L725" t="n">
-        <v>12000</v>
-      </c>
       <c r="M725" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Q725" t="n">
         <v>25</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K726" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L726" t="n">
         <v>9000</v>
       </c>
-      <c r="L726" t="n">
-        <v>10000</v>
-      </c>
       <c r="M726" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q726" t="n">
         <v>25</v>
@@ -52692,25 +52692,25 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J727" t="n">
         <v>340</v>
       </c>
       <c r="K727" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L727" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M727" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="Q727" t="n">
         <v>25</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="K728" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L728" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M728" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q728" t="n">
         <v>25</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52836,25 +52836,25 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="K729" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L729" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M729" t="n">
-        <v>12444</v>
+        <v>9500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>498</v>
+        <v>380</v>
       </c>
       <c r="Q729" t="n">
         <v>25</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52908,25 +52908,25 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="K730" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L730" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M730" t="n">
-        <v>12516</v>
+        <v>7500</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>501</v>
+        <v>300</v>
       </c>
       <c r="Q730" t="n">
         <v>25</v>
@@ -52985,24 +52985,24 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K731" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L731" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M731" t="n">
-        <v>11000</v>
+        <v>12444</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="Q731" t="n">
         <v>25</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="K732" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L732" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M732" t="n">
-        <v>11000</v>
+        <v>12516</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="Q732" t="n">
         <v>25</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K733" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L733" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M733" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="Q733" t="n">
         <v>25</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53201,33 +53201,33 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="K734" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L734" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M734" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="Q734" t="n">
         <v>25</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53273,24 +53273,24 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="K735" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L735" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M735" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="Q735" t="n">
         <v>25</v>
@@ -53345,24 +53345,24 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K736" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L736" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M736" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O736" t="inlineStr">
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q736" t="n">
         <v>25</v>
@@ -53417,24 +53417,24 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K737" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L737" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M737" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q737" t="n">
         <v>25</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,24 +53489,24 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K738" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L738" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M738" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="Q738" t="n">
         <v>25</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53556,7 +53556,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K739" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L739" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M739" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="Q739" t="n">
         <v>25</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53637,16 +53637,16 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K740" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L740" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M740" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Q740" t="n">
         <v>25</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53705,20 +53705,20 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K741" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L741" t="n">
         <v>7000</v>
       </c>
       <c r="M741" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q741" t="n">
         <v>25</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J742" t="n">
         <v>430</v>
       </c>
       <c r="K742" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L742" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M742" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="Q742" t="n">
         <v>25</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53844,25 +53844,25 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K743" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L743" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M743" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="Q743" t="n">
         <v>25</v>
@@ -53921,24 +53921,24 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K744" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L744" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M744" t="n">
-        <v>7000</v>
+        <v>9750</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="Q744" t="n">
         <v>25</v>
@@ -53988,38 +53988,38 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K745" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L745" t="n">
         <v>8500</v>
       </c>
-      <c r="L745" t="n">
-        <v>9000</v>
-      </c>
       <c r="M745" t="n">
-        <v>8750</v>
+        <v>8250</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q745" t="n">
         <v>25</v>
@@ -54060,25 +54060,25 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J746" t="n">
         <v>160</v>
       </c>
       <c r="K746" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L746" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M746" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q746" t="n">
         <v>25</v>
@@ -54137,24 +54137,24 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K747" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L747" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M747" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O747" t="inlineStr">
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="Q747" t="n">
         <v>25</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54204,16 +54204,16 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K748" t="n">
         <v>7500</v>
@@ -54226,12 +54226,12 @@
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P748" t="n">
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54281,20 +54281,20 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K749" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L749" t="n">
         <v>7000</v>
       </c>
       <c r="M749" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q749" t="n">
         <v>25</v>
@@ -54348,38 +54348,38 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J750" t="n">
         <v>340</v>
       </c>
       <c r="K750" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L750" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M750" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q750" t="n">
         <v>25</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54420,38 +54420,38 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K751" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L751" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M751" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q751" t="n">
         <v>25</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54492,25 +54492,25 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K752" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L752" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M752" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q752" t="n">
         <v>25</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54564,38 +54564,38 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="K753" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L753" t="n">
         <v>12000</v>
       </c>
-      <c r="L753" t="n">
-        <v>13000</v>
-      </c>
       <c r="M753" t="n">
-        <v>12417</v>
+        <v>11500</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="Q753" t="n">
         <v>25</v>
@@ -54621,58 +54621,202 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E754" t="n">
+        <v>13</v>
+      </c>
+      <c r="F754" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>Patagonia</t>
+        </is>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J754" t="n">
+        <v>250</v>
+      </c>
+      <c r="K754" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L754" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M754" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N754" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O754" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P754" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q754" t="n">
+        <v>25</v>
+      </c>
+      <c r="R754" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>9</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D755" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E754" t="n">
-        <v>13</v>
-      </c>
-      <c r="F754" t="n">
-        <v>100114001</v>
-      </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>Papa</t>
-        </is>
-      </c>
-      <c r="H754" t="inlineStr">
+      <c r="E755" t="n">
+        <v>13</v>
+      </c>
+      <c r="F755" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>Pukará</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J755" t="n">
+        <v>480</v>
+      </c>
+      <c r="K755" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L755" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M755" t="n">
+        <v>12417</v>
+      </c>
+      <c r="N755" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O755" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P755" t="n">
+        <v>497</v>
+      </c>
+      <c r="Q755" t="n">
+        <v>25</v>
+      </c>
+      <c r="R755" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>9</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D756" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E756" t="n">
+        <v>13</v>
+      </c>
+      <c r="F756" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
         <is>
           <t>Rosara</t>
         </is>
       </c>
-      <c r="I754" t="inlineStr">
+      <c r="I756" t="inlineStr">
         <is>
           <t>1a nueva(o)</t>
         </is>
       </c>
-      <c r="J754" t="n">
+      <c r="J756" t="n">
         <v>300</v>
       </c>
-      <c r="K754" t="n">
+      <c r="K756" t="n">
         <v>13000</v>
       </c>
-      <c r="L754" t="n">
+      <c r="L756" t="n">
         <v>14000</v>
       </c>
-      <c r="M754" t="n">
+      <c r="M756" t="n">
         <v>13333</v>
       </c>
-      <c r="N754" t="inlineStr">
+      <c r="N756" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O754" t="inlineStr">
+      <c r="O756" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P754" t="n">
+      <c r="P756" t="n">
         <v>533</v>
       </c>
-      <c r="Q754" t="n">
-        <v>25</v>
-      </c>
-      <c r="R754" t="inlineStr">
+      <c r="Q756" t="n">
+        <v>25</v>
+      </c>
+      <c r="R756" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R760"/>
+  <dimension ref="A1:R764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44421</v>
+        <v>44524</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41460,25 +41460,25 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J571" t="n">
         <v>340</v>
       </c>
       <c r="K571" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L571" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M571" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q571" t="n">
         <v>25</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44421</v>
+        <v>44524</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41532,25 +41532,25 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K572" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L572" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M572" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q572" t="n">
         <v>25</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44431</v>
+        <v>44524</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K573" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L573" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M573" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q573" t="n">
         <v>25</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44431</v>
+        <v>44524</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K574" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L574" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M574" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q574" t="n">
         <v>25</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44239</v>
+        <v>44421</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,25 +41748,25 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K575" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L575" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M575" t="n">
-        <v>10000</v>
+        <v>8250</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q575" t="n">
         <v>25</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44239</v>
+        <v>44421</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41820,25 +41820,25 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K576" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L576" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M576" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q576" t="n">
         <v>25</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44222</v>
+        <v>44431</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41892,38 +41892,38 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K577" t="n">
         <v>8000</v>
       </c>
       <c r="L577" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M577" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q577" t="n">
         <v>25</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44222</v>
+        <v>44431</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K578" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L578" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M578" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q578" t="n">
         <v>25</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44426</v>
+        <v>44239</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K579" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L579" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M579" t="n">
-        <v>8750</v>
+        <v>10000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q579" t="n">
         <v>25</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44426</v>
+        <v>44239</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42108,7 +42108,7 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K580" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L580" t="n">
         <v>8000</v>
       </c>
       <c r="M580" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q580" t="n">
         <v>25</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44426</v>
+        <v>44222</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42180,38 +42180,38 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K581" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L581" t="n">
         <v>8000</v>
       </c>
       <c r="M581" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q581" t="n">
         <v>25</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44426</v>
+        <v>44222</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,25 +42252,25 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K582" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L582" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M582" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q582" t="n">
         <v>25</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K583" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L583" t="n">
         <v>9000</v>
       </c>
-      <c r="L583" t="n">
-        <v>10000</v>
-      </c>
       <c r="M583" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q583" t="n">
         <v>25</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42405,16 +42405,16 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K584" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L584" t="n">
         <v>8000</v>
       </c>
       <c r="M584" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q584" t="n">
         <v>25</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42477,20 +42477,20 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K585" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L585" t="n">
         <v>8000</v>
       </c>
-      <c r="L585" t="n">
-        <v>9000</v>
-      </c>
       <c r="M585" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q585" t="n">
         <v>25</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42540,7 +42540,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K586" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L586" t="n">
         <v>7000</v>
       </c>
       <c r="M586" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q586" t="n">
         <v>25</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K587" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L587" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M587" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="Q587" t="n">
         <v>25</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42689,21 +42689,21 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K588" t="n">
         <v>7000</v>
       </c>
       <c r="L588" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M588" t="n">
         <v>7500</v>
       </c>
-      <c r="M588" t="n">
-        <v>7250</v>
-      </c>
       <c r="N588" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q588" t="n">
         <v>25</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K589" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L589" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M589" t="n">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="Q589" t="n">
         <v>25</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42837,17 +42837,17 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K590" t="n">
         <v>6000</v>
       </c>
       <c r="L590" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M590" t="n">
         <v>6500</v>
       </c>
-      <c r="M590" t="n">
-        <v>6250</v>
-      </c>
       <c r="N590" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q590" t="n">
         <v>25</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42900,38 +42900,38 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K591" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L591" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M591" t="n">
-        <v>10000</v>
+        <v>8250</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q591" t="n">
         <v>25</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42972,7 +42972,7 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K592" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L592" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M592" t="n">
-        <v>10600</v>
+        <v>7250</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>424</v>
+        <v>290</v>
       </c>
       <c r="Q592" t="n">
         <v>25</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44176</v>
+        <v>44362</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43044,38 +43044,38 @@
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K593" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L593" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M593" t="n">
-        <v>11500</v>
+        <v>7250</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="Q593" t="n">
         <v>25</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44176</v>
+        <v>44362</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J594" t="n">
         <v>430</v>
       </c>
       <c r="K594" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L594" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M594" t="n">
-        <v>10000</v>
+        <v>6250</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q594" t="n">
         <v>25</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43188,38 +43188,38 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K595" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L595" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M595" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="Q595" t="n">
         <v>25</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43260,38 +43260,38 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K596" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L596" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M596" t="n">
-        <v>8750</v>
+        <v>10600</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="Q596" t="n">
         <v>25</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43332,38 +43332,38 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K597" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L597" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M597" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q597" t="n">
         <v>25</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43404,25 +43404,25 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K598" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L598" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M598" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Q598" t="n">
         <v>25</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44407</v>
+        <v>44176</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43476,7 +43476,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -43485,16 +43485,16 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K599" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="L599" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M599" t="n">
-        <v>8750</v>
+        <v>11000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="Q599" t="n">
         <v>25</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43553,24 +43553,24 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J600" t="n">
         <v>340</v>
       </c>
       <c r="K600" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L600" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M600" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O600" t="inlineStr">
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q600" t="n">
         <v>25</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43620,25 +43620,25 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K601" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L601" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M601" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q601" t="n">
         <v>25</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43692,16 +43692,16 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K602" t="n">
         <v>7500</v>
@@ -43714,7 +43714,7 @@
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -43764,38 +43764,38 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K603" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L603" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M603" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q603" t="n">
         <v>25</v>
@@ -43836,25 +43836,25 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K604" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L604" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M604" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q604" t="n">
         <v>25</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44284</v>
+        <v>44407</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43913,24 +43913,24 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K605" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L605" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M605" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="Q605" t="n">
         <v>25</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44284</v>
+        <v>44407</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43980,38 +43980,38 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K606" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L606" t="n">
         <v>8000</v>
       </c>
       <c r="M606" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q606" t="n">
         <v>25</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44441</v>
+        <v>44407</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44052,38 +44052,38 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K607" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L607" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M607" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q607" t="n">
         <v>25</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44441</v>
+        <v>44407</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44124,25 +44124,25 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K608" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L608" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M608" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="Q608" t="n">
         <v>25</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44196,25 +44196,25 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K609" t="n">
         <v>9000</v>
       </c>
       <c r="L609" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M609" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44223,11 +44223,11 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q609" t="n">
         <v>25</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,25 +44268,25 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="K610" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L610" t="n">
         <v>8000</v>
       </c>
       <c r="M610" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="Q610" t="n">
         <v>25</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44352,13 +44352,13 @@
         <v>340</v>
       </c>
       <c r="K611" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L611" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M611" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="Q611" t="n">
         <v>25</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K612" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L612" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M612" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44439,11 +44439,11 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="Q612" t="n">
         <v>25</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44489,33 +44489,33 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K613" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L613" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M613" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="Q613" t="n">
         <v>25</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44341</v>
+        <v>44441</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44556,29 +44556,29 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K614" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L614" t="n">
         <v>8000</v>
       </c>
       <c r="M614" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q614" t="n">
         <v>25</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44628,38 +44628,38 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="K615" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L615" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M615" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q615" t="n">
         <v>25</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44700,7 +44700,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K616" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L616" t="n">
         <v>7000</v>
       </c>
       <c r="M616" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q616" t="n">
         <v>25</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,38 +44772,38 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K617" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L617" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M617" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="Q617" t="n">
         <v>25</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44849,33 +44849,33 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="K618" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L618" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M618" t="n">
-        <v>9503</v>
+        <v>7750</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="Q618" t="n">
         <v>25</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44916,38 +44916,38 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J619" t="n">
         <v>260</v>
       </c>
       <c r="K619" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L619" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M619" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q619" t="n">
         <v>25</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K620" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L620" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M620" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q620" t="n">
         <v>25</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>2400</v>
+        <v>320</v>
       </c>
       <c r="K621" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L621" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M621" t="n">
-        <v>6250</v>
+        <v>11500</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="Q621" t="n">
         <v>25</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>1200</v>
+        <v>187</v>
       </c>
       <c r="K622" t="n">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="L622" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M622" t="n">
-        <v>6433</v>
+        <v>9503</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>257</v>
+        <v>380</v>
       </c>
       <c r="Q622" t="n">
         <v>25</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45204,38 +45204,38 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>2500</v>
+        <v>260</v>
       </c>
       <c r="K623" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L623" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="M623" t="n">
-        <v>6240</v>
+        <v>10500</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="Q623" t="n">
         <v>25</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="K624" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L624" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M624" t="n">
-        <v>7300</v>
+        <v>8500</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="Q624" t="n">
         <v>25</v>
@@ -45353,33 +45353,33 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="K625" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L625" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M625" t="n">
-        <v>5767</v>
+        <v>6250</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="Q625" t="n">
         <v>25</v>
@@ -45420,25 +45420,25 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K626" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="L626" t="n">
         <v>6500</v>
       </c>
       <c r="M626" t="n">
-        <v>6286</v>
+        <v>6433</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q626" t="n">
         <v>25</v>
@@ -45492,25 +45492,25 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Karú</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K627" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="L627" t="n">
         <v>6500</v>
       </c>
       <c r="M627" t="n">
-        <v>6400</v>
+        <v>6240</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q627" t="n">
         <v>25</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Karú</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K628" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L628" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M628" t="n">
-        <v>5000</v>
+        <v>7300</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="Q628" t="n">
         <v>25</v>
@@ -45636,25 +45636,25 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K629" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L629" t="n">
         <v>6000</v>
       </c>
-      <c r="L629" t="n">
-        <v>6500</v>
-      </c>
       <c r="M629" t="n">
-        <v>6308</v>
+        <v>5767</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="Q629" t="n">
         <v>25</v>
@@ -45708,38 +45708,38 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>1580</v>
+        <v>1400</v>
       </c>
       <c r="K630" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L630" t="n">
         <v>6500</v>
       </c>
-      <c r="L630" t="n">
-        <v>8000</v>
-      </c>
       <c r="M630" t="n">
-        <v>6801</v>
+        <v>6286</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="Q630" t="n">
         <v>25</v>
@@ -45780,25 +45780,25 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Karú</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>180</v>
+        <v>1600</v>
       </c>
       <c r="K631" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L631" t="n">
         <v>6500</v>
       </c>
-      <c r="L631" t="n">
-        <v>7000</v>
-      </c>
       <c r="M631" t="n">
-        <v>6750</v>
+        <v>6400</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="Q631" t="n">
         <v>25</v>
@@ -45852,38 +45852,38 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Karú</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K632" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="L632" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M632" t="n">
-        <v>6377</v>
+        <v>5000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="Q632" t="n">
         <v>25</v>
@@ -45924,16 +45924,16 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K633" t="n">
         <v>6000</v>
@@ -45942,11 +45942,11 @@
         <v>6500</v>
       </c>
       <c r="M633" t="n">
-        <v>6250</v>
+        <v>6308</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q633" t="n">
         <v>25</v>
@@ -45996,29 +45996,29 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>2200</v>
+        <v>1580</v>
       </c>
       <c r="K634" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L634" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M634" t="n">
-        <v>6227</v>
+        <v>6801</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="Q634" t="n">
         <v>25</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,7 +46077,7 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="K635" t="n">
         <v>6500</v>
@@ -46095,7 +46095,7 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P635" t="n">
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46140,25 +46140,25 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>430</v>
+        <v>1300</v>
       </c>
       <c r="K636" t="n">
-        <v>7500</v>
+        <v>6300</v>
       </c>
       <c r="L636" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M636" t="n">
-        <v>7750</v>
+        <v>6377</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="Q636" t="n">
         <v>25</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46212,38 +46212,38 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>340</v>
+        <v>2400</v>
       </c>
       <c r="K637" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L637" t="n">
         <v>6500</v>
       </c>
-      <c r="L637" t="n">
-        <v>7000</v>
-      </c>
       <c r="M637" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q637" t="n">
         <v>25</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44382</v>
+        <v>44350</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46289,24 +46289,24 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>340</v>
+        <v>2200</v>
       </c>
       <c r="K638" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L638" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M638" t="n">
-        <v>7250</v>
+        <v>6227</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="Q638" t="n">
         <v>25</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44382</v>
+        <v>44350</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K639" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L639" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M639" t="n">
-        <v>6250</v>
+        <v>6750</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q639" t="n">
         <v>25</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46428,38 +46428,38 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K640" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L640" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M640" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="Q640" t="n">
         <v>25</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44384</v>
+        <v>44312</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46505,24 +46505,24 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J641" t="n">
         <v>340</v>
       </c>
       <c r="K641" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L641" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M641" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="Q641" t="n">
         <v>25</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46572,16 +46572,16 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K642" t="n">
         <v>7000</v>
@@ -46594,12 +46594,12 @@
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P642" t="n">
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46644,29 +46644,29 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K643" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L643" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M643" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="Q643" t="n">
         <v>25</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46716,25 +46716,25 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K644" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L644" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M644" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Q644" t="n">
         <v>25</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46793,7 +46793,7 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J645" t="n">
@@ -46803,10 +46803,10 @@
         <v>8000</v>
       </c>
       <c r="L645" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M645" t="n">
-        <v>8000</v>
+        <v>8250</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Q645" t="n">
         <v>25</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46860,25 +46860,25 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K646" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L646" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M646" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q646" t="n">
         <v>25</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,38 +46932,38 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K647" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L647" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M647" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q647" t="n">
         <v>25</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44522</v>
+        <v>44384</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47004,29 +47004,29 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K648" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L648" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M648" t="n">
-        <v>11500</v>
+        <v>6250</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="Q648" t="n">
         <v>25</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47076,38 +47076,38 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K649" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L649" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M649" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="Q649" t="n">
         <v>25</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44246</v>
+        <v>44329</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47148,38 +47148,38 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K650" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L650" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M650" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q650" t="n">
         <v>25</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44246</v>
+        <v>44329</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47220,25 +47220,25 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K651" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L651" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M651" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q651" t="n">
         <v>25</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47297,33 +47297,33 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K652" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L652" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M652" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="Q652" t="n">
         <v>25</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47364,38 +47364,38 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K653" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L653" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M653" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q653" t="n">
         <v>25</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47441,24 +47441,24 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>196</v>
+        <v>430</v>
       </c>
       <c r="K654" t="n">
         <v>10000</v>
       </c>
       <c r="L654" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M654" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Q654" t="n">
         <v>25</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47508,29 +47508,29 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K655" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L655" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M655" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="Q655" t="n">
         <v>25</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47580,25 +47580,25 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K656" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L656" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M656" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="Q656" t="n">
         <v>25</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47664,13 +47664,13 @@
         <v>340</v>
       </c>
       <c r="K657" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L657" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M657" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="Q657" t="n">
         <v>25</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K658" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L658" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M658" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="Q658" t="n">
         <v>25</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47796,25 +47796,25 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K659" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L659" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M659" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="Q659" t="n">
         <v>25</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47868,25 +47868,25 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K660" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L660" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M660" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47895,11 +47895,11 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q660" t="n">
         <v>25</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47945,24 +47945,24 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K661" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L661" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M661" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="Q661" t="n">
         <v>25</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48012,7 +48012,7 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K662" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L662" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M662" t="n">
-        <v>11444</v>
+        <v>7000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>458</v>
+        <v>280</v>
       </c>
       <c r="Q662" t="n">
         <v>25</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48084,38 +48084,38 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K663" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L663" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M663" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="Q663" t="n">
         <v>25</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48156,25 +48156,25 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="K664" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L664" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="M664" t="n">
-        <v>11000</v>
+        <v>7250</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="Q664" t="n">
         <v>25</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="K665" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L665" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M665" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="Q665" t="n">
         <v>25</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K666" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L666" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M666" t="n">
-        <v>8000</v>
+        <v>11444</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>320</v>
+        <v>458</v>
       </c>
       <c r="Q666" t="n">
         <v>25</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48372,38 +48372,38 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K667" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L667" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M667" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="Q667" t="n">
         <v>25</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="K668" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L668" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M668" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="Q668" t="n">
         <v>25</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48516,38 +48516,38 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="K669" t="n">
         <v>8000</v>
       </c>
       <c r="L669" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M669" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q669" t="n">
         <v>25</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K670" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L670" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M670" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="Q670" t="n">
         <v>25</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48672,13 +48672,13 @@
         <v>340</v>
       </c>
       <c r="K671" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L671" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M671" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q671" t="n">
         <v>25</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48744,13 +48744,13 @@
         <v>250</v>
       </c>
       <c r="K672" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L672" t="n">
         <v>8000</v>
       </c>
       <c r="M672" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q672" t="n">
         <v>25</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,38 +48804,38 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K673" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L673" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M673" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q673" t="n">
         <v>25</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48881,24 +48881,24 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K674" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L674" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M674" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q674" t="n">
         <v>25</v>
@@ -48948,38 +48948,38 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J675" t="n">
         <v>340</v>
       </c>
       <c r="K675" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L675" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M675" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q675" t="n">
         <v>25</v>
@@ -49020,25 +49020,25 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K676" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L676" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M676" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q676" t="n">
         <v>25</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49097,24 +49097,24 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K677" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L677" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M677" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="Q677" t="n">
         <v>25</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49164,38 +49164,38 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K678" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L678" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M678" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q678" t="n">
         <v>25</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49236,16 +49236,16 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K679" t="n">
         <v>6500</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49308,29 +49308,29 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="K680" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L680" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M680" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="Q680" t="n">
         <v>25</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,38 +49380,38 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="K681" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L681" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M681" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q681" t="n">
         <v>25</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,16 +49452,16 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="K682" t="n">
         <v>6500</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,38 +49524,38 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K683" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L683" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M683" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q683" t="n">
         <v>25</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49596,29 +49596,29 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K684" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L684" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M684" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q684" t="n">
         <v>25</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49668,16 +49668,16 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K685" t="n">
         <v>6500</v>
@@ -49695,7 +49695,7 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P685" t="n">
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49740,25 +49740,25 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K686" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L686" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M686" t="n">
-        <v>12464</v>
+        <v>6750</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>499</v>
+        <v>270</v>
       </c>
       <c r="Q686" t="n">
         <v>25</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49812,29 +49812,29 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="K687" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L687" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M687" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="Q687" t="n">
         <v>25</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49884,38 +49884,38 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K688" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L688" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M688" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="Q688" t="n">
         <v>25</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,25 +49956,25 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K689" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L689" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M689" t="n">
-        <v>12000</v>
+        <v>6750</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="Q689" t="n">
         <v>25</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="K690" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L690" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M690" t="n">
-        <v>10000</v>
+        <v>12464</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="Q690" t="n">
         <v>25</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,29 +50109,29 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="K691" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L691" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M691" t="n">
-        <v>7465</v>
+        <v>12000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>299</v>
+        <v>480</v>
       </c>
       <c r="Q691" t="n">
         <v>25</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="K692" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L692" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M692" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50199,11 +50199,11 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="Q692" t="n">
         <v>25</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50244,25 +50244,25 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K693" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L693" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M693" t="n">
-        <v>6750</v>
+        <v>12000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="Q693" t="n">
         <v>25</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50316,25 +50316,25 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="K694" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L694" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M694" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="Q694" t="n">
         <v>25</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50388,25 +50388,25 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K695" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L695" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M695" t="n">
-        <v>11500</v>
+        <v>7465</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>460</v>
+        <v>299</v>
       </c>
       <c r="Q695" t="n">
         <v>25</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50465,24 +50465,24 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K696" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L696" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M696" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="Q696" t="n">
         <v>25</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50532,38 +50532,38 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J697" t="n">
         <v>250</v>
       </c>
       <c r="K697" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L697" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M697" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q697" t="n">
         <v>25</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50604,25 +50604,25 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="K698" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L698" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M698" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50631,11 +50631,11 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q698" t="n">
         <v>25</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50681,11 +50681,11 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K699" t="n">
         <v>11000</v>
@@ -50694,11 +50694,11 @@
         <v>12000</v>
       </c>
       <c r="M699" t="n">
-        <v>11556</v>
+        <v>11500</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q699" t="n">
         <v>25</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Puyehue</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="K700" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L700" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M700" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="Q700" t="n">
         <v>25</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,25 +50820,25 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K701" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L701" t="n">
         <v>12000</v>
       </c>
-      <c r="L701" t="n">
-        <v>13000</v>
-      </c>
       <c r="M701" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q701" t="n">
         <v>25</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50892,25 +50892,25 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K702" t="n">
         <v>10000</v>
       </c>
       <c r="L702" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M702" t="n">
-        <v>10496</v>
+        <v>10000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Q702" t="n">
         <v>25</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50964,16 +50964,16 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="K703" t="n">
         <v>11000</v>
@@ -50982,20 +50982,20 @@
         <v>12000</v>
       </c>
       <c r="M703" t="n">
-        <v>11500</v>
+        <v>11556</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q703" t="n">
         <v>25</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Puyehue</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K704" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L704" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M704" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="Q704" t="n">
         <v>25</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J705" t="n">
         <v>340</v>
       </c>
       <c r="K705" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L705" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M705" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="Q705" t="n">
         <v>25</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51185,20 +51185,20 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="K706" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L706" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M706" t="n">
-        <v>9500</v>
+        <v>10496</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q706" t="n">
         <v>25</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51252,25 +51252,25 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K707" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L707" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M707" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="Q707" t="n">
         <v>25</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51324,25 +51324,25 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K708" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L708" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M708" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="Q708" t="n">
         <v>25</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51408,13 +51408,13 @@
         <v>340</v>
       </c>
       <c r="K709" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L709" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M709" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q709" t="n">
         <v>25</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K710" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L710" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M710" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q710" t="n">
         <v>25</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51545,33 +51545,33 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K711" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L711" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M711" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="Q711" t="n">
         <v>25</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,29 +51612,29 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K712" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L712" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M712" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q712" t="n">
         <v>25</v>
@@ -51684,38 +51684,38 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K713" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L713" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M713" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q713" t="n">
         <v>25</v>
@@ -51756,25 +51756,25 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K714" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L714" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M714" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q714" t="n">
         <v>25</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K715" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L715" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M715" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="Q715" t="n">
         <v>25</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K716" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L716" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M716" t="n">
-        <v>10000</v>
+        <v>7250</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="Q716" t="n">
         <v>25</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51972,38 +51972,38 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K717" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L717" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M717" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="Q717" t="n">
         <v>25</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K718" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L718" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M718" t="n">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q718" t="n">
         <v>25</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K719" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L719" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M719" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="Q719" t="n">
         <v>25</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52188,12 +52188,12 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J720" t="n">
@@ -52215,7 +52215,7 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P720" t="n">
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52260,38 +52260,38 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K721" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L721" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M721" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q721" t="n">
         <v>25</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,38 +52332,38 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J722" t="n">
         <v>250</v>
       </c>
       <c r="K722" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L722" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M722" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="Q722" t="n">
         <v>25</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52404,25 +52404,25 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K723" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L723" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M723" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q723" t="n">
         <v>25</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52476,25 +52476,25 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K724" t="n">
         <v>10000</v>
       </c>
       <c r="L724" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M724" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Q724" t="n">
         <v>25</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52557,16 +52557,16 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K725" t="n">
         <v>8000</v>
       </c>
       <c r="L725" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M725" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q725" t="n">
         <v>25</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52625,11 +52625,11 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K726" t="n">
         <v>7500</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52692,16 +52692,16 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K727" t="n">
         <v>6500</v>
@@ -52719,7 +52719,7 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P727" t="n">
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52764,38 +52764,38 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="K728" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L728" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M728" t="n">
-        <v>6750</v>
+        <v>10500</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="Q728" t="n">
         <v>25</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52836,29 +52836,29 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>430</v>
+        <v>196</v>
       </c>
       <c r="K729" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L729" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M729" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,7 +52867,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="Q729" t="n">
         <v>25</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52913,24 +52913,24 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K730" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L730" t="n">
         <v>8000</v>
       </c>
-      <c r="L730" t="n">
-        <v>9000</v>
-      </c>
       <c r="M730" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O730" t="inlineStr">
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q730" t="n">
         <v>25</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52980,38 +52980,38 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K731" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L731" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M731" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q731" t="n">
         <v>25</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53052,25 +53052,25 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K732" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L732" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M732" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="Q732" t="n">
         <v>25</v>
@@ -53124,25 +53124,25 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K733" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L733" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M733" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q733" t="n">
         <v>25</v>
@@ -53196,25 +53196,25 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K734" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L734" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M734" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q734" t="n">
         <v>25</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53277,16 +53277,16 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="K735" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L735" t="n">
         <v>12000</v>
       </c>
-      <c r="L735" t="n">
-        <v>13000</v>
-      </c>
       <c r="M735" t="n">
-        <v>12444</v>
+        <v>11500</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="Q735" t="n">
         <v>25</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K736" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L736" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M736" t="n">
-        <v>12516</v>
+        <v>9500</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>501</v>
+        <v>380</v>
       </c>
       <c r="Q736" t="n">
         <v>25</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53412,38 +53412,38 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="K737" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L737" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M737" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="Q737" t="n">
         <v>25</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53484,25 +53484,25 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="K738" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L738" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M738" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53511,11 +53511,11 @@
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="Q738" t="n">
         <v>25</v>
@@ -53561,33 +53561,33 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K739" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L739" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M739" t="n">
-        <v>9000</v>
+        <v>12444</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>360</v>
+        <v>498</v>
       </c>
       <c r="Q739" t="n">
         <v>25</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53637,29 +53637,29 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="K740" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L740" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M740" t="n">
-        <v>14000</v>
+        <v>12516</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>560</v>
+        <v>501</v>
       </c>
       <c r="Q740" t="n">
         <v>25</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53705,33 +53705,33 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="K741" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L741" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M741" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="Q741" t="n">
         <v>25</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K742" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L742" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M742" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="Q742" t="n">
         <v>25</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53849,20 +53849,20 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K743" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L743" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M743" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="Q743" t="n">
         <v>25</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53921,20 +53921,20 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J744" t="n">
         <v>340</v>
       </c>
       <c r="K744" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L744" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M744" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="Q744" t="n">
         <v>25</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53988,38 +53988,38 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K745" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L745" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M745" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="Q745" t="n">
         <v>25</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54065,24 +54065,24 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K746" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L746" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M746" t="n">
-        <v>7750</v>
+        <v>13000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Q746" t="n">
         <v>25</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54132,25 +54132,25 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K747" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L747" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M747" t="n">
-        <v>6750</v>
+        <v>13000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>270</v>
+        <v>520</v>
       </c>
       <c r="Q747" t="n">
         <v>25</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54209,20 +54209,20 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K748" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L748" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M748" t="n">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="Q748" t="n">
         <v>25</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54288,13 +54288,13 @@
         <v>250</v>
       </c>
       <c r="K749" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L749" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M749" t="n">
-        <v>8250</v>
+        <v>7000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="Q749" t="n">
         <v>25</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,24 +54353,24 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K750" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L750" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M750" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q750" t="n">
         <v>25</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54420,29 +54420,29 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K751" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L751" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M751" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q751" t="n">
         <v>25</v>
@@ -54492,38 +54492,38 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K752" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L752" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M752" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q752" t="n">
         <v>25</v>
@@ -54564,25 +54564,25 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K753" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L753" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M753" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="Q753" t="n">
         <v>25</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,24 +54641,24 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K754" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L754" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M754" t="n">
-        <v>7750</v>
+        <v>7000</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O754" t="inlineStr">
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="Q754" t="n">
         <v>25</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54713,33 +54713,33 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K755" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L755" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M755" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q755" t="n">
         <v>25</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54780,25 +54780,25 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K756" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L756" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M756" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q756" t="n">
         <v>25</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54852,29 +54852,29 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K757" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L757" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M757" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="Q757" t="n">
         <v>25</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54924,38 +54924,38 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K758" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L758" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M758" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="Q758" t="n">
         <v>25</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="K759" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L759" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M759" t="n">
-        <v>12417</v>
+        <v>6750</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>497</v>
+        <v>270</v>
       </c>
       <c r="Q759" t="n">
         <v>25</v>
@@ -55053,58 +55053,346 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="E760" t="n">
+        <v>13</v>
+      </c>
+      <c r="F760" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>Red Lady</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J760" t="n">
+        <v>340</v>
+      </c>
+      <c r="K760" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L760" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M760" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N760" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O760" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P760" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q760" t="n">
+        <v>25</v>
+      </c>
+      <c r="R760" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>9</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D761" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E761" t="n">
+        <v>13</v>
+      </c>
+      <c r="F761" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>1a (guarda lavada)</t>
+        </is>
+      </c>
+      <c r="J761" t="n">
+        <v>340</v>
+      </c>
+      <c r="K761" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L761" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M761" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N761" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O761" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P761" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q761" t="n">
+        <v>25</v>
+      </c>
+      <c r="R761" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>9</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D762" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E762" t="n">
+        <v>13</v>
+      </c>
+      <c r="F762" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>Patagonia</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J762" t="n">
+        <v>250</v>
+      </c>
+      <c r="K762" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L762" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M762" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N762" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O762" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P762" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q762" t="n">
+        <v>25</v>
+      </c>
+      <c r="R762" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>9</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D763" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E760" t="n">
-        <v>13</v>
-      </c>
-      <c r="F760" t="n">
-        <v>100114001</v>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>Papa</t>
-        </is>
-      </c>
-      <c r="H760" t="inlineStr">
+      <c r="E763" t="n">
+        <v>13</v>
+      </c>
+      <c r="F763" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>Pukará</t>
+        </is>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J763" t="n">
+        <v>480</v>
+      </c>
+      <c r="K763" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L763" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M763" t="n">
+        <v>12417</v>
+      </c>
+      <c r="N763" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O763" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P763" t="n">
+        <v>497</v>
+      </c>
+      <c r="Q763" t="n">
+        <v>25</v>
+      </c>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>9</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D764" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E764" t="n">
+        <v>13</v>
+      </c>
+      <c r="F764" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
         <is>
           <t>Rosara</t>
         </is>
       </c>
-      <c r="I760" t="inlineStr">
+      <c r="I764" t="inlineStr">
         <is>
           <t>1a nueva(o)</t>
         </is>
       </c>
-      <c r="J760" t="n">
+      <c r="J764" t="n">
         <v>300</v>
       </c>
-      <c r="K760" t="n">
+      <c r="K764" t="n">
         <v>13000</v>
       </c>
-      <c r="L760" t="n">
+      <c r="L764" t="n">
         <v>14000</v>
       </c>
-      <c r="M760" t="n">
+      <c r="M764" t="n">
         <v>13333</v>
       </c>
-      <c r="N760" t="inlineStr">
+      <c r="N764" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O760" t="inlineStr">
+      <c r="O764" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P760" t="n">
+      <c r="P764" t="n">
         <v>533</v>
       </c>
-      <c r="Q760" t="n">
-        <v>25</v>
-      </c>
-      <c r="R760" t="inlineStr">
+      <c r="Q764" t="n">
+        <v>25</v>
+      </c>
+      <c r="R764" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R816"/>
+  <dimension ref="A1:R820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45216,13 +45216,13 @@
         <v>430</v>
       </c>
       <c r="K623" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L623" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M623" t="n">
-        <v>8250</v>
+        <v>11500</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="Q623" t="n">
         <v>25</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K624" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L624" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="M624" t="n">
-        <v>7250</v>
+        <v>9500</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="Q624" t="n">
         <v>25</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45348,29 +45348,29 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K625" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L625" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M625" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O625" t="inlineStr">
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="Q625" t="n">
         <v>25</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45420,38 +45420,38 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K626" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L626" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M626" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="Q626" t="n">
         <v>25</v>
@@ -45492,38 +45492,38 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K627" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L627" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M627" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="Q627" t="n">
         <v>25</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K628" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L628" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M628" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q628" t="n">
         <v>25</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45641,24 +45641,24 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K629" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L629" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M629" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="Q629" t="n">
         <v>25</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45708,38 +45708,38 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K630" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L630" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M630" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="Q630" t="n">
         <v>25</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45780,29 +45780,29 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K631" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L631" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M631" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q631" t="n">
         <v>25</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45852,25 +45852,25 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K632" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L632" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M632" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="Q632" t="n">
         <v>25</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K633" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L633" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M633" t="n">
-        <v>9250</v>
+        <v>11500</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="Q633" t="n">
         <v>25</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -46008,13 +46008,13 @@
         <v>250</v>
       </c>
       <c r="K634" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L634" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M634" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="Q634" t="n">
         <v>25</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46068,38 +46068,38 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K635" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L635" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M635" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="Q635" t="n">
         <v>25</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46140,38 +46140,38 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K636" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L636" t="n">
         <v>9000</v>
       </c>
       <c r="M636" t="n">
-        <v>8750</v>
+        <v>8500</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q636" t="n">
         <v>25</v>
@@ -46212,29 +46212,29 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J637" t="n">
         <v>340</v>
       </c>
       <c r="K637" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L637" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="M637" t="n">
-        <v>7750</v>
+        <v>9250</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O637" t="inlineStr">
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="Q637" t="n">
         <v>25</v>
@@ -46284,25 +46284,25 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K638" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L638" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M638" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="Q638" t="n">
         <v>25</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46361,24 +46361,24 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K639" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L639" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M639" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q639" t="n">
         <v>25</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46428,29 +46428,29 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K640" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L640" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M640" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q640" t="n">
         <v>25</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46500,25 +46500,25 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K641" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L641" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M641" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q641" t="n">
         <v>25</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46572,38 +46572,38 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K642" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L642" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M642" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="Q642" t="n">
         <v>25</v>
@@ -46644,38 +46644,38 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J643" t="n">
         <v>340</v>
       </c>
       <c r="K643" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L643" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M643" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q643" t="n">
         <v>25</v>
@@ -46716,25 +46716,25 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K644" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L644" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M644" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q644" t="n">
         <v>25</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46793,24 +46793,24 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="K645" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L645" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M645" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="Q645" t="n">
         <v>25</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46860,29 +46860,29 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K646" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L646" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M646" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q646" t="n">
         <v>25</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,16 +46932,16 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K647" t="n">
         <v>6500</v>
@@ -46959,7 +46959,7 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P647" t="n">
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44385</v>
+        <v>44414</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47004,38 +47004,38 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K648" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L648" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M648" t="n">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="Q648" t="n">
         <v>25</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47081,24 +47081,24 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K649" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L649" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M649" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q649" t="n">
         <v>25</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47148,25 +47148,25 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K650" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L650" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M650" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="Q650" t="n">
         <v>25</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47220,29 +47220,29 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K651" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L651" t="n">
         <v>7000</v>
       </c>
-      <c r="L651" t="n">
-        <v>7500</v>
-      </c>
       <c r="M651" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q651" t="n">
         <v>25</v>
@@ -47292,38 +47292,38 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K652" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L652" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M652" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q652" t="n">
         <v>25</v>
@@ -47364,25 +47364,25 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K653" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L653" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M653" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q653" t="n">
         <v>25</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47441,24 +47441,24 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K654" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L654" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M654" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O654" t="inlineStr">
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="Q654" t="n">
         <v>25</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,33 +47513,33 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K655" t="n">
         <v>7000</v>
       </c>
       <c r="L655" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M655" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q655" t="n">
         <v>25</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47580,38 +47580,38 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K656" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L656" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M656" t="n">
-        <v>7750</v>
+        <v>6250</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="Q656" t="n">
         <v>25</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K657" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L657" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M657" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q657" t="n">
         <v>25</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47724,38 +47724,38 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K658" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L658" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M658" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q658" t="n">
         <v>25</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47796,38 +47796,38 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K659" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L659" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M659" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="Q659" t="n">
         <v>25</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47868,38 +47868,38 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K660" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L660" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M660" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q660" t="n">
         <v>25</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K661" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L661" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M661" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="Q661" t="n">
         <v>25</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="K662" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L662" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M662" t="n">
-        <v>10490</v>
+        <v>6750</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q662" t="n">
         <v>25</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K663" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L663" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M663" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="Q663" t="n">
         <v>25</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44474</v>
+        <v>44281</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K664" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L664" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M664" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="Q664" t="n">
         <v>25</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48228,38 +48228,38 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K665" t="n">
         <v>11000</v>
       </c>
       <c r="L665" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M665" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="Q665" t="n">
         <v>25</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>196</v>
+        <v>490</v>
       </c>
       <c r="K666" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L666" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M666" t="n">
-        <v>9500</v>
+        <v>10490</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q666" t="n">
         <v>25</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K667" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L667" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M667" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="Q667" t="n">
         <v>25</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48453,16 +48453,16 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="K668" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L668" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M668" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q668" t="n">
         <v>25</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48525,16 +48525,16 @@
         </is>
       </c>
       <c r="J669" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K669" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L669" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M669" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q669" t="n">
         <v>25</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K670" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L670" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M670" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="Q670" t="n">
         <v>25</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>2400</v>
+        <v>340</v>
       </c>
       <c r="K671" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L671" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M671" t="n">
-        <v>6250</v>
+        <v>9500</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="Q671" t="n">
         <v>25</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>1200</v>
+        <v>196</v>
       </c>
       <c r="K672" t="n">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="L672" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M672" t="n">
-        <v>6433</v>
+        <v>7500</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="Q672" t="n">
         <v>25</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,38 +48804,38 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>2500</v>
+        <v>430</v>
       </c>
       <c r="K673" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L673" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M673" t="n">
-        <v>6240</v>
+        <v>8500</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q673" t="n">
         <v>25</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="K674" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L674" t="n">
         <v>7000</v>
       </c>
-      <c r="L674" t="n">
-        <v>7500</v>
-      </c>
       <c r="M674" t="n">
-        <v>7300</v>
+        <v>6500</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="Q674" t="n">
         <v>25</v>
@@ -48953,33 +48953,33 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="K675" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L675" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M675" t="n">
-        <v>5767</v>
+        <v>6250</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="Q675" t="n">
         <v>25</v>
@@ -49020,25 +49020,25 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K676" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="L676" t="n">
         <v>6500</v>
       </c>
       <c r="M676" t="n">
-        <v>6286</v>
+        <v>6433</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q676" t="n">
         <v>25</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Karú</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K677" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="L677" t="n">
         <v>6500</v>
       </c>
       <c r="M677" t="n">
-        <v>6400</v>
+        <v>6240</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q677" t="n">
         <v>25</v>
@@ -49164,25 +49164,25 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Karú</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K678" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L678" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M678" t="n">
-        <v>5000</v>
+        <v>7300</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="Q678" t="n">
         <v>25</v>
@@ -49236,25 +49236,25 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K679" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L679" t="n">
         <v>6000</v>
       </c>
-      <c r="L679" t="n">
-        <v>6500</v>
-      </c>
       <c r="M679" t="n">
-        <v>6308</v>
+        <v>5767</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="Q679" t="n">
         <v>25</v>
@@ -49308,38 +49308,38 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>1580</v>
+        <v>1400</v>
       </c>
       <c r="K680" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L680" t="n">
         <v>6500</v>
       </c>
-      <c r="L680" t="n">
-        <v>8000</v>
-      </c>
       <c r="M680" t="n">
-        <v>6801</v>
+        <v>6286</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="Q680" t="n">
         <v>25</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Karú</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>180</v>
+        <v>1600</v>
       </c>
       <c r="K681" t="n">
+        <v>6300</v>
+      </c>
+      <c r="L681" t="n">
         <v>6500</v>
       </c>
-      <c r="L681" t="n">
-        <v>7000</v>
-      </c>
       <c r="M681" t="n">
-        <v>6750</v>
+        <v>6400</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="Q681" t="n">
         <v>25</v>
@@ -49452,38 +49452,38 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Karú</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K682" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="L682" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M682" t="n">
-        <v>6377</v>
+        <v>5000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="Q682" t="n">
         <v>25</v>
@@ -49524,16 +49524,16 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K683" t="n">
         <v>6000</v>
@@ -49542,11 +49542,11 @@
         <v>6500</v>
       </c>
       <c r="M683" t="n">
-        <v>6250</v>
+        <v>6308</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q683" t="n">
         <v>25</v>
@@ -49596,29 +49596,29 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>2200</v>
+        <v>1580</v>
       </c>
       <c r="K684" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L684" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M684" t="n">
-        <v>6227</v>
+        <v>6801</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="Q684" t="n">
         <v>25</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,7 +49677,7 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="K685" t="n">
         <v>6500</v>
@@ -49695,7 +49695,7 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P685" t="n">
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49740,25 +49740,25 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="K686" t="n">
-        <v>11000</v>
+        <v>6300</v>
       </c>
       <c r="L686" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="M686" t="n">
-        <v>11500</v>
+        <v>6377</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>460</v>
+        <v>255</v>
       </c>
       <c r="Q686" t="n">
         <v>25</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49812,38 +49812,38 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>106</v>
+        <v>2400</v>
       </c>
       <c r="K687" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L687" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M687" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="Q687" t="n">
         <v>25</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49884,38 +49884,38 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>250</v>
+        <v>2200</v>
       </c>
       <c r="K688" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L688" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M688" t="n">
-        <v>8750</v>
+        <v>6227</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="Q688" t="n">
         <v>25</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,25 +49956,25 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K689" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L689" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M689" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q689" t="n">
         <v>25</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50028,29 +50028,29 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K690" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L690" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M690" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="Q690" t="n">
         <v>25</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,38 +50100,38 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K691" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L691" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M691" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="Q691" t="n">
         <v>25</v>
@@ -50172,38 +50172,38 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J692" t="n">
         <v>250</v>
       </c>
       <c r="K692" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L692" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M692" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q692" t="n">
         <v>25</v>
@@ -50244,25 +50244,25 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J693" t="n">
         <v>160</v>
       </c>
       <c r="K693" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L693" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M693" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q693" t="n">
         <v>25</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50321,24 +50321,24 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K694" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L694" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M694" t="n">
-        <v>8750</v>
+        <v>7000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q694" t="n">
         <v>25</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50388,16 +50388,16 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K695" t="n">
         <v>7500</v>
@@ -50410,12 +50410,12 @@
       </c>
       <c r="N695" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P695" t="n">
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K696" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L696" t="n">
         <v>7000</v>
       </c>
       <c r="M696" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q696" t="n">
         <v>25</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50532,29 +50532,29 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K697" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L697" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M697" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="Q697" t="n">
         <v>25</v>
@@ -50604,38 +50604,38 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J698" t="n">
         <v>340</v>
       </c>
       <c r="K698" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L698" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M698" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q698" t="n">
         <v>25</v>
@@ -50676,25 +50676,25 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K699" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L699" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M699" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q699" t="n">
         <v>25</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50753,33 +50753,33 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K700" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L700" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M700" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="Q700" t="n">
         <v>25</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,38 +50820,38 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>170</v>
+        <v>430</v>
       </c>
       <c r="K701" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L701" t="n">
         <v>8000</v>
       </c>
       <c r="M701" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q701" t="n">
         <v>25</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44257</v>
+        <v>44413</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50892,38 +50892,38 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K702" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L702" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M702" t="n">
-        <v>10000</v>
+        <v>6750</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="Q702" t="n">
         <v>25</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44257</v>
+        <v>44413</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50964,25 +50964,25 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K703" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L703" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M703" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="Q703" t="n">
         <v>25</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44411</v>
+        <v>44238</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51041,20 +51041,20 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K704" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L704" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M704" t="n">
-        <v>8750</v>
+        <v>10000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q704" t="n">
         <v>25</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44411</v>
+        <v>44238</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,25 +51108,25 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="K705" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L705" t="n">
         <v>8000</v>
       </c>
       <c r="M705" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q705" t="n">
         <v>25</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51185,24 +51185,24 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="K706" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L706" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M706" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="Q706" t="n">
         <v>25</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51252,38 +51252,38 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K707" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L707" t="n">
         <v>8000</v>
       </c>
       <c r="M707" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q707" t="n">
         <v>25</v>
@@ -51324,38 +51324,38 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K708" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L708" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M708" t="n">
-        <v>6750</v>
+        <v>8750</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q708" t="n">
         <v>25</v>
@@ -51396,25 +51396,25 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K709" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L709" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M709" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q709" t="n">
         <v>25</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51473,24 +51473,24 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="K710" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L710" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M710" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="Q710" t="n">
         <v>25</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51540,38 +51540,38 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K711" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L711" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M711" t="n">
-        <v>10000</v>
+        <v>7750</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="Q711" t="n">
         <v>25</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,38 +51612,38 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J712" t="n">
         <v>250</v>
       </c>
       <c r="K712" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L712" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M712" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="Q712" t="n">
         <v>25</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44196</v>
+        <v>44411</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51684,38 +51684,38 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>340</v>
+        <v>61</v>
       </c>
       <c r="K713" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L713" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M713" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="Q713" t="n">
         <v>25</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51765,16 +51765,16 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="K714" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L714" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M714" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="Q714" t="n">
         <v>25</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51837,16 +51837,16 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K715" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L715" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M715" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="Q715" t="n">
         <v>25</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51900,29 +51900,29 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J716" t="n">
         <v>250</v>
       </c>
       <c r="K716" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L716" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M716" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="Q716" t="n">
         <v>25</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51984,13 +51984,13 @@
         <v>340</v>
       </c>
       <c r="K717" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L717" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M717" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="Q717" t="n">
         <v>25</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52049,24 +52049,24 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K718" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L718" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M718" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="Q718" t="n">
         <v>25</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44459</v>
+        <v>44196</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52116,38 +52116,38 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J719" t="n">
         <v>250</v>
       </c>
       <c r="K719" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L719" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M719" t="n">
-        <v>8750</v>
+        <v>13000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>350</v>
+        <v>520</v>
       </c>
       <c r="Q719" t="n">
         <v>25</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44459</v>
+        <v>44196</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52188,25 +52188,25 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K720" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L720" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M720" t="n">
-        <v>7752</v>
+        <v>13000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Q720" t="n">
         <v>25</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52265,11 +52265,11 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K721" t="n">
         <v>13000</v>
@@ -52278,20 +52278,20 @@
         <v>14000</v>
       </c>
       <c r="M721" t="n">
-        <v>13455</v>
+        <v>13500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="Q721" t="n">
         <v>25</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,7 +52332,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -52341,16 +52341,16 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K722" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L722" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M722" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="Q722" t="n">
         <v>25</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52404,25 +52404,25 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K723" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="L723" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M723" t="n">
-        <v>10000</v>
+        <v>8750</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="Q723" t="n">
         <v>25</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K724" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L724" t="n">
         <v>8000</v>
       </c>
       <c r="M724" t="n">
-        <v>8000</v>
+        <v>7752</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q724" t="n">
         <v>25</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44298</v>
+        <v>44188</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52553,24 +52553,24 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K725" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L725" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M725" t="n">
-        <v>8500</v>
+        <v>13455</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>340</v>
+        <v>538</v>
       </c>
       <c r="Q725" t="n">
         <v>25</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44298</v>
+        <v>44188</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52620,25 +52620,25 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K726" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L726" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M726" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>320</v>
+        <v>540</v>
       </c>
       <c r="Q726" t="n">
         <v>25</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44432</v>
+        <v>44258</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52707,10 +52707,10 @@
         <v>10000</v>
       </c>
       <c r="L727" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M727" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Q727" t="n">
         <v>25</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44432</v>
+        <v>44258</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K728" t="n">
         <v>8000</v>
       </c>
       <c r="L728" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M728" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="Q728" t="n">
         <v>25</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52841,20 +52841,20 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J729" t="n">
         <v>340</v>
       </c>
       <c r="K729" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L729" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M729" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q729" t="n">
         <v>25</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52913,20 +52913,20 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K730" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L730" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M730" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="Q730" t="n">
         <v>25</v>
@@ -52980,25 +52980,25 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K731" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L731" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M731" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q731" t="n">
         <v>25</v>
@@ -53052,25 +53052,25 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K732" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L732" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M732" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q732" t="n">
         <v>25</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,11 +53129,11 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K733" t="n">
         <v>11000</v>
@@ -53151,7 +53151,7 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P733" t="n">
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53201,7 +53201,7 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J734" t="n">
@@ -53223,7 +53223,7 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P734" t="n">
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53268,38 +53268,38 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K735" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L735" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M735" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="Q735" t="n">
         <v>25</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53340,29 +53340,29 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="K736" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L736" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M736" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O736" t="inlineStr">
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="Q736" t="n">
         <v>25</v>
@@ -53412,38 +53412,38 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K737" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L737" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M737" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="Q737" t="n">
         <v>25</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,24 +53489,24 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K738" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L738" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M738" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="Q738" t="n">
         <v>25</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K739" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L739" t="n">
         <v>7000</v>
       </c>
       <c r="M739" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q739" t="n">
         <v>25</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53628,38 +53628,38 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K740" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L740" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M740" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="Q740" t="n">
         <v>25</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44329</v>
+        <v>44428</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53700,38 +53700,38 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="K741" t="n">
         <v>8000</v>
       </c>
       <c r="L741" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M741" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="Q741" t="n">
         <v>25</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53772,38 +53772,38 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K742" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L742" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M742" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q742" t="n">
         <v>25</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53844,16 +53844,16 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K743" t="n">
         <v>6500</v>
@@ -53871,7 +53871,7 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P743" t="n">
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44452</v>
+        <v>44224</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53916,38 +53916,38 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K744" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L744" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M744" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="Q744" t="n">
         <v>25</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53988,38 +53988,38 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K745" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L745" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M745" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="Q745" t="n">
         <v>25</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54060,38 +54060,38 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K746" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L746" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M746" t="n">
-        <v>8000</v>
+        <v>6750</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="Q746" t="n">
         <v>25</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54132,7 +54132,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K747" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L747" t="n">
         <v>7000</v>
       </c>
       <c r="M747" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q747" t="n">
         <v>25</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44195</v>
+        <v>44452</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54204,25 +54204,25 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J748" t="n">
         <v>340</v>
       </c>
       <c r="K748" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L748" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M748" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="Q748" t="n">
         <v>25</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44195</v>
+        <v>44452</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54276,38 +54276,38 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K749" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L749" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M749" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="Q749" t="n">
         <v>25</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,24 +54353,24 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K750" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L750" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M750" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="Q750" t="n">
         <v>25</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K751" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L751" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M751" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="Q751" t="n">
         <v>25</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54492,25 +54492,25 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K752" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L752" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M752" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="Q752" t="n">
         <v>25</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54564,38 +54564,38 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>106</v>
+        <v>430</v>
       </c>
       <c r="K753" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L753" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M753" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="Q753" t="n">
         <v>25</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,24 +54641,24 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="K754" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L754" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M754" t="n">
-        <v>9750</v>
+        <v>13000</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O754" t="inlineStr">
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="Q754" t="n">
         <v>25</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54717,16 +54717,16 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K755" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L755" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="M755" t="n">
-        <v>8250</v>
+        <v>13000</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>330</v>
+        <v>520</v>
       </c>
       <c r="Q755" t="n">
         <v>25</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54780,38 +54780,38 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K756" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L756" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M756" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="Q756" t="n">
         <v>25</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54857,33 +54857,33 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K757" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L757" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M757" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q757" t="n">
         <v>25</v>
@@ -54924,38 +54924,38 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K758" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L758" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M758" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="Q758" t="n">
         <v>25</v>
@@ -54996,25 +54996,25 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K759" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L759" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M759" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="Q759" t="n">
         <v>25</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55068,29 +55068,29 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Karú</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K760" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L760" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M760" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
@@ -55099,7 +55099,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="Q760" t="n">
         <v>25</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55140,38 +55140,38 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Karú</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K761" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L761" t="n">
         <v>9000</v>
       </c>
-      <c r="L761" t="n">
-        <v>10000</v>
-      </c>
       <c r="M761" t="n">
-        <v>9500</v>
+        <v>8750</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q761" t="n">
         <v>25</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44302</v>
+        <v>44398</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55212,38 +55212,38 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K762" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L762" t="n">
         <v>8000</v>
       </c>
-      <c r="L762" t="n">
-        <v>8500</v>
-      </c>
       <c r="M762" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="Q762" t="n">
         <v>25</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44302</v>
+        <v>44398</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55284,25 +55284,25 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K763" t="n">
         <v>7000</v>
       </c>
       <c r="L763" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="M763" t="n">
-        <v>7250</v>
+        <v>7000</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="Q763" t="n">
         <v>25</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55356,38 +55356,38 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Karú</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J764" t="n">
         <v>250</v>
       </c>
       <c r="K764" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L764" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="M764" t="n">
-        <v>7250</v>
+        <v>11500</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>290</v>
+        <v>460</v>
       </c>
       <c r="Q764" t="n">
         <v>25</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55428,29 +55428,29 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Karú</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K765" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L765" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M765" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="Q765" t="n">
         <v>25</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55505,24 +55505,24 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K766" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L766" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="M766" t="n">
-        <v>9500</v>
+        <v>8250</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="Q766" t="n">
         <v>25</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55572,38 +55572,38 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J767" t="n">
         <v>250</v>
       </c>
       <c r="K767" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L767" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M767" t="n">
-        <v>11500</v>
+        <v>7250</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="Q767" t="n">
         <v>25</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55644,25 +55644,25 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K768" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L768" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M768" t="n">
-        <v>9500</v>
+        <v>7250</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="Q768" t="n">
         <v>25</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K769" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L769" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M769" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="Q769" t="n">
         <v>25</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55788,25 +55788,25 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K770" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L770" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M770" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="Q770" t="n">
         <v>25</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44344</v>
+        <v>44511</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55860,7 +55860,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K771" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L771" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M771" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q771" t="n">
         <v>25</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44344</v>
+        <v>44511</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55932,25 +55932,25 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="K772" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L772" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M772" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q772" t="n">
         <v>25</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56004,29 +56004,29 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="K773" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L773" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M773" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="Q773" t="n">
         <v>25</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44461</v>
+        <v>44239</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56076,38 +56076,38 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J774" t="n">
         <v>340</v>
       </c>
       <c r="K774" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L774" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M774" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="Q774" t="n">
         <v>25</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,24 +56153,24 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="K775" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L775" t="n">
         <v>8000</v>
       </c>
-      <c r="L775" t="n">
-        <v>9000</v>
-      </c>
       <c r="M775" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="Q775" t="n">
         <v>25</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56220,29 +56220,29 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K776" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L776" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M776" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="Q776" t="n">
         <v>25</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="K777" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L777" t="n">
         <v>7000</v>
       </c>
-      <c r="L777" t="n">
-        <v>8000</v>
-      </c>
       <c r="M777" t="n">
-        <v>7496</v>
+        <v>6750</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q777" t="n">
         <v>25</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56445,7 +56445,7 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K779" t="n">
         <v>8000</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56517,16 +56517,16 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K780" t="n">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="L780" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M780" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="Q780" t="n">
         <v>25</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56589,7 +56589,7 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="K781" t="n">
         <v>7000</v>
@@ -56598,7 +56598,7 @@
         <v>8000</v>
       </c>
       <c r="M781" t="n">
-        <v>7500</v>
+        <v>7496</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,7 +56607,7 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P781" t="n">
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56652,25 +56652,25 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J782" t="n">
         <v>340</v>
       </c>
       <c r="K782" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L782" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M782" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="Q782" t="n">
         <v>25</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56724,25 +56724,25 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K783" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L783" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M783" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q783" t="n">
         <v>25</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56801,24 +56801,24 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K784" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="L784" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M784" t="n">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
@@ -56827,7 +56827,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q784" t="n">
         <v>25</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44371</v>
+        <v>44463</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56868,38 +56868,38 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K785" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L785" t="n">
         <v>8000</v>
       </c>
-      <c r="L785" t="n">
-        <v>8500</v>
-      </c>
       <c r="M785" t="n">
-        <v>8250</v>
+        <v>7500</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="Q785" t="n">
         <v>25</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56940,38 +56940,38 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K786" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L786" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M786" t="n">
-        <v>7250</v>
+        <v>7750</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q786" t="n">
         <v>25</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,24 +57017,24 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K787" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L787" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M787" t="n">
-        <v>7250</v>
+        <v>6250</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O787" t="inlineStr">
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="Q787" t="n">
         <v>25</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57084,7 +57084,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -57093,7 +57093,7 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K788" t="n">
         <v>6000</v>
@@ -57111,7 +57111,7 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P788" t="n">
@@ -57156,38 +57156,38 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K789" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L789" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M789" t="n">
-        <v>5000</v>
+        <v>8250</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Q789" t="n">
         <v>25</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57233,24 +57233,24 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K790" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L790" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M790" t="n">
-        <v>8250</v>
+        <v>7250</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="Q790" t="n">
         <v>25</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57300,16 +57300,16 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K791" t="n">
         <v>7000</v>
@@ -57322,12 +57322,12 @@
       </c>
       <c r="N791" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P791" t="n">
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57372,25 +57372,25 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K792" t="n">
         <v>6000</v>
       </c>
       <c r="L792" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M792" t="n">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q792" t="n">
         <v>25</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57449,33 +57449,33 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="K793" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L793" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M793" t="n">
-        <v>7241</v>
+        <v>5000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="Q793" t="n">
         <v>25</v>
@@ -57516,38 +57516,38 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="K794" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L794" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M794" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q794" t="n">
         <v>25</v>
@@ -57588,25 +57588,25 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="K795" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L795" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M795" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q795" t="n">
         <v>25</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57665,24 +57665,24 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K796" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L796" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="M796" t="n">
-        <v>10250</v>
+        <v>6000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="Q796" t="n">
         <v>25</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57732,38 +57732,38 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="K797" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L797" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M797" t="n">
-        <v>8500</v>
+        <v>7241</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="Q797" t="n">
         <v>25</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57809,33 +57809,33 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J798" t="n">
+        <v>130</v>
+      </c>
+      <c r="K798" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L798" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M798" t="n">
+        <v>6250</v>
+      </c>
+      <c r="N798" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O798" t="inlineStr">
+        <is>
+          <t>Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="P798" t="n">
         <v>250</v>
-      </c>
-      <c r="K798" t="n">
-        <v>8000</v>
-      </c>
-      <c r="L798" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M798" t="n">
-        <v>8500</v>
-      </c>
-      <c r="N798" t="inlineStr">
-        <is>
-          <t>$/malla 25 kilos</t>
-        </is>
-      </c>
-      <c r="O798" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P798" t="n">
-        <v>340</v>
       </c>
       <c r="Q798" t="n">
         <v>25</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="K799" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L799" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M799" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="Q799" t="n">
         <v>25</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J800" t="n">
         <v>340</v>
       </c>
       <c r="K800" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L800" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M800" t="n">
-        <v>14000</v>
+        <v>10250</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>560</v>
+        <v>410</v>
       </c>
       <c r="Q800" t="n">
         <v>25</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,33 +58025,33 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>430</v>
+        <v>142</v>
       </c>
       <c r="K801" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L801" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M801" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>560</v>
+        <v>340</v>
       </c>
       <c r="Q801" t="n">
         <v>25</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58092,38 +58092,38 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J802" t="n">
         <v>250</v>
       </c>
       <c r="K802" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L802" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M802" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="Q802" t="n">
         <v>25</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58164,25 +58164,25 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K803" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L803" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M803" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="Q803" t="n">
         <v>25</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J804" t="n">
         <v>340</v>
       </c>
       <c r="K804" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L804" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M804" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="Q804" t="n">
         <v>25</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58308,38 +58308,38 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K805" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L805" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M805" t="n">
-        <v>6750</v>
+        <v>14000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>270</v>
+        <v>560</v>
       </c>
       <c r="Q805" t="n">
         <v>25</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58380,25 +58380,25 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J806" t="n">
         <v>250</v>
       </c>
       <c r="K806" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L806" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M806" t="n">
-        <v>6750</v>
+        <v>13000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>270</v>
+        <v>520</v>
       </c>
       <c r="Q806" t="n">
         <v>25</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,33 +58457,33 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K807" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L807" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M807" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="Q807" t="n">
         <v>25</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,24 +58529,24 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K808" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L808" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M808" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O808" t="inlineStr">
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="Q808" t="n">
         <v>25</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58596,38 +58596,38 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K809" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L809" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M809" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="Q809" t="n">
         <v>25</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58668,25 +58668,25 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K810" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L810" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M810" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q810" t="n">
         <v>25</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,7 +58889,7 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J813" t="n">
@@ -58911,7 +58911,7 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P813" t="n">
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J814" t="n">
         <v>160</v>
       </c>
       <c r="K814" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L814" t="n">
         <v>9000</v>
       </c>
-      <c r="L814" t="n">
-        <v>10000</v>
-      </c>
       <c r="M814" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q814" t="n">
         <v>25</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K815" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L815" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M815" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="Q815" t="n">
         <v>25</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59100,7 +59100,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -59112,31 +59112,319 @@
         <v>250</v>
       </c>
       <c r="K816" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L816" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M816" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N816" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O816" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P816" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q816" t="n">
+        <v>25</v>
+      </c>
+      <c r="R816" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>9</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D817" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E817" t="n">
+        <v>13</v>
+      </c>
+      <c r="F817" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>Patagonia</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>1a (nueva lavada)</t>
+        </is>
+      </c>
+      <c r="J817" t="n">
+        <v>340</v>
+      </c>
+      <c r="K817" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L817" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M817" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N817" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O817" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P817" t="n">
+        <v>460</v>
+      </c>
+      <c r="Q817" t="n">
+        <v>25</v>
+      </c>
+      <c r="R817" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>9</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D818" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E818" t="n">
+        <v>13</v>
+      </c>
+      <c r="F818" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>Patagonia</t>
+        </is>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J818" t="n">
+        <v>160</v>
+      </c>
+      <c r="K818" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L818" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M818" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N818" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O818" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P818" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q818" t="n">
+        <v>25</v>
+      </c>
+      <c r="R818" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>9</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D819" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E819" t="n">
+        <v>13</v>
+      </c>
+      <c r="F819" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>Asterix</t>
+        </is>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>1a (cosecha lavada)</t>
+        </is>
+      </c>
+      <c r="J819" t="n">
+        <v>340</v>
+      </c>
+      <c r="K819" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L819" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M819" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N819" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O819" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="P819" t="n">
+        <v>360</v>
+      </c>
+      <c r="Q819" t="n">
+        <v>25</v>
+      </c>
+      <c r="R819" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>9</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D820" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E820" t="n">
+        <v>13</v>
+      </c>
+      <c r="F820" t="n">
+        <v>100114001</v>
+      </c>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>Pukará</t>
+        </is>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J820" t="n">
+        <v>250</v>
+      </c>
+      <c r="K820" t="n">
         <v>7000</v>
       </c>
-      <c r="L816" t="n">
+      <c r="L820" t="n">
         <v>7000</v>
       </c>
-      <c r="M816" t="n">
+      <c r="M820" t="n">
         <v>7000</v>
       </c>
-      <c r="N816" t="inlineStr">
+      <c r="N820" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
         </is>
       </c>
-      <c r="O816" t="inlineStr">
+      <c r="O820" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P816" t="n">
+      <c r="P820" t="n">
         <v>280</v>
       </c>
-      <c r="Q816" t="n">
-        <v>25</v>
-      </c>
-      <c r="R816" t="inlineStr">
+      <c r="Q820" t="n">
+        <v>25</v>
+      </c>
+      <c r="R820" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Papa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R880"/>
+  <dimension ref="A1:R882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58968,13 +58968,13 @@
         <v>340</v>
       </c>
       <c r="K814" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L814" t="n">
         <v>12000</v>
       </c>
-      <c r="L814" t="n">
-        <v>13000</v>
-      </c>
       <c r="M814" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="Q814" t="n">
         <v>25</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59037,16 +59037,16 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="K815" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L815" t="n">
         <v>10000</v>
       </c>
-      <c r="L815" t="n">
-        <v>11000</v>
-      </c>
       <c r="M815" t="n">
-        <v>10497</v>
+        <v>9500</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Q815" t="n">
         <v>25</v>
@@ -59100,25 +59100,25 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K816" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L816" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M816" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="Q816" t="n">
         <v>25</v>
@@ -59172,25 +59172,25 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="K817" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L817" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M817" t="n">
-        <v>9500</v>
+        <v>10497</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q817" t="n">
         <v>25</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59244,25 +59244,25 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K818" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L818" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="M818" t="n">
-        <v>9250</v>
+        <v>11500</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="Q818" t="n">
         <v>25</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59316,25 +59316,25 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K819" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L819" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M819" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="Q819" t="n">
         <v>25</v>
@@ -59388,25 +59388,25 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K820" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L820" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="M820" t="n">
-        <v>8750</v>
+        <v>9250</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="Q820" t="n">
         <v>25</v>
@@ -59460,25 +59460,25 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K821" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L821" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M821" t="n">
-        <v>7752</v>
+        <v>8250</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="Q821" t="n">
         <v>25</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59532,25 +59532,25 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K822" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L822" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M822" t="n">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q822" t="n">
         <v>25</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59604,25 +59604,25 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="K823" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L823" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M823" t="n">
-        <v>10500</v>
+        <v>7752</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="Q823" t="n">
         <v>25</v>
@@ -59676,25 +59676,25 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K824" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L824" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M824" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="Q824" t="n">
         <v>25</v>
@@ -59748,25 +59748,25 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K825" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L825" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M825" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q825" t="n">
         <v>25</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59820,25 +59820,25 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K826" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L826" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M826" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="Q826" t="n">
         <v>25</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59892,25 +59892,25 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Patagonia</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K827" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L827" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M827" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="Q827" t="n">
         <v>25</v>
@@ -59964,38 +59964,38 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K828" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L828" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M828" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="Q828" t="n">
         <v>25</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60036,38 +60036,38 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Patagonia</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K829" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L829" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M829" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="Q829" t="n">
         <v>25</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60108,25 +60108,25 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K830" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L830" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M830" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="Q830" t="n">
         <v>25</v>
@@ -60180,38 +60180,38 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K831" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L831" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M831" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="Q831" t="n">
         <v>25</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60252,38 +60252,38 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K832" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L832" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M832" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="Q832" t="n">
         <v>25</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60324,7 +60324,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K833" t="n">
         <v>9000</v>
       </c>
       <c r="L833" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M833" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q833" t="n">
         <v>25</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K834" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L834" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M834" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="Q834" t="n">
         <v>25</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60480,13 +60480,13 @@
         <v>250</v>
       </c>
       <c r="K835" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L835" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M835" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="Q835" t="n">
         <v>25</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,24 +60545,24 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>570</v>
+        <v>340</v>
       </c>
       <c r="K836" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L836" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M836" t="n">
-        <v>11596</v>
+        <v>10000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>464</v>
+        <v>400</v>
       </c>
       <c r="Q836" t="n">
         <v>25</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60612,38 +60612,38 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J837" t="n">
         <v>250</v>
       </c>
       <c r="K837" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L837" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M837" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="Q837" t="n">
         <v>25</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>106</v>
+        <v>570</v>
       </c>
       <c r="K838" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L838" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M838" t="n">
-        <v>9500</v>
+        <v>11596</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>380</v>
+        <v>464</v>
       </c>
       <c r="Q838" t="n">
         <v>25</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K839" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L839" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M839" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q839" t="n">
         <v>25</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K840" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L840" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M840" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q840" t="n">
         <v>25</v>
@@ -60905,24 +60905,24 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K841" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L841" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M841" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q841" t="n">
         <v>25</v>
@@ -60972,38 +60972,38 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K842" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L842" t="n">
         <v>7000</v>
       </c>
-      <c r="L842" t="n">
-        <v>7500</v>
-      </c>
       <c r="M842" t="n">
-        <v>7250</v>
+        <v>6750</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q842" t="n">
         <v>25</v>
@@ -61044,25 +61044,25 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K843" t="n">
         <v>6000</v>
       </c>
       <c r="L843" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M843" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q843" t="n">
         <v>25</v>
@@ -61121,24 +61121,24 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K844" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L844" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M844" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O844" t="inlineStr">
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q844" t="n">
         <v>25</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61188,38 +61188,38 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K845" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L845" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M845" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Q845" t="n">
         <v>25</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61260,25 +61260,25 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K846" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L846" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M846" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q846" t="n">
         <v>25</v>
@@ -61332,38 +61332,38 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K847" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L847" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M847" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="Q847" t="n">
         <v>25</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61404,38 +61404,38 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K848" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L848" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M848" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="Q848" t="n">
         <v>25</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61503,7 +61503,7 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P849" t="n">
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K850" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L850" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M850" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="Q850" t="n">
         <v>25</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K851" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L851" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M851" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="Q851" t="n">
         <v>25</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61701,7 +61701,7 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K852" t="n">
         <v>11000</v>
@@ -61764,7 +61764,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Cardinal</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -61773,7 +61773,7 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K853" t="n">
         <v>9000</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61836,25 +61836,25 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J854" t="n">
         <v>340</v>
       </c>
       <c r="K854" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L854" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M854" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="Q854" t="n">
         <v>25</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61908,25 +61908,25 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Pukará</t>
+          <t>Cardinal</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K855" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L855" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M855" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q855" t="n">
         <v>25</v>
@@ -61980,38 +61980,38 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K856" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L856" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M856" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q856" t="n">
         <v>25</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62052,38 +62052,38 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Pukará</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K857" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L857" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M857" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q857" t="n">
         <v>25</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62124,16 +62124,16 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K858" t="n">
         <v>6500</v>
@@ -62151,7 +62151,7 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P858" t="n">
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J859" t="n">
         <v>340</v>
       </c>
       <c r="K859" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L859" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M859" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q859" t="n">
         <v>25</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K860" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L860" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M860" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="Q860" t="n">
         <v>25</v>
@@ -62340,25 +62340,25 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K861" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L861" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M861" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="Q861" t="n">
         <v>25</v>
@@ -62412,25 +62412,25 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Rodeo</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J862" t="n">
         <v>160</v>
       </c>
       <c r="K862" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L862" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M862" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q862" t="n">
         <v>25</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62484,16 +62484,16 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K863" t="n">
         <v>10000</v>
@@ -62511,7 +62511,7 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P863" t="n">
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62556,16 +62556,16 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="K864" t="n">
         <v>8000</v>
@@ -62583,7 +62583,7 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P864" t="n">
@@ -62628,25 +62628,25 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K865" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L865" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M865" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="Q865" t="n">
         <v>25</v>
@@ -62700,25 +62700,25 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K866" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L866" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M866" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región de Los Lagos</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="Q866" t="n">
         <v>25</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62772,25 +62772,25 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K867" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L867" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M867" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62799,11 +62799,11 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="Q867" t="n">
         <v>25</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62844,12 +62844,12 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J868" t="n">
@@ -62859,11 +62859,11 @@
         <v>7000</v>
       </c>
       <c r="L868" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M868" t="n">
         <v>7500</v>
       </c>
-      <c r="M868" t="n">
-        <v>7250</v>
-      </c>
       <c r="N868" t="inlineStr">
         <is>
           <t>$/saco 25 kilos</t>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Los Lagos</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q868" t="n">
         <v>25</v>
@@ -62916,25 +62916,25 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>1a (guarda lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J869" t="n">
         <v>340</v>
       </c>
       <c r="K869" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L869" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M869" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="Q869" t="n">
         <v>25</v>
@@ -62988,25 +62988,25 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Red Lady</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J870" t="n">
         <v>250</v>
       </c>
       <c r="K870" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L870" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M870" t="n">
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="Q870" t="n">
         <v>25</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63060,25 +63060,25 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (guarda lavada)</t>
         </is>
       </c>
       <c r="J871" t="n">
         <v>340</v>
       </c>
       <c r="K871" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L871" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="M871" t="n">
-        <v>11500</v>
+        <v>7250</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="Q871" t="n">
         <v>25</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63132,25 +63132,25 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Red Lady</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K872" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L872" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M872" t="n">
-        <v>9500</v>
+        <v>6250</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="Q872" t="n">
         <v>25</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,7 +63213,7 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K873" t="n">
         <v>11000</v>
@@ -63276,7 +63276,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -63285,7 +63285,7 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K874" t="n">
         <v>9000</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63348,25 +63348,25 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>1a (cosecha lavada)</t>
+          <t>1a (nueva lavada)</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K875" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L875" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M875" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="Q875" t="n">
         <v>25</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63420,25 +63420,25 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Asterix</t>
+          <t>Rosara</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K876" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L876" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M876" t="n">
-        <v>6750</v>
+        <v>9500</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="Q876" t="n">
         <v>25</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>1a (nueva lavada)</t>
+          <t>1a (cosecha lavada)</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K877" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L877" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M877" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="Q877" t="n">
         <v>25</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K878" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L878" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M878" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="Q878" t="n">
         <v>25</v>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,7 +63645,7 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K879" t="n">
         <v>11000</v>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Rosara</t>
+          <t>Asterix</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,7 +63717,7 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K880" t="n">
         <v>9000</v>
@@ -63745,6 +63745,150 @@
         <v>25</v>
       </c>
       <c r="R880" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+     